--- a/slides/logistic-regression.xlsx
+++ b/slides/logistic-regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_cmps460-content\slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0FDC99-EC01-4CB6-94A7-663F01F508F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D0FF0-7C7D-4C77-9CB9-9EE275EB66A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{08BA54BA-1AE0-4313-BEFF-54422C6F84F3}"/>
+    <workbookView xWindow="-180" yWindow="-180" windowWidth="19560" windowHeight="10440" xr2:uid="{08BA54BA-1AE0-4313-BEFF-54422C6F84F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Logistic Regression" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>Likelihood</t>
-  </si>
-  <si>
     <t>Emails</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Customer ID</t>
   </si>
   <si>
-    <t>Total Likelihood:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emails per week: </t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Predict if a user will unsubscribe based on the number of weekly emails received</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
   </si>
 </sst>
 </file>
@@ -9096,6 +9096,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>531091</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>6714</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D6E321-24C8-1245-9C59-4AAC46F774BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13594773" y="657768"/>
+          <a:ext cx="6327850" cy="758057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9422,8 +9466,8 @@
   </sheetPr>
   <dimension ref="A1:W626"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.8"/>
@@ -9451,7 +9495,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="24.25" x14ac:dyDescent="1.2">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -9463,10 +9507,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.75" thickBot="1" x14ac:dyDescent="0.95">
@@ -9484,8 +9528,8 @@
         <v>1.7468351644362842E-4</v>
       </c>
       <c r="E2" s="12">
-        <f>(D2^C2)*((1-D2)^(1-C2))</f>
-        <v>0.99982531648355633</v>
+        <f>C2 * LOG(D2) + (1-C2) * LOG(1-D2)</f>
+        <v>-7.5870714145460287E-5</v>
       </c>
       <c r="J2" s="8"/>
       <c r="N2"/>
@@ -9505,11 +9549,11 @@
         <v>0.38334839064092524</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E65" si="1">(D3^C3)*((1-D3)^(1-C3))</f>
-        <v>0.61665160935907481</v>
+        <f t="shared" ref="E3:E66" si="1">C3 * LOG(D3) + (1-C3) * LOG(1-D3)</f>
+        <v>-0.20996013072546493</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="24">
         <v>2.516</v>
@@ -9518,11 +9562,11 @@
         <v>47</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="26">
@@ -9545,7 +9589,7 @@
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>0.99998523741712686</v>
+        <v>-6.4113556046448754E-6</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="25"/>
@@ -9553,8 +9597,8 @@
         <v>3</v>
       </c>
       <c r="J4" s="28">
-        <f>SUM(E2:E625)</f>
-        <v>594.43112022596256</v>
+        <f>SUM(E2:E625) / - 624</f>
+        <v>3.7881670955578768E-2</v>
       </c>
       <c r="K4"/>
       <c r="L4" s="19"/>
@@ -9577,10 +9621,10 @@
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>0.76036469957536446</v>
+        <v>-0.1189780537417513</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="24">
         <v>-21.962</v>
@@ -9589,7 +9633,7 @@
       <c r="J5" s="29"/>
       <c r="K5"/>
       <c r="L5" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="21">
@@ -9613,7 +9657,7 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>0.99878893095718824</v>
+        <v>-5.2627934717257492E-4</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="25"/>
@@ -9640,7 +9684,7 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="1"/>
-        <v>0.98763593669071992</v>
+        <v>-5.4031159631414893E-3</v>
       </c>
       <c r="K7"/>
     </row>
@@ -9660,7 +9704,7 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="1"/>
-        <v>0.98592749605782826</v>
+        <v>-6.1550213871563982E-3</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.8">
@@ -9679,7 +9723,7 @@
       </c>
       <c r="E9" s="12">
         <f t="shared" si="1"/>
-        <v>0.99976963150870579</v>
+        <v>-1.0005929026988191E-4</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.8">
@@ -9698,7 +9742,7 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="1"/>
-        <v>0.90778460159261465</v>
+        <v>-4.2017188303982086E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.8">
@@ -9717,7 +9761,7 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" si="1"/>
-        <v>0.98902348405430573</v>
+        <v>-4.7933960933051675E-3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.8">
@@ -9736,7 +9780,7 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="1"/>
-        <v>0.99947170115414974</v>
+        <v>-2.2949790062578077E-4</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.8">
@@ -9755,7 +9799,7 @@
       </c>
       <c r="E13" s="12">
         <f t="shared" si="1"/>
-        <v>0.98565012192417656</v>
+        <v>-6.2772200319002758E-3</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.8">
@@ -9774,7 +9818,7 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>0.98852451021680887</v>
+        <v>-5.0125579942709398E-3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.8">
@@ -9793,7 +9837,7 @@
       </c>
       <c r="E15" s="12">
         <f t="shared" si="1"/>
-        <v>0.9984816324802015</v>
+        <v>-6.5991976259634135E-4</v>
       </c>
     </row>
     <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.8">
@@ -9812,7 +9856,7 @@
       </c>
       <c r="E16" s="12">
         <f t="shared" si="1"/>
-        <v>0.99996859776228353</v>
+        <v>-1.36380326931707E-5</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -9846,7 +9890,7 @@
       </c>
       <c r="E17" s="12">
         <f t="shared" si="1"/>
-        <v>0.99999102662746708</v>
+        <v>-3.8971036602155221E-6</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -9880,7 +9924,7 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="1"/>
-        <v>0.73773708214151146</v>
+        <v>-0.13209838630618184</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -9914,7 +9958,7 @@
       </c>
       <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>0.99992384319806038</v>
+        <v>-3.3075738328988996E-5</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -9948,7 +9992,7 @@
       </c>
       <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>0.99999352994837321</v>
+        <v>-2.8099168093092635E-6</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -9982,7 +10026,7 @@
       </c>
       <c r="E21" s="12">
         <f t="shared" si="1"/>
-        <v>0.99957028562180339</v>
+        <v>-1.8666269193953332E-4</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -10011,12 +10055,12 @@
         <v>1</v>
       </c>
       <c r="D22" s="18">
-        <f t="shared" si="0"/>
+        <f>1/(1+EXP(-($H$5+($H$3*B22))))</f>
         <v>0.99982182390375629</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="1"/>
-        <v>0.99982182390375629</v>
+        <v>-7.7387789937612077E-5</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -10050,7 +10094,7 @@
       </c>
       <c r="E23" s="12">
         <f t="shared" si="1"/>
-        <v>0.99987782818438531</v>
+        <v>-5.3061786758979796E-5</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -10084,7 +10128,7 @@
       </c>
       <c r="E24" s="12">
         <f t="shared" si="1"/>
-        <v>0.99976963150870579</v>
+        <v>-1.0005929026988191E-4</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -10118,7 +10162,7 @@
       </c>
       <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>0.9999995056393346</v>
+        <v>-2.1469816212413634E-7</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -10152,7 +10196,7 @@
       </c>
       <c r="E26" s="12">
         <f t="shared" si="1"/>
-        <v>0.99995730218024914</v>
+        <v>-1.8543823400329482E-5</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -10186,7 +10230,7 @@
       </c>
       <c r="E27" s="12">
         <f t="shared" si="1"/>
-        <v>0.99186071216763949</v>
+        <v>-3.5493119025334077E-3</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -10220,7 +10264,7 @@
       </c>
       <c r="E28" s="12">
         <f t="shared" si="1"/>
-        <v>0.96905890008510431</v>
+        <v>-1.3649825421325498E-2</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -10254,7 +10298,7 @@
       </c>
       <c r="E29" s="12">
         <f t="shared" si="1"/>
-        <v>0.99866087655003022</v>
+        <v>-5.8196367253513653E-4</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -10288,7 +10332,7 @@
       </c>
       <c r="E30" s="12">
         <f t="shared" si="1"/>
-        <v>0.96149865535451451</v>
+        <v>-1.705131878121928E-2</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -10322,7 +10366,7 @@
       </c>
       <c r="E31" s="12">
         <f t="shared" si="1"/>
-        <v>0.95678371620045954</v>
+        <v>-1.9186224685581264E-2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -10356,7 +10400,7 @@
       </c>
       <c r="E32" s="12">
         <f t="shared" si="1"/>
-        <v>0.99999947733260053</v>
+        <v>-2.2699162678190135E-7</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -10390,7 +10434,7 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="1"/>
-        <v>0.99992232038441031</v>
+        <v>-3.3737138767917552E-5</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -10424,7 +10468,7 @@
       </c>
       <c r="E34" s="12">
         <f t="shared" si="1"/>
-        <v>0.99997366854515746</v>
+        <v>-1.1435756099309525E-5</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -10458,7 +10502,7 @@
       </c>
       <c r="E35" s="12">
         <f t="shared" si="1"/>
-        <v>0.99986825097325516</v>
+        <v>-5.7221644842193206E-5</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -10492,7 +10536,7 @@
       </c>
       <c r="E36" s="12">
         <f t="shared" si="1"/>
-        <v>0.9997037468690676</v>
+        <v>-1.2868016190221296E-4</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -10526,7 +10570,7 @@
       </c>
       <c r="E37" s="12">
         <f t="shared" si="1"/>
-        <v>0.99999849632959736</v>
+        <v>-6.5303624944186376E-7</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -10560,7 +10604,7 @@
       </c>
       <c r="E38" s="12">
         <f t="shared" si="1"/>
-        <v>0.99708347019146371</v>
+        <v>-1.2684834875777023E-3</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -10593,8 +10637,8 @@
         <v>0.99995533876516418</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="1"/>
-        <v>0.99995533876516418</v>
+        <f>C39 * LOG(D39) + (1-C39) * LOG(1-D39)</f>
+        <v>-1.9396560984588127E-5</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -10628,7 +10672,7 @@
       </c>
       <c r="E40" s="12">
         <f t="shared" si="1"/>
-        <v>0.62258152534826339</v>
+        <v>-0.20580377083363197</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -10662,7 +10706,7 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="1"/>
-        <v>0.90126857376952274</v>
+        <v>-4.5145772033965512E-2</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -10696,7 +10740,7 @@
       </c>
       <c r="E42" s="12">
         <f t="shared" si="1"/>
-        <v>0.98634472473992629</v>
+        <v>-5.9712738140585159E-3</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -10730,7 +10774,7 @@
       </c>
       <c r="E43" s="12">
         <f t="shared" si="1"/>
-        <v>0.99988086331895765</v>
+        <v>-5.1743485503731655E-5</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -10764,7 +10808,7 @@
       </c>
       <c r="E44" s="12">
         <f t="shared" si="1"/>
-        <v>0.9992142768326866</v>
+        <v>-3.4136936434608895E-4</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -10798,7 +10842,7 @@
       </c>
       <c r="E45" s="12">
         <f t="shared" si="1"/>
-        <v>0.9999311340618261</v>
+        <v>-2.9909126811875411E-5</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -10832,7 +10876,7 @@
       </c>
       <c r="E46" s="12">
         <f t="shared" si="1"/>
-        <v>0.99694975969143462</v>
+        <v>-1.3267269827732168E-3</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -10866,7 +10910,7 @@
       </c>
       <c r="E47" s="12">
         <f t="shared" si="1"/>
-        <v>0.99994538132060029</v>
+        <v>-2.3721238889404815E-5</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -10900,7 +10944,7 @@
       </c>
       <c r="E48" s="12">
         <f t="shared" si="1"/>
-        <v>0.99935398396001918</v>
+        <v>-2.806518639512251E-4</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -10934,7 +10978,7 @@
       </c>
       <c r="E49" s="12">
         <f t="shared" si="1"/>
-        <v>0.99925280732320754</v>
+        <v>-3.2462294950342434E-4</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -10968,7 +11012,7 @@
       </c>
       <c r="E50" s="12">
         <f t="shared" si="1"/>
-        <v>0.99800914848720823</v>
+        <v>-8.6547763116407242E-4</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -11002,7 +11046,7 @@
       </c>
       <c r="E51" s="12">
         <f t="shared" si="1"/>
-        <v>0.87435214348465451</v>
+        <v>-5.8313620945493187E-2</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -11036,7 +11080,7 @@
       </c>
       <c r="E52" s="12">
         <f t="shared" si="1"/>
-        <v>0.99999470953963565</v>
+        <v>-2.2976238207138233E-6</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -11070,7 +11114,7 @@
       </c>
       <c r="E53" s="12">
         <f t="shared" si="1"/>
-        <v>0.99627219158389912</v>
+        <v>-1.6219917437926617E-3</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -11104,7 +11148,7 @@
       </c>
       <c r="E54" s="12">
         <f t="shared" si="1"/>
-        <v>0.90611367284670596</v>
+        <v>-4.2817316237825809E-2</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -11138,7 +11182,7 @@
       </c>
       <c r="E55" s="12">
         <f t="shared" si="1"/>
-        <v>0.94639004422083406</v>
+        <v>-2.39298370220291E-2</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -11172,7 +11216,7 @@
       </c>
       <c r="E56" s="12">
         <f t="shared" si="1"/>
-        <v>0.97275865093764768</v>
+        <v>-1.1994898239174887E-2</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -11206,7 +11250,7 @@
       </c>
       <c r="E57" s="12">
         <f t="shared" si="1"/>
-        <v>0.99997792052424295</v>
+        <v>-9.5891003461486378E-6</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -11240,7 +11284,7 @@
       </c>
       <c r="E58" s="12">
         <f t="shared" si="1"/>
-        <v>0.9999989427517938</v>
+        <v>-4.5915730467831823E-7</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -11274,7 +11318,7 @@
       </c>
       <c r="E59" s="12">
         <f t="shared" si="1"/>
-        <v>0.97341750075259159</v>
+        <v>-1.1700849984893725E-2</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -11308,7 +11352,7 @@
       </c>
       <c r="E60" s="12">
         <f t="shared" si="1"/>
-        <v>0.99999958546996925</v>
+        <v>-1.8002814224956038E-7</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -11342,7 +11386,7 @@
       </c>
       <c r="E61" s="12">
         <f t="shared" si="1"/>
-        <v>0.99989226841380752</v>
+        <v>-4.6789753822534751E-5</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -11376,7 +11420,7 @@
       </c>
       <c r="E62" s="12">
         <f t="shared" si="1"/>
-        <v>0.99872651023609249</v>
+        <v>-5.534220407188477E-4</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -11410,7 +11454,7 @@
       </c>
       <c r="E63" s="12">
         <f t="shared" si="1"/>
-        <v>0.99994256274589255</v>
+        <v>-2.4945398919007218E-5</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -11444,7 +11488,7 @@
       </c>
       <c r="E64" s="12">
         <f t="shared" si="1"/>
-        <v>0.97804326540528397</v>
+        <v>-9.6419330332944263E-3</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -11478,7 +11522,7 @@
       </c>
       <c r="E65" s="12">
         <f t="shared" si="1"/>
-        <v>0.99972674722901333</v>
+        <v>-1.1868838730825006E-4</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -11511,8 +11555,8 @@
         <v>0.50695955049679176</v>
       </c>
       <c r="E66" s="12">
-        <f t="shared" ref="E66:E129" si="3">(D66^C66)*((1-D66)^(1-C66))</f>
-        <v>0.50695955049679176</v>
+        <f t="shared" si="1"/>
+        <v>-0.29502669095629297</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -11545,8 +11589,8 @@
         <v>0.99947452377659618</v>
       </c>
       <c r="E67" s="12">
-        <f t="shared" si="3"/>
-        <v>0.99947452377659618</v>
+        <f t="shared" ref="E67:E130" si="3">C67 * LOG(D67) + (1-C67) * LOG(1-D67)</f>
+        <v>-2.2827140504756287E-4</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -11579,8 +11623,8 @@
         <v>1.0706712033761875E-2</v>
       </c>
       <c r="E68" s="12">
-        <f t="shared" si="3"/>
-        <v>0.98929328796623817</v>
+        <f>C68 * LOG(D68) + (1-C68) * LOG(1-D68)</f>
+        <v>-4.6749374596507017E-3</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -11614,7 +11658,7 @@
       </c>
       <c r="E69" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999927898126917</v>
+        <v>-3.1313456903697527E-7</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -11648,7 +11692,7 @@
       </c>
       <c r="E70" s="12">
         <f t="shared" si="3"/>
-        <v>0.9999632846897174</v>
+        <v>-1.5945549381785843E-5</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -11682,7 +11726,7 @@
       </c>
       <c r="E71" s="12">
         <f t="shared" si="3"/>
-        <v>0.9992142768326866</v>
+        <v>-3.4136936434608895E-4</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -11716,7 +11760,7 @@
       </c>
       <c r="E72" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999509416333632</v>
+        <v>-2.1305830183062863E-6</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -11750,7 +11794,7 @@
       </c>
       <c r="E73" s="12">
         <f t="shared" si="3"/>
-        <v>0.20489769273842195</v>
+        <v>-0.68846293196783059</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -11784,7 +11828,7 @@
       </c>
       <c r="E74" s="12">
         <f t="shared" si="3"/>
-        <v>0.99863413424602121</v>
+        <v>-5.9359343679370419E-4</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -11818,7 +11862,7 @@
       </c>
       <c r="E75" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999964355302873</v>
+        <v>-1.5480298030428538E-7</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -11852,7 +11896,7 @@
       </c>
       <c r="E76" s="12">
         <f t="shared" si="3"/>
-        <v>0.99736196648286857</v>
+        <v>-1.1471972381274002E-3</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -11886,7 +11930,7 @@
       </c>
       <c r="E77" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999894840347825</v>
+        <v>-4.5670280671851134E-7</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -11920,7 +11964,7 @@
       </c>
       <c r="E78" s="12">
         <f t="shared" si="3"/>
-        <v>0.99998880643158894</v>
+        <v>-4.8613322016083397E-6</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -11954,7 +11998,7 @@
       </c>
       <c r="E79" s="12">
         <f t="shared" si="3"/>
-        <v>0.99975904033140439</v>
+        <v>-1.0466006436597633E-4</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -11988,7 +12032,7 @@
       </c>
       <c r="E80" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999958546996925</v>
+        <v>-1.8002814224956038E-7</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -12022,7 +12066,7 @@
       </c>
       <c r="E81" s="12">
         <f t="shared" si="3"/>
-        <v>0.9999311340618261</v>
+        <v>-2.9909126811875411E-5</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -12056,7 +12100,7 @@
       </c>
       <c r="E82" s="12">
         <f t="shared" si="3"/>
-        <v>1.9896389655366237E-2</v>
+        <v>-1.7012257223341036</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -12090,7 +12134,7 @@
       </c>
       <c r="E83" s="12">
         <f t="shared" si="3"/>
-        <v>0.97208393977479657</v>
+        <v>-1.2296231980074819E-2</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -12124,7 +12168,7 @@
       </c>
       <c r="E84" s="12">
         <f t="shared" si="3"/>
-        <v>0.99960151414870402</v>
+        <v>-1.7309469651905952E-4</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -12158,7 +12202,7 @@
       </c>
       <c r="E85" s="12">
         <f t="shared" si="3"/>
-        <v>0.98020786461681642</v>
+        <v>-8.6818172835163108E-3</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -12192,7 +12236,7 @@
       </c>
       <c r="E86" s="12">
         <f t="shared" si="3"/>
-        <v>0.99627219158389912</v>
+        <v>-1.6219917437926617E-3</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -12226,7 +12270,7 @@
       </c>
       <c r="E87" s="12">
         <f t="shared" si="3"/>
-        <v>0.99996138997540862</v>
+        <v>-1.6768444343292114E-5</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -12260,7 +12304,7 @@
       </c>
       <c r="E88" s="12">
         <f t="shared" si="3"/>
-        <v>0.99962848881263222</v>
+        <v>-1.6137523684851476E-4</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -12294,7 +12338,7 @@
       </c>
       <c r="E89" s="12">
         <f t="shared" si="3"/>
-        <v>0.9123410370695888</v>
+        <v>-3.9842790145468238E-2</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -12328,7 +12372,7 @@
       </c>
       <c r="E90" s="12">
         <f t="shared" si="3"/>
-        <v>0.99941579836677019</v>
+        <v>-2.5378968502494945E-4</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -12362,7 +12406,7 @@
       </c>
       <c r="E91" s="12">
         <f t="shared" si="3"/>
-        <v>0.99996679975162184</v>
+        <v>-1.4418924025707275E-5</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -12396,7 +12440,7 @@
       </c>
       <c r="E92" s="12">
         <f t="shared" si="3"/>
-        <v>0.99928563364261602</v>
+        <v>-3.1035623429859563E-4</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -12430,7 +12474,7 @@
       </c>
       <c r="E93" s="12">
         <f t="shared" si="3"/>
-        <v>0.91433243991789059</v>
+        <v>-3.8895871474141086E-2</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -12464,7 +12508,7 @@
       </c>
       <c r="E94" s="12">
         <f t="shared" si="3"/>
-        <v>0.98020786461681642</v>
+        <v>-8.6818172835163108E-3</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -12498,7 +12542,7 @@
       </c>
       <c r="E95" s="12">
         <f t="shared" si="3"/>
-        <v>0.99937339036694661</v>
+        <v>-2.7221840218883021E-4</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -12532,7 +12576,7 @@
       </c>
       <c r="E96" s="12">
         <f t="shared" si="3"/>
-        <v>0.99990966362371025</v>
+        <v>-3.9234361909495547E-5</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -12565,8 +12609,8 @@
         <v>7.7160520587850615E-6</v>
       </c>
       <c r="E97" s="12">
-        <f t="shared" si="3"/>
-        <v>0.99999228394794126</v>
+        <f>C97 * LOG(D97) + (1-C97) * LOG(1-D97)</f>
+        <v>-3.351051759649313E-6</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -12600,7 +12644,7 @@
       </c>
       <c r="E98" s="12">
         <f t="shared" si="3"/>
-        <v>0.99932429632732878</v>
+        <v>-2.9355356522683626E-4</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -12634,7 +12678,7 @@
       </c>
       <c r="E99" s="12">
         <f t="shared" si="3"/>
-        <v>0.98763593669071992</v>
+        <v>-5.4031159631414893E-3</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -12668,7 +12712,7 @@
       </c>
       <c r="E100" s="12">
         <f t="shared" si="3"/>
-        <v>0.99893764052440848</v>
+        <v>-4.6162210579507856E-4</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -12697,12 +12741,12 @@
         <v>0</v>
       </c>
       <c r="D101" s="18">
-        <f t="shared" si="2"/>
+        <f>1/(1+EXP(-($H$5+($H$3*B101))))</f>
         <v>2.4252827915886555E-6</v>
       </c>
       <c r="E101" s="12">
         <f t="shared" si="3"/>
-        <v>0.9999975747172084</v>
+        <v>-1.0532882107064767E-6</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -12736,7 +12780,7 @@
       </c>
       <c r="E102" s="12">
         <f t="shared" si="3"/>
-        <v>0.9999952160537845</v>
+        <v>-2.0776464127932256E-6</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -12770,7 +12814,7 @@
       </c>
       <c r="E103" s="12">
         <f t="shared" si="3"/>
-        <v>0.46166537854183098</v>
+        <v>-0.33567269307288877</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -12804,7 +12848,7 @@
       </c>
       <c r="E104" s="12">
         <f t="shared" si="3"/>
-        <v>0.9999952160537845</v>
+        <v>-2.0776464127932256E-6</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -12838,7 +12882,7 @@
       </c>
       <c r="E105" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999967594750871</v>
+        <v>-1.4073423161475543E-7</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -12872,7 +12916,7 @@
       </c>
       <c r="E106" s="12">
         <f t="shared" si="3"/>
-        <v>0.99999998679988122</v>
+        <v>-5.7327387826397308E-9</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -12906,7 +12950,7 @@
       </c>
       <c r="E107" s="12">
         <f t="shared" si="3"/>
-        <v>0.93521122198124795</v>
+        <v>-2.9090290538162984E-2</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -12940,7 +12984,7 @@
       </c>
       <c r="E108" s="12">
         <f t="shared" si="3"/>
-        <v>0.94611744806977682</v>
+        <v>-2.4054948288952195E-2</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -12974,7 +13018,7 @@
       </c>
       <c r="E109" s="12">
         <f t="shared" si="3"/>
-        <v>0.99928944968945022</v>
+        <v>-3.0869776462527881E-4</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -13008,7 +13052,7 @@
       </c>
       <c r="E110" s="12">
         <f t="shared" si="3"/>
-        <v>0.99702532090267781</v>
+        <v>-1.2938120106414947E-3</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -13042,7 +13086,7 @@
       </c>
       <c r="E111" s="12">
         <f t="shared" si="3"/>
-        <v>0.55081396826974627</v>
+        <v>-0.25899505486109664</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -13076,7 +13120,7 @@
       </c>
       <c r="E112" s="12">
         <f t="shared" si="3"/>
-        <v>0.99932066729892355</v>
+        <v>-2.9513070077591614E-4</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -13110,7 +13154,7 @@
       </c>
       <c r="E113" s="12">
         <f t="shared" si="3"/>
-        <v>0.99564419273792026</v>
+        <v>-1.8958350081318203E-3</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -13144,7 +13188,7 @@
       </c>
       <c r="E114" s="12">
         <f t="shared" si="3"/>
-        <v>0.95127263861683187</v>
+        <v>-2.1694994653037532E-2</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -13178,7 +13222,7 @@
       </c>
       <c r="E115" s="12">
         <f t="shared" si="3"/>
-        <v>0.936400639304239</v>
+        <v>-2.8538298471559698E-2</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -13212,7 +13256,7 @@
       </c>
       <c r="E116" s="12">
         <f t="shared" si="3"/>
-        <v>0.5619106582507829</v>
+        <v>-0.25033273018379382</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -13246,7 +13290,7 @@
       </c>
       <c r="E117" s="12">
         <f t="shared" si="3"/>
-        <v>0.88445177351840254</v>
+        <v>-5.332584287392908E-2</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -13280,7 +13324,7 @@
       </c>
       <c r="E118" s="12">
         <f t="shared" si="3"/>
-        <v>0.98846354794995328</v>
+        <v>-5.0393417434177494E-3</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -13314,7 +13358,7 @@
       </c>
       <c r="E119" s="12">
         <f t="shared" si="3"/>
-        <v>0.99991143453566367</v>
+        <v>-3.8465195817576467E-5</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -13348,7 +13392,7 @@
       </c>
       <c r="E120" s="12">
         <f t="shared" si="3"/>
-        <v>0.99998148591037239</v>
+        <v>-8.0406413955398557E-6</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -13382,7 +13426,7 @@
       </c>
       <c r="E121" s="12">
         <f t="shared" si="3"/>
-        <v>0.93963715336800213</v>
+        <v>-2.7039819497982894E-2</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -13416,7 +13460,7 @@
       </c>
       <c r="E122" s="12">
         <f t="shared" si="3"/>
-        <v>0.99998908454535407</v>
+        <v>-4.7405475928567785E-6</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -13450,7 +13494,7 @@
       </c>
       <c r="E123" s="12">
         <f t="shared" si="3"/>
-        <v>0.99855603865009968</v>
+        <v>-6.2755763994995408E-4</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -13484,7 +13528,7 @@
       </c>
       <c r="E124" s="12">
         <f t="shared" si="3"/>
-        <v>0.9999835866645026</v>
+        <v>-7.1282795357296181E-6</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -13518,7 +13562,7 @@
       </c>
       <c r="E125" s="12">
         <f t="shared" si="3"/>
-        <v>0.99617757312699562</v>
+        <v>-1.6632397335569061E-3</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -13552,7 +13596,7 @@
       </c>
       <c r="E126" s="12">
         <f t="shared" si="3"/>
-        <v>0.98627234341429149</v>
+        <v>-6.0031449874733949E-3</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -13586,7 +13630,7 @@
       </c>
       <c r="E127" s="12">
         <f t="shared" si="3"/>
-        <v>0.62847497820399156</v>
+        <v>-0.20171200842234197</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -13620,7 +13664,7 @@
       </c>
       <c r="E128" s="12">
         <f t="shared" si="3"/>
-        <v>0.99995753041861801</v>
+        <v>-1.8444696514980516E-5</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -13654,7 +13698,7 @@
       </c>
       <c r="E129" s="12">
         <f t="shared" si="3"/>
-        <v>0.9999918857445762</v>
+        <v>-3.5239906526079224E-6</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -13687,8 +13731,8 @@
         <v>0.99105433230593354</v>
       </c>
       <c r="E130" s="12">
-        <f t="shared" ref="E130:E193" si="5">(D130^C130)*((1-D130)^(1-C130))</f>
-        <v>0.99105433230593354</v>
+        <f t="shared" si="3"/>
+        <v>-3.9025356521216891E-3</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -13721,8 +13765,8 @@
         <v>3.671531028258093E-5</v>
       </c>
       <c r="E131" s="12">
-        <f t="shared" si="5"/>
-        <v>0.9999632846897174</v>
+        <f t="shared" ref="E131:E194" si="5">C131 * LOG(D131) + (1-C131) * LOG(1-D131)</f>
+        <v>-1.5945549381785843E-5</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -13756,7 +13800,7 @@
       </c>
       <c r="E132" s="12">
         <f t="shared" si="5"/>
-        <v>0.8869982796640582</v>
+        <v>-5.2077222482964786E-2</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -13790,7 +13834,7 @@
       </c>
       <c r="E133" s="12">
         <f t="shared" si="5"/>
-        <v>0.99997088069261364</v>
+        <v>-1.2646538644857679E-5</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -13824,7 +13868,7 @@
       </c>
       <c r="E134" s="12">
         <f t="shared" si="5"/>
-        <v>0.94349383055570402</v>
+        <v>-2.5260935312906962E-2</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -13858,7 +13902,7 @@
       </c>
       <c r="E135" s="12">
         <f t="shared" si="5"/>
-        <v>0.94242891230911319</v>
+        <v>-2.5751398847616278E-2</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -13892,7 +13936,7 @@
       </c>
       <c r="E136" s="12">
         <f t="shared" si="5"/>
-        <v>0.99938566766934844</v>
+        <v>-2.6688312711962986E-4</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -13926,7 +13970,7 @@
       </c>
       <c r="E137" s="12">
         <f t="shared" si="5"/>
-        <v>0.9999967199217531</v>
+        <v>-1.424522219114466E-6</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -13960,7 +14004,7 @@
       </c>
       <c r="E138" s="12">
         <f t="shared" si="5"/>
-        <v>0.91433243991789059</v>
+        <v>-3.8895871474141086E-2</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -13994,7 +14038,7 @@
       </c>
       <c r="E139" s="12">
         <f t="shared" si="5"/>
-        <v>0.99975774563377295</v>
+        <v>-1.0522248028667612E-4</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -14028,7 +14072,7 @@
       </c>
       <c r="E140" s="12">
         <f t="shared" si="5"/>
-        <v>0.99687228513575965</v>
+        <v>-1.3604780109773384E-3</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -14062,7 +14106,7 @@
       </c>
       <c r="E141" s="12">
         <f t="shared" si="5"/>
-        <v>0.99990917816484215</v>
+        <v>-3.944521311581813E-5</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -14096,7 +14140,7 @@
       </c>
       <c r="E142" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999710765478644</v>
+        <v>-1.2561313825905527E-6</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -14130,7 +14174,7 @@
       </c>
       <c r="E143" s="12">
         <f t="shared" si="5"/>
-        <v>0.99127465814466942</v>
+        <v>-3.8059963825668825E-3</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -14164,7 +14208,7 @@
       </c>
       <c r="E144" s="12">
         <f t="shared" si="5"/>
-        <v>0.99981162358589026</v>
+        <v>-8.1818543752492002E-5</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -14198,7 +14242,7 @@
       </c>
       <c r="E145" s="12">
         <f t="shared" si="5"/>
-        <v>0.99898972305991851</v>
+        <v>-4.3897948305219534E-4</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -14232,7 +14276,7 @@
       </c>
       <c r="E146" s="12">
         <f t="shared" si="5"/>
-        <v>0.91391166500647047</v>
+        <v>-3.9095779380188725E-2</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -14266,7 +14310,7 @@
       </c>
       <c r="E147" s="12">
         <f t="shared" si="5"/>
-        <v>0.99856374649139212</v>
+        <v>-6.2420533933622239E-4</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -14300,7 +14344,7 @@
       </c>
       <c r="E148" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999932780722645</v>
+        <v>-2.919297104463789E-7</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -14334,7 +14378,7 @@
       </c>
       <c r="E149" s="12">
         <f t="shared" si="5"/>
-        <v>3.7893760031126877E-4</v>
+        <v>-3.4214322994557604</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -14368,7 +14412,7 @@
       </c>
       <c r="E150" s="12">
         <f t="shared" si="5"/>
-        <v>0.99819941237789156</v>
+        <v>-7.8269013120102005E-4</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -14402,7 +14446,7 @@
       </c>
       <c r="E151" s="12">
         <f t="shared" si="5"/>
-        <v>0.99873330925726167</v>
+        <v>-5.5046550827968373E-4</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -14436,7 +14480,7 @@
       </c>
       <c r="E152" s="12">
         <f t="shared" si="5"/>
-        <v>0.96905890008510431</v>
+        <v>-1.3649825421325498E-2</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -14470,7 +14514,7 @@
       </c>
       <c r="E153" s="12">
         <f t="shared" si="5"/>
-        <v>0.99767307966849761</v>
+        <v>-1.0117462432970633E-3</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -14504,7 +14548,7 @@
       </c>
       <c r="E154" s="12">
         <f t="shared" si="5"/>
-        <v>0.99006395020050997</v>
+        <v>-4.3367525517278337E-3</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -14538,7 +14582,7 @@
       </c>
       <c r="E155" s="12">
         <f t="shared" si="5"/>
-        <v>0.99947170115414974</v>
+        <v>-2.2949790062578077E-4</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -14572,7 +14616,7 @@
       </c>
       <c r="E156" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999995330739555</v>
+        <v>-2.0278340931559759E-8</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -14606,7 +14650,7 @@
       </c>
       <c r="E157" s="12">
         <f t="shared" si="5"/>
-        <v>0.99993927412826444</v>
+        <v>-2.637371179494154E-5</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -14640,7 +14684,7 @@
       </c>
       <c r="E158" s="12">
         <f t="shared" si="5"/>
-        <v>0.98492072691294252</v>
+        <v>-6.5987230554127429E-3</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -14674,7 +14718,7 @@
       </c>
       <c r="E159" s="12">
         <f t="shared" si="5"/>
-        <v>0.99998101419543106</v>
+        <v>-8.2455084328370136E-6</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -14708,7 +14752,7 @@
       </c>
       <c r="E160" s="12">
         <f t="shared" si="5"/>
-        <v>0.99979685756263459</v>
+        <v>-8.8232601784520102E-5</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -14742,7 +14786,7 @@
       </c>
       <c r="E161" s="12">
         <f t="shared" si="5"/>
-        <v>0.9997037468690676</v>
+        <v>-1.2868016190221296E-4</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -14776,7 +14820,7 @@
       </c>
       <c r="E162" s="12">
         <f t="shared" si="5"/>
-        <v>0.98634472473992629</v>
+        <v>-5.9712738140585159E-3</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -14810,7 +14854,7 @@
       </c>
       <c r="E163" s="12">
         <f t="shared" si="5"/>
-        <v>0.99493800623736461</v>
+        <v>-2.2039789405052597E-3</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -14844,7 +14888,7 @@
       </c>
       <c r="E164" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999284491421214</v>
+        <v>-3.1074253921718802E-6</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -14878,7 +14922,7 @@
       </c>
       <c r="E165" s="12">
         <f t="shared" si="5"/>
-        <v>0.99968223480095564</v>
+        <v>-1.3802560351415112E-4</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -14912,7 +14956,7 @@
       </c>
       <c r="E166" s="12">
         <f t="shared" si="5"/>
-        <v>0.99983388763917769</v>
+        <v>-7.2147674157206526E-5</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -14946,7 +14990,7 @@
       </c>
       <c r="E167" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999770606596228</v>
+        <v>-9.9624403709246133E-7</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -14980,7 +15024,7 @@
       </c>
       <c r="E168" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999403240146911</v>
+        <v>-2.5917028453069704E-6</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -15014,7 +15058,7 @@
       </c>
       <c r="E169" s="12">
         <f t="shared" si="5"/>
-        <v>0.99836278484520469</v>
+        <v>-7.1161620091620423E-4</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -15048,7 +15092,7 @@
       </c>
       <c r="E170" s="12">
         <f t="shared" si="5"/>
-        <v>0.95218227066822692</v>
+        <v>-2.1279909211686598E-2</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -15082,7 +15126,7 @@
       </c>
       <c r="E171" s="12">
         <f t="shared" si="5"/>
-        <v>0.99903925468710841</v>
+        <v>-4.1744695012874741E-4</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -15116,7 +15160,7 @@
       </c>
       <c r="E172" s="12">
         <f t="shared" si="5"/>
-        <v>0.99982965595272566</v>
+        <v>-7.398578145395896E-5</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -15150,7 +15194,7 @@
       </c>
       <c r="E173" s="12">
         <f t="shared" si="5"/>
-        <v>0.87977698786638114</v>
+        <v>-5.562740195605554E-2</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -15184,7 +15228,7 @@
       </c>
       <c r="E174" s="12">
         <f t="shared" si="5"/>
-        <v>0.99030842995603574</v>
+        <v>-4.2295240220177905E-3</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -15218,7 +15262,7 @@
       </c>
       <c r="E175" s="12">
         <f t="shared" si="5"/>
-        <v>0.94983830132057112</v>
+        <v>-2.2350321891510438E-2</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -15252,7 +15296,7 @@
       </c>
       <c r="E176" s="12">
         <f t="shared" si="5"/>
-        <v>0.99634500914069901</v>
+        <v>-1.5902503103588392E-3</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -15286,7 +15330,7 @@
       </c>
       <c r="E177" s="12">
         <f t="shared" si="5"/>
-        <v>0.944820319881161</v>
+        <v>-2.4650775092504594E-2</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -15320,7 +15364,7 @@
       </c>
       <c r="E178" s="12">
         <f t="shared" si="5"/>
-        <v>0.99918994659605476</v>
+        <v>-3.5194428946809666E-4</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -15354,7 +15398,7 @@
       </c>
       <c r="E179" s="12">
         <f t="shared" si="5"/>
-        <v>0.45051255001048995</v>
+        <v>-0.346293106295603</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -15388,7 +15432,7 @@
       </c>
       <c r="E180" s="12">
         <f t="shared" si="5"/>
-        <v>0.99926744550427404</v>
+        <v>-3.1826096117390518E-4</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -15422,7 +15466,7 @@
       </c>
       <c r="E181" s="12">
         <f t="shared" si="5"/>
-        <v>0.99210343879008478</v>
+        <v>-3.4430450295013827E-3</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -15456,7 +15500,7 @@
       </c>
       <c r="E182" s="12">
         <f t="shared" si="5"/>
-        <v>0.98955653009750077</v>
+        <v>-4.5593909389975628E-3</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -15490,7 +15534,7 @@
       </c>
       <c r="E183" s="12">
         <f t="shared" si="5"/>
-        <v>0.99963047405156613</v>
+        <v>-1.605127389627763E-4</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -15524,7 +15568,7 @@
       </c>
       <c r="E184" s="12">
         <f t="shared" si="5"/>
-        <v>0.99963047405156613</v>
+        <v>-1.605127389627763E-4</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -15558,7 +15602,7 @@
       </c>
       <c r="E185" s="12">
         <f t="shared" si="5"/>
-        <v>0.99965733001907564</v>
+        <v>-1.4884518567454317E-4</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -15592,7 +15636,7 @@
       </c>
       <c r="E186" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999943635463218</v>
+        <v>-2.4478814198302683E-7</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -15626,7 +15670,7 @@
       </c>
       <c r="E187" s="12">
         <f t="shared" si="5"/>
-        <v>0.98162034007099908</v>
+        <v>-8.0564512090515079E-3</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -15660,7 +15704,7 @@
       </c>
       <c r="E188" s="12">
         <f t="shared" si="5"/>
-        <v>0.99984596243387647</v>
+        <v>-6.6902817879170955E-5</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -15694,7 +15738,7 @@
       </c>
       <c r="E189" s="12">
         <f t="shared" si="5"/>
-        <v>0.99993284499863355</v>
+        <v>-2.9166025858868305E-5</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -15728,7 +15772,7 @@
       </c>
       <c r="E190" s="12">
         <f t="shared" si="5"/>
-        <v>0.99955697445401914</v>
+        <v>-1.9244618239751737E-4</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -15762,7 +15806,7 @@
       </c>
       <c r="E191" s="12">
         <f t="shared" si="5"/>
-        <v>0.99999731793270497</v>
+        <v>-1.1648085883748755E-6</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -15796,7 +15840,7 @@
       </c>
       <c r="E192" s="12">
         <f t="shared" si="5"/>
-        <v>0.99818975283475397</v>
+        <v>-7.8689280506390462E-4</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -15830,7 +15874,7 @@
       </c>
       <c r="E193" s="12">
         <f t="shared" si="5"/>
-        <v>0.99190386977820444</v>
+        <v>-3.5304153940524884E-3</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -15863,8 +15907,8 @@
         <v>4.4302554598083497E-4</v>
       </c>
       <c r="E194" s="12">
-        <f t="shared" ref="E194:E257" si="7">(D194^C194)*((1-D194)^(1-C194))</f>
-        <v>0.99955697445401914</v>
+        <f t="shared" si="5"/>
+        <v>-1.9244618239751737E-4</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -15897,8 +15941,8 @@
         <v>0.99970533007116591</v>
       </c>
       <c r="E195" s="12">
-        <f t="shared" si="7"/>
-        <v>0.99970533007116591</v>
+        <f t="shared" ref="E195:E258" si="7">C195 * LOG(D195) + (1-C195) * LOG(1-D195)</f>
+        <v>-1.2799238275490015E-4</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -15932,7 +15976,7 @@
       </c>
       <c r="E196" s="12">
         <f t="shared" si="7"/>
-        <v>0.94509909751479715</v>
+        <v>-2.4522651546357681E-2</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -15966,7 +16010,7 @@
       </c>
       <c r="E197" s="12">
         <f t="shared" si="7"/>
-        <v>0.99636447645007176</v>
+        <v>-1.5817648335751031E-3</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -16000,7 +16044,7 @@
       </c>
       <c r="E198" s="12">
         <f t="shared" si="7"/>
-        <v>0.98521198826636758</v>
+        <v>-6.4703122143245934E-3</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -16034,7 +16078,7 @@
       </c>
       <c r="E199" s="12">
         <f t="shared" si="7"/>
-        <v>0.80402448582915831</v>
+        <v>-9.473072500955701E-2</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -16068,7 +16112,7 @@
       </c>
       <c r="E200" s="12">
         <f t="shared" si="7"/>
-        <v>0.99998325844727276</v>
+        <v>-7.2708248305509759E-6</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -16102,7 +16146,7 @@
       </c>
       <c r="E201" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999598857497296</v>
+        <v>-1.7421432480527284E-6</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -16136,7 +16180,7 @@
       </c>
       <c r="E202" s="12">
         <f t="shared" si="7"/>
-        <v>0.92330761246420845</v>
+        <v>-3.4653583764006325E-2</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -16170,7 +16214,7 @@
       </c>
       <c r="E203" s="12">
         <f t="shared" si="7"/>
-        <v>0.99923378405057273</v>
+        <v>-3.3289090823674733E-4</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -16204,7 +16248,7 @@
       </c>
       <c r="E204" s="12">
         <f t="shared" si="7"/>
-        <v>0.99608056253220989</v>
+        <v>-1.705534620229263E-3</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -16238,7 +16282,7 @@
       </c>
       <c r="E205" s="12">
         <f t="shared" si="7"/>
-        <v>0.99991831185670021</v>
+        <v>-3.5478158964214996E-5</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -16272,7 +16316,7 @@
       </c>
       <c r="E206" s="12">
         <f t="shared" si="7"/>
-        <v>0.97749641512137786</v>
+        <v>-9.8848266644319168E-3</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -16306,7 +16350,7 @@
       </c>
       <c r="E207" s="12">
         <f t="shared" si="7"/>
-        <v>0.99244798359051223</v>
+        <v>-3.292246309538757E-3</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -16340,7 +16384,7 @@
       </c>
       <c r="E208" s="12">
         <f t="shared" si="7"/>
-        <v>0.99948757313429659</v>
+        <v>-2.226011984433365E-4</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -16374,7 +16418,7 @@
       </c>
       <c r="E209" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999994175456164</v>
+        <v>-2.5295673213029116E-8</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -16408,7 +16452,7 @@
       </c>
       <c r="E210" s="12">
         <f t="shared" si="7"/>
-        <v>0.7011457947717572</v>
+        <v>-0.15419166636812481</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -16442,7 +16486,7 @@
       </c>
       <c r="E211" s="12">
         <f t="shared" si="7"/>
-        <v>0.99615710885766195</v>
+        <v>-1.6721614466892114E-3</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -16476,7 +16520,7 @@
       </c>
       <c r="E212" s="12">
         <f t="shared" si="7"/>
-        <v>0.96607076319392438</v>
+        <v>-1.4991061018173792E-2</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -16510,7 +16554,7 @@
       </c>
       <c r="E213" s="12">
         <f t="shared" si="7"/>
-        <v>0.999999969556704</v>
+        <v>-1.3221355662921992E-8</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -16544,7 +16588,7 @@
       </c>
       <c r="E214" s="12">
         <f t="shared" si="7"/>
-        <v>0.99206133649709538</v>
+        <v>-3.4614757503278501E-3</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -16578,7 +16622,7 @@
       </c>
       <c r="E215" s="12">
         <f t="shared" si="7"/>
-        <v>0.99790662058441293</v>
+        <v>-9.1009604959060722E-4</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -16612,7 +16656,7 @@
       </c>
       <c r="E216" s="12">
         <f t="shared" si="7"/>
-        <v>0.99873330925726167</v>
+        <v>-5.5046550827968373E-4</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -16646,7 +16690,7 @@
       </c>
       <c r="E217" s="12">
         <f t="shared" si="7"/>
-        <v>0.23866001702458073</v>
+        <v>-0.62222033273204214</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -16680,7 +16724,7 @@
       </c>
       <c r="E218" s="12">
         <f t="shared" si="7"/>
-        <v>0.99303037616699419</v>
+        <v>-3.0374665097201688E-3</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -16714,7 +16758,7 @@
       </c>
       <c r="E219" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999999572242682</v>
+        <v>-1.8577264339616872E-9</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -16748,7 +16792,7 @@
       </c>
       <c r="E220" s="12">
         <f t="shared" si="7"/>
-        <v>0.66298836812063822</v>
+        <v>-0.17849409106028791</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -16782,7 +16826,7 @@
       </c>
       <c r="E221" s="12">
         <f t="shared" si="7"/>
-        <v>0.99963965203104066</v>
+        <v>-1.5652533797194863E-4</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -16816,7 +16860,7 @@
       </c>
       <c r="E222" s="12">
         <f t="shared" si="7"/>
-        <v>0.99997496072684688</v>
+        <v>-1.0874554307302423E-5</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -16850,7 +16894,7 @@
       </c>
       <c r="E223" s="12">
         <f t="shared" si="7"/>
-        <v>0.99918994659605476</v>
+        <v>-3.5194428946809666E-4</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -16884,7 +16928,7 @@
       </c>
       <c r="E224" s="12">
         <f t="shared" si="7"/>
-        <v>0.99987404249445033</v>
+        <v>-5.4706095008483564E-5</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -16918,7 +16962,7 @@
       </c>
       <c r="E225" s="12">
         <f t="shared" si="7"/>
-        <v>0.79597414854815751</v>
+        <v>-9.9101036942228687E-2</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -16952,7 +16996,7 @@
       </c>
       <c r="E226" s="12">
         <f t="shared" si="7"/>
-        <v>0.99995836301144736</v>
+        <v>-1.8083090836816103E-5</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -16986,7 +17030,7 @@
       </c>
       <c r="E227" s="12">
         <f t="shared" si="7"/>
-        <v>0.99870107693243304</v>
+        <v>-5.6448180930062004E-4</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -17020,7 +17064,7 @@
       </c>
       <c r="E228" s="12">
         <f t="shared" si="7"/>
-        <v>0.8971950701209751</v>
+        <v>-4.7113121430063132E-2</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -17054,7 +17098,7 @@
       </c>
       <c r="E229" s="12">
         <f t="shared" si="7"/>
-        <v>0.99978210514294275</v>
+        <v>-9.4640845306282099E-5</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -17088,7 +17132,7 @@
       </c>
       <c r="E230" s="12">
         <f t="shared" si="7"/>
-        <v>0.99997606153404806</v>
+        <v>-1.0396468106403883E-5</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -17122,7 +17166,7 @@
       </c>
       <c r="E231" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999994175456164</v>
+        <v>-2.5295673213029116E-8</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -17156,7 +17200,7 @@
       </c>
       <c r="E232" s="12">
         <f t="shared" si="7"/>
-        <v>0.99997366854515746</v>
+        <v>-1.1435756099309525E-5</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -17190,7 +17234,7 @@
       </c>
       <c r="E233" s="12">
         <f t="shared" si="7"/>
-        <v>0.99997013877857599</v>
+        <v>-1.2968757319769426E-5</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -17224,7 +17268,7 @@
       </c>
       <c r="E234" s="12">
         <f t="shared" si="7"/>
-        <v>0.999981848877461</v>
+        <v>-7.8830039019391006E-6</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -17258,7 +17302,7 @@
       </c>
       <c r="E235" s="12">
         <f t="shared" si="7"/>
-        <v>0.98162034007099908</v>
+        <v>-8.0564512090515079E-3</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -17292,7 +17336,7 @@
       </c>
       <c r="E236" s="12">
         <f t="shared" si="7"/>
-        <v>0.9999669772230283</v>
+        <v>-1.4341846621036835E-5</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -17326,7 +17370,7 @@
       </c>
       <c r="E237" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999007655008565</v>
+        <v>-4.3097209229310737E-6</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -17360,7 +17404,7 @@
       </c>
       <c r="E238" s="12">
         <f t="shared" si="7"/>
-        <v>0.97392506862412331</v>
+        <v>-1.1474455374868842E-2</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -17394,7 +17438,7 @@
       </c>
       <c r="E239" s="12">
         <f t="shared" si="7"/>
-        <v>0.9999311340618261</v>
+        <v>-2.9909126811875411E-5</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -17428,7 +17472,7 @@
       </c>
       <c r="E240" s="12">
         <f t="shared" si="7"/>
-        <v>0.97406084076267796</v>
+        <v>-1.1413915829503723E-2</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -17462,7 +17506,7 @@
       </c>
       <c r="E241" s="12">
         <f t="shared" si="7"/>
-        <v>0.9675139790110302</v>
+        <v>-1.43427514113822E-2</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -17496,7 +17540,7 @@
       </c>
       <c r="E242" s="12">
         <f t="shared" si="7"/>
-        <v>0.99997545161644052</v>
+        <v>-1.0661358379617325E-5</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -17530,7 +17574,7 @@
       </c>
       <c r="E243" s="12">
         <f t="shared" si="7"/>
-        <v>0.84067245519691047</v>
+        <v>-7.5373182096293206E-2</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -17564,7 +17608,7 @@
       </c>
       <c r="E244" s="12">
         <f t="shared" si="7"/>
-        <v>0.99470645752863984</v>
+        <v>-2.3050626554868129E-3</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -17598,7 +17642,7 @@
       </c>
       <c r="E245" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999446625376776</v>
+        <v>-2.4032821024995453E-6</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -17632,7 +17676,7 @@
       </c>
       <c r="E246" s="12">
         <f t="shared" si="7"/>
-        <v>0.99998138641027712</v>
+        <v>-8.0838545400681545E-6</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -17666,7 +17710,7 @@
       </c>
       <c r="E247" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999124957905239</v>
+        <v>-3.800276158910781E-6</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -17700,7 +17744,7 @@
       </c>
       <c r="E248" s="12">
         <f t="shared" si="7"/>
-        <v>0.88753441157332813</v>
+        <v>-5.1814799437165229E-2</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -17734,7 +17778,7 @@
       </c>
       <c r="E249" s="12">
         <f t="shared" si="7"/>
-        <v>0.9995787067378189</v>
+        <v>-1.8300389088868362E-4</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -17768,7 +17812,7 @@
       </c>
       <c r="E250" s="12">
         <f t="shared" si="7"/>
-        <v>0.99767307966849761</v>
+        <v>-1.0117462432970633E-3</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -17802,7 +17846,7 @@
       </c>
       <c r="E251" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999545082449537</v>
+        <v>-1.9756863127460618E-6</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -17836,7 +17880,7 @@
       </c>
       <c r="E252" s="12">
         <f t="shared" si="7"/>
-        <v>0.99999999117431859</v>
+        <v>-3.8329447514100279E-9</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -17870,7 +17914,7 @@
       </c>
       <c r="E253" s="12">
         <f t="shared" si="7"/>
-        <v>0.97261625442505695</v>
+        <v>-1.2058476750031992E-2</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -17904,7 +17948,7 @@
       </c>
       <c r="E254" s="12">
         <f t="shared" si="7"/>
-        <v>0.99979685756263459</v>
+        <v>-8.8232601784520102E-5</v>
       </c>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -17938,7 +17982,7 @@
       </c>
       <c r="E255" s="12">
         <f t="shared" si="7"/>
-        <v>0.99971828137203811</v>
+        <v>-1.223660827850967E-4</v>
       </c>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -17972,7 +18016,7 @@
       </c>
       <c r="E256" s="12">
         <f t="shared" si="7"/>
-        <v>0.99950029859418399</v>
+        <v>-2.1707180320586195E-4</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -18006,7 +18050,7 @@
       </c>
       <c r="E257" s="12">
         <f t="shared" si="7"/>
-        <v>0.98375768918940676</v>
+        <v>-7.1118601124428131E-3</v>
       </c>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -18039,8 +18083,8 @@
         <v>3.0814964605555891E-7</v>
       </c>
       <c r="E258" s="12">
-        <f t="shared" ref="E258:E321" si="9">(D258^C258)*((1-D258)^(1-C258))</f>
-        <v>0.99999969185035398</v>
+        <f t="shared" si="7"/>
+        <v>-1.3382771148737054E-7</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -18073,8 +18117,8 @@
         <v>0.99986489456908167</v>
       </c>
       <c r="E259" s="12">
-        <f t="shared" si="9"/>
-        <v>0.99986489456908167</v>
+        <f t="shared" ref="E259:E322" si="9">C259 * LOG(D259) + (1-C259) * LOG(1-D259)</f>
+        <v>-5.8679507172305738E-5</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -18108,7 +18152,7 @@
       </c>
       <c r="E260" s="12">
         <f t="shared" si="9"/>
-        <v>0.99818975283475397</v>
+        <v>-7.8689280506390462E-4</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -18142,7 +18186,7 @@
       </c>
       <c r="E261" s="12">
         <f t="shared" si="9"/>
-        <v>0.99694975969143462</v>
+        <v>-1.3267269827732168E-3</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -18176,7 +18220,7 @@
       </c>
       <c r="E262" s="12">
         <f t="shared" si="9"/>
-        <v>0.99823465106103015</v>
+        <v>-7.6735883033966681E-4</v>
       </c>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -18210,7 +18254,7 @@
       </c>
       <c r="E263" s="12">
         <f t="shared" si="9"/>
-        <v>0.99999802748656375</v>
+        <v>-8.566525457250475E-7</v>
       </c>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
@@ -18244,7 +18288,7 @@
       </c>
       <c r="E264" s="12">
         <f t="shared" si="9"/>
-        <v>0.99993927412826444</v>
+        <v>-2.637371179494154E-5</v>
       </c>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -18278,7 +18322,7 @@
       </c>
       <c r="E265" s="12">
         <f t="shared" si="9"/>
-        <v>0.99997835338889784</v>
+        <v>-9.401105504976148E-6</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
@@ -18312,7 +18356,7 @@
       </c>
       <c r="E266" s="12">
         <f t="shared" si="9"/>
-        <v>0.99828762475998944</v>
+        <v>-7.4431257092344048E-4</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -18346,7 +18390,7 @@
       </c>
       <c r="E267" s="12">
         <f t="shared" si="9"/>
-        <v>0.99940412286098657</v>
+        <v>-2.5886328638489721E-4</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -18380,7 +18424,7 @@
       </c>
       <c r="E268" s="12">
         <f t="shared" si="9"/>
-        <v>0.99975290239270009</v>
+        <v>-1.073263879348306E-4</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -18414,7 +18458,7 @@
       </c>
       <c r="E269" s="12">
         <f t="shared" si="9"/>
-        <v>0.99996040626243554</v>
+        <v>-1.7195682165079684E-5</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -18448,7 +18492,7 @@
       </c>
       <c r="E270" s="12">
         <f t="shared" si="9"/>
-        <v>0.98981336663173236</v>
+        <v>-4.446685688323339E-3</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -18482,7 +18526,7 @@
       </c>
       <c r="E271" s="12">
         <f t="shared" si="9"/>
-        <v>0.99970533007116591</v>
+        <v>-1.2799238275490015E-4</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -18516,7 +18560,7 @@
       </c>
       <c r="E272" s="12">
         <f t="shared" si="9"/>
-        <v>0.91819263992572075</v>
+        <v>-3.7066192785917093E-2</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -18550,7 +18594,7 @@
       </c>
       <c r="E273" s="12">
         <f t="shared" si="9"/>
-        <v>0.99996595386518239</v>
+        <v>-1.4786300191035955E-5</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -18584,7 +18628,7 @@
       </c>
       <c r="E274" s="12">
         <f t="shared" si="9"/>
-        <v>0.99999630009605667</v>
+        <v>-1.6068508387602053E-6</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -18618,7 +18662,7 @@
       </c>
       <c r="E275" s="12">
         <f t="shared" si="9"/>
-        <v>0.99210343879008478</v>
+        <v>-3.4430450295013827E-3</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -18652,7 +18696,7 @@
       </c>
       <c r="E276" s="12">
         <f t="shared" si="9"/>
-        <v>0.99992613222375493</v>
+        <v>-3.2081552524759405E-5</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -18686,7 +18730,7 @@
       </c>
       <c r="E277" s="12">
         <f t="shared" si="9"/>
-        <v>0.99914817732921402</v>
+        <v>-3.700995374589501E-4</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -18720,7 +18764,7 @@
       </c>
       <c r="E278" s="12">
         <f t="shared" si="9"/>
-        <v>0.99890475352169272</v>
+        <v>-4.759201744011345E-4</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -18754,7 +18798,7 @@
       </c>
       <c r="E279" s="12">
         <f t="shared" si="9"/>
-        <v>0.99875811222712119</v>
+        <v>-5.3968018742223589E-4</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -18788,7 +18832,7 @@
       </c>
       <c r="E280" s="12">
         <f t="shared" si="9"/>
-        <v>0.98929328796623817</v>
+        <v>-4.6749374596507017E-3</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -18822,7 +18866,7 @@
       </c>
       <c r="E281" s="12">
         <f t="shared" si="9"/>
-        <v>0.49304044950320824</v>
+        <v>-0.30711744933248014</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -18856,7 +18900,7 @@
       </c>
       <c r="E282" s="12">
         <f t="shared" si="9"/>
-        <v>0.99977086269835025</v>
+        <v>-9.9524468524272484E-5</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -18890,7 +18934,7 @@
       </c>
       <c r="E283" s="12">
         <f t="shared" si="9"/>
-        <v>0.97815807500352214</v>
+        <v>-9.5909554840906235E-3</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -18924,7 +18968,7 @@
       </c>
       <c r="E284" s="12">
         <f t="shared" si="9"/>
-        <v>0.97920767863366109</v>
+        <v>-9.1251895866345696E-3</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -18958,7 +19002,7 @@
       </c>
       <c r="E285" s="12">
         <f t="shared" si="9"/>
-        <v>0.99709901574201798</v>
+        <v>-1.2617124454372475E-3</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -18992,7 +19036,7 @@
       </c>
       <c r="E286" s="12">
         <f t="shared" si="9"/>
-        <v>0.99729493336220287</v>
+        <v>-1.1763873353547343E-3</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -19026,7 +19070,7 @@
       </c>
       <c r="E287" s="12">
         <f t="shared" si="9"/>
-        <v>0.98284362156881167</v>
+        <v>-7.5155764632110576E-3</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -19060,7 +19104,7 @@
       </c>
       <c r="E288" s="12">
         <f t="shared" si="9"/>
-        <v>0.99809650822989981</v>
+        <v>-8.2746375741145394E-4</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -19094,7 +19138,7 @@
       </c>
       <c r="E289" s="12">
         <f t="shared" si="9"/>
-        <v>0.99999703396040895</v>
+        <v>-1.2881365378306976E-6</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -19128,7 +19172,7 @@
       </c>
       <c r="E290" s="12">
         <f t="shared" si="9"/>
-        <v>0.99870107693243304</v>
+        <v>-5.6448180930062004E-4</v>
       </c>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -19162,7 +19206,7 @@
       </c>
       <c r="E291" s="12">
         <f t="shared" si="9"/>
-        <v>0.99999590835755059</v>
+        <v>-1.7769813730889247E-6</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -19196,7 +19240,7 @@
       </c>
       <c r="E292" s="12">
         <f t="shared" si="9"/>
-        <v>0.99997992710324723</v>
+        <v>-8.7176357899339312E-6</v>
       </c>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -19230,7 +19274,7 @@
       </c>
       <c r="E293" s="12">
         <f t="shared" si="9"/>
-        <v>0.99953412163951538</v>
+        <v>-2.0237554605159817E-4</v>
       </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -19264,7 +19308,7 @@
       </c>
       <c r="E294" s="12">
         <f t="shared" si="9"/>
-        <v>0.94104852179001064</v>
+        <v>-2.638798315895553E-2</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -19298,7 +19342,7 @@
       </c>
       <c r="E295" s="12">
         <f t="shared" si="9"/>
-        <v>0.99636447645007176</v>
+        <v>-1.5817648335751031E-3</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -19332,7 +19376,7 @@
       </c>
       <c r="E296" s="12">
         <f t="shared" si="9"/>
-        <v>0.99750448120566215</v>
+        <v>-1.085144605104033E-3</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -19366,7 +19410,7 @@
       </c>
       <c r="E297" s="12">
         <f t="shared" si="9"/>
-        <v>0.99996779768465371</v>
+        <v>-1.3985513043559576E-5</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -19400,7 +19444,7 @@
       </c>
       <c r="E298" s="12">
         <f t="shared" si="9"/>
-        <v>0.89246011292999528</v>
+        <v>-4.9411184875715927E-2</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -19434,7 +19478,7 @@
       </c>
       <c r="E299" s="12">
         <f t="shared" si="9"/>
-        <v>0.99958095788498791</v>
+        <v>-1.8202581914108549E-4</v>
       </c>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -19468,7 +19512,7 @@
       </c>
       <c r="E300" s="12">
         <f t="shared" si="9"/>
-        <v>0.91391166500647047</v>
+        <v>-3.9095779380188725E-2</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -19502,7 +19546,7 @@
       </c>
       <c r="E301" s="12">
         <f t="shared" si="9"/>
-        <v>0.99532927822551598</v>
+        <v>-2.0332207022594191E-3</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -19536,7 +19580,7 @@
       </c>
       <c r="E302" s="12">
         <f t="shared" si="9"/>
-        <v>0.98634472473992629</v>
+        <v>-5.9712738140585159E-3</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -19570,7 +19614,7 @@
       </c>
       <c r="E303" s="12">
         <f t="shared" si="9"/>
-        <v>0.99999056353800297</v>
+        <v>-4.0982227103897677E-6</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -19604,7 +19648,7 @@
       </c>
       <c r="E304" s="12">
         <f t="shared" si="9"/>
-        <v>0.98058836242271608</v>
+        <v>-8.5132652460593317E-3</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -19638,7 +19682,7 @@
       </c>
       <c r="E305" s="12">
         <f t="shared" si="9"/>
-        <v>0.99999764761853227</v>
+        <v>-1.0216274923956712E-6</v>
       </c>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
@@ -19672,7 +19716,7 @@
       </c>
       <c r="E306" s="12">
         <f t="shared" si="9"/>
-        <v>0.98020786461681642</v>
+        <v>-8.6818172835163108E-3</v>
       </c>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -19706,7 +19750,7 @@
       </c>
       <c r="E307" s="12">
         <f t="shared" si="9"/>
-        <v>0.99995061033622001</v>
+        <v>-2.1450188155855896E-5</v>
       </c>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -19740,7 +19784,7 @@
       </c>
       <c r="E308" s="12">
         <f t="shared" si="9"/>
-        <v>0.99987717166598911</v>
+        <v>-5.3346944007502858E-5</v>
       </c>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -19774,7 +19818,7 @@
       </c>
       <c r="E309" s="12">
         <f t="shared" si="9"/>
-        <v>0.98725765053588832</v>
+        <v>-5.5694921088696638E-3</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -19808,7 +19852,7 @@
       </c>
       <c r="E310" s="12">
         <f t="shared" si="9"/>
-        <v>0.99944445208794841</v>
+        <v>-2.4133843637791087E-4</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -19842,7 +19886,7 @@
       </c>
       <c r="E311" s="12">
         <f t="shared" si="9"/>
-        <v>0.9999477824659897</v>
+        <v>-2.267837898893557E-5</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -19876,7 +19920,7 @@
       </c>
       <c r="E312" s="12">
         <f t="shared" si="9"/>
-        <v>0.99997072419866639</v>
+        <v>-1.2714505087051494E-5</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -19910,7 +19954,7 @@
       </c>
       <c r="E313" s="12">
         <f t="shared" si="9"/>
-        <v>0.99717089004252701</v>
+        <v>-1.2304081450266523E-3</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -19944,7 +19988,7 @@
       </c>
       <c r="E314" s="12">
         <f t="shared" si="9"/>
-        <v>0.99971110548493425</v>
+        <v>-1.2548342035397154E-4</v>
       </c>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
@@ -19978,7 +20022,7 @@
       </c>
       <c r="E315" s="12">
         <f t="shared" si="9"/>
-        <v>0.99990258179186553</v>
+        <v>-4.2310251157592567E-5</v>
       </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -20012,7 +20056,7 @@
       </c>
       <c r="E316" s="12">
         <f t="shared" si="9"/>
-        <v>0.99999956407709645</v>
+        <v>-1.893189528122053E-7</v>
       </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -20046,7 +20090,7 @@
       </c>
       <c r="E317" s="12">
         <f t="shared" si="9"/>
-        <v>0.99730935482325156</v>
+        <v>-1.170107231585145E-3</v>
       </c>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
@@ -20080,7 +20124,7 @@
       </c>
       <c r="E318" s="12">
         <f t="shared" si="9"/>
-        <v>0.59865882848155838</v>
+        <v>-0.22282060852895352</v>
       </c>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -20114,7 +20158,7 @@
       </c>
       <c r="E319" s="12">
         <f t="shared" si="9"/>
-        <v>0.71268083245804903</v>
+        <v>-0.147104921390561</v>
       </c>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
@@ -20148,7 +20192,7 @@
       </c>
       <c r="E320" s="12">
         <f t="shared" si="9"/>
-        <v>0.95442196617001185</v>
+        <v>-2.025957386763489E-2</v>
       </c>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
@@ -20182,7 +20226,7 @@
       </c>
       <c r="E321" s="12">
         <f t="shared" si="9"/>
-        <v>0.99844300594974478</v>
+        <v>-6.767208863960887E-4</v>
       </c>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -20215,8 +20259,8 @@
         <v>0.90823231675055727</v>
       </c>
       <c r="E322" s="12">
-        <f t="shared" ref="E322:E385" si="11">(D322^C322)*((1-D322)^(1-C322))</f>
-        <v>9.1767683249442733E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.0373102322782612</v>
       </c>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -20249,8 +20293,8 @@
         <v>2.446713187398664E-3</v>
       </c>
       <c r="E323" s="12">
-        <f t="shared" si="11"/>
-        <v>0.99755328681260136</v>
+        <f t="shared" ref="E323:E386" si="11">C323 * LOG(D323) + (1-C323) * LOG(1-D323)</f>
+        <v>-1.063896091779109E-3</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -20284,7 +20328,7 @@
       </c>
       <c r="E324" s="12">
         <f t="shared" si="11"/>
-        <v>0.78253147196502071</v>
+        <v>-0.10649818691137125</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -20318,7 +20362,7 @@
       </c>
       <c r="E325" s="12">
         <f t="shared" si="11"/>
-        <v>0.99935743512363762</v>
+        <v>-2.7915207633674071E-4</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -20352,7 +20396,7 @@
       </c>
       <c r="E326" s="12">
         <f t="shared" si="11"/>
-        <v>0.99999665432919771</v>
+        <v>-1.453008798345516E-6</v>
       </c>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
@@ -20386,7 +20430,7 @@
       </c>
       <c r="E327" s="12">
         <f t="shared" si="11"/>
-        <v>0.99999457474375353</v>
+        <v>-2.3561652421597431E-6</v>
       </c>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -20420,7 +20464,7 @@
       </c>
       <c r="E328" s="12">
         <f t="shared" si="11"/>
-        <v>0.99928944968945022</v>
+        <v>-3.0869776462527881E-4</v>
       </c>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
@@ -20454,7 +20498,7 @@
       </c>
       <c r="E329" s="12">
         <f t="shared" si="11"/>
-        <v>0.99744106013003153</v>
+        <v>-1.1127578132055283E-3</v>
       </c>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
@@ -20488,7 +20532,7 @@
       </c>
       <c r="E330" s="12">
         <f t="shared" si="11"/>
-        <v>0.99800914848720823</v>
+        <v>-8.6547763116407242E-4</v>
       </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
@@ -20522,7 +20566,7 @@
       </c>
       <c r="E331" s="12">
         <f t="shared" si="11"/>
-        <v>0.99955697445401914</v>
+        <v>-1.9244618239751737E-4</v>
       </c>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
@@ -20556,7 +20600,7 @@
       </c>
       <c r="E332" s="12">
         <f t="shared" si="11"/>
-        <v>0.9999986740764546</v>
+        <v>-5.758416609553351E-7</v>
       </c>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
@@ -20590,7 +20634,7 @@
       </c>
       <c r="E333" s="12">
         <f t="shared" si="11"/>
-        <v>0.99999959576943009</v>
+        <v>-1.7555514140912136E-7</v>
       </c>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
@@ -20624,7 +20668,7 @@
       </c>
       <c r="E334" s="12">
         <f t="shared" si="11"/>
-        <v>0.98600166984089588</v>
+        <v>-6.1223495597293029E-3</v>
       </c>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
@@ -20658,7 +20702,7 @@
       </c>
       <c r="E335" s="12">
         <f t="shared" si="11"/>
-        <v>0.99608056253220989</v>
+        <v>-1.705534620229263E-3</v>
       </c>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
@@ -20692,7 +20736,7 @@
       </c>
       <c r="E336" s="12">
         <f t="shared" si="11"/>
-        <v>0.77384657678471791</v>
+        <v>-0.11134513422730127</v>
       </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
@@ -20726,7 +20770,7 @@
       </c>
       <c r="E337" s="12">
         <f t="shared" si="11"/>
-        <v>0.9999918857445762</v>
+        <v>-3.5239906526079224E-6</v>
       </c>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
@@ -20760,7 +20804,7 @@
       </c>
       <c r="E338" s="12">
         <f t="shared" si="11"/>
-        <v>0.99898972305991851</v>
+        <v>-4.3897948305219534E-4</v>
       </c>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
@@ -20794,7 +20838,7 @@
       </c>
       <c r="E339" s="12">
         <f t="shared" si="11"/>
-        <v>0.99928563364261602</v>
+        <v>-3.1035623429859563E-4</v>
       </c>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
@@ -20828,7 +20872,7 @@
       </c>
       <c r="E340" s="12">
         <f t="shared" si="11"/>
-        <v>0.9987647427374291</v>
+        <v>-5.3679702237430292E-4</v>
       </c>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
@@ -20862,7 +20906,7 @@
       </c>
       <c r="E341" s="12">
         <f t="shared" si="11"/>
-        <v>6.5114305398101757E-2</v>
+        <v>-1.1863235878842489</v>
       </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
@@ -20896,7 +20940,7 @@
       </c>
       <c r="E342" s="12">
         <f t="shared" si="11"/>
-        <v>0.98660885504749674</v>
+        <v>-5.8549909608360731E-3</v>
       </c>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
@@ -20930,7 +20974,7 @@
       </c>
       <c r="E343" s="12">
         <f t="shared" si="11"/>
-        <v>0.99105433230593354</v>
+        <v>-3.9025356521216891E-3</v>
       </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
@@ -20964,7 +21008,7 @@
       </c>
       <c r="E344" s="12">
         <f t="shared" si="11"/>
-        <v>0.9997037468690676</v>
+        <v>-1.2868016190221296E-4</v>
       </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
@@ -20998,7 +21042,7 @@
       </c>
       <c r="E345" s="12">
         <f t="shared" si="11"/>
-        <v>0.91819263992572075</v>
+        <v>-3.7066192785917093E-2</v>
       </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
@@ -21032,7 +21076,7 @@
       </c>
       <c r="E346" s="12">
         <f t="shared" si="11"/>
-        <v>0.99962848881263222</v>
+        <v>-1.6137523684851476E-4</v>
       </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
@@ -21066,7 +21110,7 @@
       </c>
       <c r="E347" s="12">
         <f t="shared" si="11"/>
-        <v>0.99384917964239994</v>
+        <v>-2.6795164264120049E-3</v>
       </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -21100,7 +21144,7 @@
       </c>
       <c r="E348" s="12">
         <f t="shared" si="11"/>
-        <v>0.9597993080373044</v>
+        <v>-1.7819567506002817E-2</v>
       </c>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
@@ -21134,7 +21178,7 @@
       </c>
       <c r="E349" s="12">
         <f t="shared" si="11"/>
-        <v>0.9994303052444149</v>
+        <v>-2.474857910938768E-4</v>
       </c>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
@@ -21168,7 +21212,7 @@
       </c>
       <c r="E350" s="12">
         <f t="shared" si="11"/>
-        <v>0.99975904033140439</v>
+        <v>-1.0466006436597633E-4</v>
       </c>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
@@ -21202,7 +21246,7 @@
       </c>
       <c r="E351" s="12">
         <f t="shared" si="11"/>
-        <v>0.8869982796640582</v>
+        <v>-5.2077222482964786E-2</v>
       </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
@@ -21236,7 +21280,7 @@
       </c>
       <c r="E352" s="12">
         <f t="shared" si="11"/>
-        <v>0.99267332620462012</v>
+        <v>-3.1936477465369126E-3</v>
       </c>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -21270,7 +21314,7 @@
       </c>
       <c r="E353" s="12">
         <f t="shared" si="11"/>
-        <v>0.95218227066822692</v>
+        <v>-2.1279909211686598E-2</v>
       </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
@@ -21304,7 +21348,7 @@
       </c>
       <c r="E354" s="12">
         <f t="shared" si="11"/>
-        <v>0.99999992468903354</v>
+        <v>-3.2707138393315859E-8</v>
       </c>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -21338,7 +21382,7 @@
       </c>
       <c r="E355" s="12">
         <f t="shared" si="11"/>
-        <v>0.99901479979716079</v>
+        <v>-4.2807791753075348E-4</v>
       </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
@@ -21372,7 +21416,7 @@
       </c>
       <c r="E356" s="12">
         <f t="shared" si="11"/>
-        <v>0.99990258179186553</v>
+        <v>-4.2310251157592567E-5</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
@@ -21406,7 +21450,7 @@
       </c>
       <c r="E357" s="12">
         <f t="shared" si="11"/>
-        <v>0.99998956443042331</v>
+        <v>-4.5321339304164626E-6</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -21440,7 +21484,7 @@
       </c>
       <c r="E358" s="12">
         <f t="shared" si="11"/>
-        <v>0.99054695164274009</v>
+        <v>-4.1249342030810782E-3</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
@@ -21474,7 +21518,7 @@
       </c>
       <c r="E359" s="12">
         <f t="shared" si="11"/>
-        <v>0.99006395020050997</v>
+        <v>-4.3367525517278337E-3</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
@@ -21508,7 +21552,7 @@
       </c>
       <c r="E360" s="12">
         <f t="shared" si="11"/>
-        <v>0.99912649254097596</v>
+        <v>-3.7952525256748231E-4</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
@@ -21542,7 +21586,7 @@
       </c>
       <c r="E361" s="12">
         <f t="shared" si="11"/>
-        <v>0.96768202594584396</v>
+        <v>-1.4267325608014605E-2</v>
       </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
@@ -21576,7 +21620,7 @@
       </c>
       <c r="E362" s="12">
         <f t="shared" si="11"/>
-        <v>0.74735595064773253</v>
+        <v>-0.12647250316069911</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -21610,7 +21654,7 @@
       </c>
       <c r="E363" s="12">
         <f t="shared" si="11"/>
-        <v>0.99384917964239994</v>
+        <v>-2.6795164264120049E-3</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -21644,7 +21688,7 @@
       </c>
       <c r="E364" s="12">
         <f t="shared" si="11"/>
-        <v>0.99950029859418399</v>
+        <v>-2.1707180320586195E-4</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
@@ -21678,7 +21722,7 @@
       </c>
       <c r="E365" s="12">
         <f t="shared" si="11"/>
-        <v>0.99190386977820444</v>
+        <v>-3.5304153940524884E-3</v>
       </c>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
@@ -21712,7 +21756,7 @@
       </c>
       <c r="E366" s="12">
         <f t="shared" si="11"/>
-        <v>0.99992613222375493</v>
+        <v>-3.2081552524759405E-5</v>
       </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
@@ -21746,7 +21790,7 @@
       </c>
       <c r="E367" s="12">
         <f t="shared" si="11"/>
-        <v>0.99901479979716079</v>
+        <v>-4.2807791753075348E-4</v>
       </c>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
@@ -21780,7 +21824,7 @@
       </c>
       <c r="E368" s="12">
         <f t="shared" si="11"/>
-        <v>0.99999989868993788</v>
+        <v>-4.3998403167525436E-8</v>
       </c>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
@@ -21814,7 +21858,7 @@
       </c>
       <c r="E369" s="12">
         <f t="shared" si="11"/>
-        <v>0.49438023666047815</v>
+        <v>-0.30593889892420656</v>
       </c>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
@@ -21848,7 +21892,7 @@
       </c>
       <c r="E370" s="12">
         <f t="shared" si="11"/>
-        <v>0.99993927412826444</v>
+        <v>-2.637371179494154E-5</v>
       </c>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
@@ -21882,7 +21926,7 @@
       </c>
       <c r="E371" s="12">
         <f t="shared" si="11"/>
-        <v>0.99353380338756714</v>
+        <v>-2.8173521324801796E-3</v>
       </c>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
@@ -21916,7 +21960,7 @@
       </c>
       <c r="E372" s="12">
         <f t="shared" si="11"/>
-        <v>0.94888647372735579</v>
+        <v>-2.2785744140712577E-2</v>
       </c>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
@@ -21950,7 +21994,7 @@
       </c>
       <c r="E373" s="12">
         <f t="shared" si="11"/>
-        <v>0.96149865535451451</v>
+        <v>-1.705131878121928E-2</v>
       </c>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
@@ -21984,7 +22028,7 @@
       </c>
       <c r="E374" s="12">
         <f t="shared" si="11"/>
-        <v>0.99998929854347052</v>
+        <v>-4.6476083872157903E-6</v>
       </c>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
@@ -22018,7 +22062,7 @@
       </c>
       <c r="E375" s="12">
         <f t="shared" si="11"/>
-        <v>0.99426331181366745</v>
+        <v>-2.4985856992681757E-3</v>
       </c>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
@@ -22052,7 +22096,7 @@
       </c>
       <c r="E376" s="12">
         <f t="shared" si="11"/>
-        <v>0.29885420522824285</v>
+        <v>-0.52454062875594187</v>
       </c>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
@@ -22086,7 +22130,7 @@
       </c>
       <c r="E377" s="12">
         <f t="shared" si="11"/>
-        <v>0.99995061033622001</v>
+        <v>-2.1450188155855896E-5</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -22120,7 +22164,7 @@
       </c>
       <c r="E378" s="12">
         <f t="shared" si="11"/>
-        <v>0.99956797716666812</v>
+        <v>-1.8766567341973442E-4</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -22154,7 +22198,7 @@
       </c>
       <c r="E379" s="12">
         <f t="shared" si="11"/>
-        <v>0.99955697445401914</v>
+        <v>-1.9244618239751737E-4</v>
       </c>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
@@ -22188,7 +22232,7 @@
       </c>
       <c r="E380" s="12">
         <f t="shared" si="11"/>
-        <v>0.99700938162687425</v>
+        <v>-1.3007550588426009E-3</v>
       </c>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
@@ -22222,7 +22266,7 @@
       </c>
       <c r="E381" s="12">
         <f t="shared" si="11"/>
-        <v>0.99945824782293535</v>
+        <v>-2.3534373580645098E-4</v>
       </c>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
@@ -22256,7 +22300,7 @@
       </c>
       <c r="E382" s="12">
         <f t="shared" si="11"/>
-        <v>0.96921920954897445</v>
+        <v>-1.3577986900972441E-2</v>
       </c>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
@@ -22290,7 +22334,7 @@
       </c>
       <c r="E383" s="12">
         <f t="shared" si="11"/>
-        <v>0.99999864029305041</v>
+        <v>-5.9051362667463579E-7</v>
       </c>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
@@ -22324,7 +22368,7 @@
       </c>
       <c r="E384" s="12">
         <f t="shared" si="11"/>
-        <v>0.99493800623736461</v>
+        <v>-2.2039789405052597E-3</v>
       </c>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
@@ -22358,7 +22402,7 @@
       </c>
       <c r="E385" s="12">
         <f t="shared" si="11"/>
-        <v>0.99998908454535407</v>
+        <v>-4.7405475928567785E-6</v>
       </c>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
@@ -22391,8 +22435,8 @@
         <v>0.99994673831086045</v>
       </c>
       <c r="E386" s="12">
-        <f t="shared" ref="E386:E449" si="13">(D386^C386)*((1-D386)^(1-C386))</f>
-        <v>0.99994673831086045</v>
+        <f t="shared" si="11"/>
+        <v>-2.3131873716954966E-5</v>
       </c>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
@@ -22425,8 +22469,8 @@
         <v>7.0068188553412134E-3</v>
       </c>
       <c r="E387" s="12">
-        <f t="shared" si="13"/>
-        <v>0.99299318114465873</v>
+        <f t="shared" ref="E387:E450" si="13">C387 * LOG(D387) + (1-C387) * LOG(1-D387)</f>
+        <v>-3.0537337819758026E-3</v>
       </c>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
@@ -22460,7 +22504,7 @@
       </c>
       <c r="E388" s="12">
         <f t="shared" si="13"/>
-        <v>0.9959595879376556</v>
+        <v>-1.7582831543565564E-3</v>
       </c>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
@@ -22494,7 +22538,7 @@
       </c>
       <c r="E389" s="12">
         <f t="shared" si="13"/>
-        <v>0.99975157472357545</v>
+        <v>-1.0790313020395134E-4</v>
       </c>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
@@ -22528,7 +22572,7 @@
       </c>
       <c r="E390" s="12">
         <f t="shared" si="13"/>
-        <v>0.99320236717900068</v>
+        <v>-2.9622540273076259E-3</v>
       </c>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
@@ -22562,7 +22606,7 @@
       </c>
       <c r="E391" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999980996929827</v>
+        <v>-8.2529292995074174E-8</v>
       </c>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
@@ -22596,7 +22640,7 @@
       </c>
       <c r="E392" s="12">
         <f t="shared" si="13"/>
-        <v>0.9999593974872687</v>
+        <v>-1.7633805221434319E-5</v>
       </c>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
@@ -22630,7 +22674,7 @@
       </c>
       <c r="E393" s="12">
         <f t="shared" si="13"/>
-        <v>0.99998477992412294</v>
+        <v>-6.6100452703809526E-6</v>
       </c>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
@@ -22664,7 +22708,7 @@
       </c>
       <c r="E394" s="12">
         <f t="shared" si="13"/>
-        <v>0.99190386977820444</v>
+        <v>-3.5304153940524884E-3</v>
       </c>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
@@ -22698,7 +22742,7 @@
       </c>
       <c r="E395" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999763497594552</v>
+        <v>-1.0271181110112023E-6</v>
       </c>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
@@ -22732,7 +22776,7 @@
       </c>
       <c r="E396" s="12">
         <f t="shared" si="13"/>
-        <v>0.99828762475998944</v>
+        <v>-7.4431257092344048E-4</v>
       </c>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
@@ -22766,7 +22810,7 @@
       </c>
       <c r="E397" s="12">
         <f t="shared" si="13"/>
-        <v>0.99995836301144736</v>
+        <v>-1.8083090836816103E-5</v>
       </c>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
@@ -22800,7 +22844,7 @@
       </c>
       <c r="E398" s="12">
         <f t="shared" si="13"/>
-        <v>0.9999998754352436</v>
+        <v>-5.4097789712851495E-8</v>
       </c>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
@@ -22834,7 +22878,7 @@
       </c>
       <c r="E399" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999845801736154</v>
+        <v>-6.6967506738949783E-7</v>
       </c>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
@@ -22868,7 +22912,7 @@
       </c>
       <c r="E400" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999356453485222</v>
+        <v>-2.7948959953992902E-6</v>
       </c>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
@@ -22902,7 +22946,7 @@
       </c>
       <c r="E401" s="12">
         <f t="shared" si="13"/>
-        <v>0.99814371483261433</v>
+        <v>-8.06923577091191E-4</v>
       </c>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
@@ -22936,7 +22980,7 @@
       </c>
       <c r="E402" s="12">
         <f t="shared" si="13"/>
-        <v>0.99997366854515746</v>
+        <v>-1.1435756099309525E-5</v>
       </c>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
@@ -22970,7 +23014,7 @@
       </c>
       <c r="E403" s="12">
         <f t="shared" si="13"/>
-        <v>0.98961177739961637</v>
+        <v>-4.5351447964495171E-3</v>
       </c>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
@@ -23004,7 +23048,7 @@
       </c>
       <c r="E404" s="12">
         <f t="shared" si="13"/>
-        <v>0.99991409649333785</v>
+        <v>-3.7309021430342836E-5</v>
       </c>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
@@ -23038,7 +23082,7 @@
       </c>
       <c r="E405" s="12">
         <f t="shared" si="13"/>
-        <v>0.96589463330439562</v>
+        <v>-1.5070246949216994E-2</v>
       </c>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
@@ -23072,7 +23116,7 @@
       </c>
       <c r="E406" s="12">
         <f t="shared" si="13"/>
-        <v>0.99851930216936813</v>
+        <v>-6.4353545565069684E-4</v>
       </c>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
@@ -23106,7 +23150,7 @@
       </c>
       <c r="E407" s="12">
         <f t="shared" si="13"/>
-        <v>0.99828762475998944</v>
+        <v>-7.4431257092344048E-4</v>
       </c>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
@@ -23140,7 +23184,7 @@
       </c>
       <c r="E408" s="12">
         <f t="shared" si="13"/>
-        <v>0.97327845358773335</v>
+        <v>-1.176289091777827E-2</v>
       </c>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
@@ -23174,7 +23218,7 @@
       </c>
       <c r="E409" s="12">
         <f t="shared" si="13"/>
-        <v>0.99930709187844535</v>
+        <v>-3.0103047893742247E-4</v>
       </c>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
@@ -23208,7 +23252,7 @@
       </c>
       <c r="E410" s="12">
         <f t="shared" si="13"/>
-        <v>0.99966404589868008</v>
+        <v>-1.4592752622421596E-4</v>
       </c>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
@@ -23242,7 +23286,7 @@
       </c>
       <c r="E411" s="12">
         <f t="shared" si="13"/>
-        <v>0.99891060195966652</v>
+        <v>-4.733774525897191E-4</v>
       </c>
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
@@ -23276,7 +23320,7 @@
       </c>
       <c r="E412" s="12">
         <f t="shared" si="13"/>
-        <v>0.8971950701209751</v>
+        <v>-4.7113121430063132E-2</v>
       </c>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
@@ -23310,7 +23354,7 @@
       </c>
       <c r="E413" s="12">
         <f t="shared" si="13"/>
-        <v>0.9999952160537845</v>
+        <v>-2.0776464127932256E-6</v>
       </c>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
@@ -23344,7 +23388,7 @@
       </c>
       <c r="E414" s="12">
         <f t="shared" si="13"/>
-        <v>0.92679576848885326</v>
+        <v>-3.3015957754457835E-2</v>
       </c>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
@@ -23378,7 +23422,7 @@
       </c>
       <c r="E415" s="12">
         <f t="shared" si="13"/>
-        <v>0.9998641685583658</v>
+        <v>-5.8994852339331328E-5</v>
       </c>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
@@ -23412,7 +23456,7 @@
       </c>
       <c r="E416" s="12">
         <f t="shared" si="13"/>
-        <v>0.98106153229960302</v>
+        <v>-8.3037527626410538E-3</v>
       </c>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
@@ -23446,7 +23490,7 @@
       </c>
       <c r="E417" s="12">
         <f t="shared" si="13"/>
-        <v>0.99955697445401914</v>
+        <v>-1.9244618239751737E-4</v>
       </c>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
@@ -23480,7 +23524,7 @@
       </c>
       <c r="E418" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999695838837011</v>
+        <v>-1.3209571558764111E-6</v>
       </c>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
@@ -23514,7 +23558,7 @@
       </c>
       <c r="E419" s="12">
         <f t="shared" si="13"/>
-        <v>0.99190386977820444</v>
+        <v>-3.5304153940524884E-3</v>
       </c>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
@@ -23548,7 +23592,7 @@
       </c>
       <c r="E420" s="12">
         <f t="shared" si="13"/>
-        <v>0.99564419273792026</v>
+        <v>-1.8958350081318203E-3</v>
       </c>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
@@ -23582,7 +23626,7 @@
       </c>
       <c r="E421" s="12">
         <f t="shared" si="13"/>
-        <v>0.99998486128425479</v>
+        <v>-6.5747104777090823E-6</v>
       </c>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
@@ -23616,7 +23660,7 @@
       </c>
       <c r="E422" s="12">
         <f t="shared" si="13"/>
-        <v>0.99773076342628475</v>
+        <v>-9.8663680212196384E-4</v>
       </c>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
@@ -23650,7 +23694,7 @@
       </c>
       <c r="E423" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999894840347825</v>
+        <v>-4.5670280671851134E-7</v>
       </c>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
@@ -23684,7 +23728,7 @@
       </c>
       <c r="E424" s="12">
         <f t="shared" si="13"/>
-        <v>0.99983477547280242</v>
+        <v>-7.1762029023909031E-5</v>
       </c>
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
@@ -23718,7 +23762,7 @@
       </c>
       <c r="E425" s="12">
         <f t="shared" si="13"/>
-        <v>0.93013727905625487</v>
+        <v>-3.1452949148463638E-2</v>
       </c>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
@@ -23752,7 +23796,7 @@
       </c>
       <c r="E426" s="12">
         <f t="shared" si="13"/>
-        <v>0.97530236377615198</v>
+        <v>-1.0860723211981588E-2</v>
       </c>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
@@ -23786,7 +23830,7 @@
       </c>
       <c r="E427" s="12">
         <f t="shared" si="13"/>
-        <v>0.99985352070785161</v>
+        <v>-6.3619807899117074E-5</v>
       </c>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
@@ -23820,7 +23864,7 @@
       </c>
       <c r="E428" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999981469082388</v>
+        <v>-8.0478760089523658E-8</v>
       </c>
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
@@ -23854,7 +23898,7 @@
       </c>
       <c r="E429" s="12">
         <f t="shared" si="13"/>
-        <v>0.95242572722079089</v>
+        <v>-2.1168881810715093E-2</v>
       </c>
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
@@ -23888,7 +23932,7 @@
       </c>
       <c r="E430" s="12">
         <f t="shared" si="13"/>
-        <v>0.99709901574201798</v>
+        <v>-1.2617124454372475E-3</v>
       </c>
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
@@ -23922,7 +23966,7 @@
       </c>
       <c r="E431" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999628021140208</v>
+        <v>-1.6154866665606034E-6</v>
       </c>
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
@@ -23956,7 +24000,7 @@
       </c>
       <c r="E432" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999710765478644</v>
+        <v>-1.2561313825905527E-6</v>
       </c>
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
@@ -23990,7 +24034,7 @@
       </c>
       <c r="E433" s="12">
         <f t="shared" si="13"/>
-        <v>0.95678371620045954</v>
+        <v>-1.9186224685581264E-2</v>
       </c>
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
@@ -24024,7 +24068,7 @@
       </c>
       <c r="E434" s="12">
         <f t="shared" si="13"/>
-        <v>0.99773076342628475</v>
+        <v>-9.8663680212196384E-4</v>
       </c>
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
@@ -24058,7 +24102,7 @@
       </c>
       <c r="E435" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999637263339958</v>
+        <v>-1.5753481555881196E-6</v>
       </c>
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
@@ -24092,7 +24136,7 @@
       </c>
       <c r="E436" s="12">
         <f t="shared" si="13"/>
-        <v>0.99986145266987059</v>
+        <v>-6.017450956271558E-5</v>
       </c>
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
@@ -24126,7 +24170,7 @@
       </c>
       <c r="E437" s="12">
         <f t="shared" si="13"/>
-        <v>0.99930337051383944</v>
+        <v>-3.0264777069478221E-4</v>
       </c>
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
@@ -24160,7 +24204,7 @@
       </c>
       <c r="E438" s="12">
         <f t="shared" si="13"/>
-        <v>0.99810666438580919</v>
+        <v>-8.2304460556424858E-4</v>
       </c>
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
@@ -24194,7 +24238,7 @@
       </c>
       <c r="E439" s="12">
         <f t="shared" si="13"/>
-        <v>0.99999883706219395</v>
+        <v>-5.0505776564138197E-7</v>
       </c>
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
@@ -24228,7 +24272,7 @@
       </c>
       <c r="E440" s="12">
         <f t="shared" si="13"/>
-        <v>0.9999436887552049</v>
+        <v>-2.4456351473876964E-5</v>
       </c>
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
@@ -24262,7 +24306,7 @@
       </c>
       <c r="E441" s="12">
         <f t="shared" si="13"/>
-        <v>0.99873330925726167</v>
+        <v>-5.5046550827968373E-4</v>
       </c>
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
@@ -24296,7 +24340,7 @@
       </c>
       <c r="E442" s="12">
         <f t="shared" si="13"/>
-        <v>0.9996467142534482</v>
+        <v>-1.5345715897237855E-4</v>
       </c>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
@@ -24330,7 +24374,7 @@
       </c>
       <c r="E443" s="12">
         <f t="shared" si="13"/>
-        <v>0.99996859776228353</v>
+        <v>-1.36380326931707E-5</v>
       </c>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
@@ -24364,7 +24408,7 @@
       </c>
       <c r="E444" s="12">
         <f t="shared" si="13"/>
-        <v>0.98908152012494432</v>
+        <v>-4.7679123650059439E-3</v>
       </c>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
@@ -24398,7 +24442,7 @@
       </c>
       <c r="E445" s="12">
         <f t="shared" si="13"/>
-        <v>0.83307234886997217</v>
+        <v>-7.9317280285190667E-2</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
@@ -24432,7 +24476,7 @@
       </c>
       <c r="E446" s="12">
         <f t="shared" si="13"/>
-        <v>0.99077965766780063</v>
+        <v>-4.0229187730361554E-3</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
@@ -24466,7 +24510,7 @@
       </c>
       <c r="E447" s="12">
         <f t="shared" si="13"/>
-        <v>0.83381639543010999</v>
+        <v>-7.8929569542151662E-2</v>
       </c>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
@@ -24500,7 +24544,7 @@
       </c>
       <c r="E448" s="12">
         <f t="shared" si="13"/>
-        <v>0.18516172885949223</v>
+        <v>-0.73244877285232812</v>
       </c>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
@@ -24534,7 +24578,7 @@
       </c>
       <c r="E449" s="12">
         <f t="shared" si="13"/>
-        <v>0.9999998754352436</v>
+        <v>-5.4097789712851495E-8</v>
       </c>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
@@ -24567,8 +24611,8 @@
         <v>0.53833462145816902</v>
       </c>
       <c r="E450" s="12">
-        <f t="shared" ref="E450:E513" si="15">(D450^C450)*((1-D450)^(1-C450))</f>
-        <v>0.46166537854183098</v>
+        <f t="shared" si="13"/>
+        <v>-0.33567269307288877</v>
       </c>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
@@ -24601,8 +24645,8 @@
         <v>0.99709901574201798</v>
       </c>
       <c r="E451" s="12">
-        <f t="shared" si="15"/>
-        <v>0.99709901574201798</v>
+        <f t="shared" ref="E451:E514" si="15">C451 * LOG(D451) + (1-C451) * LOG(1-D451)</f>
+        <v>-1.2617124454372475E-3</v>
       </c>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
@@ -24636,7 +24680,7 @@
       </c>
       <c r="E452" s="12">
         <f t="shared" si="15"/>
-        <v>0.96589463330439562</v>
+        <v>-1.5070246949216994E-2</v>
       </c>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
@@ -24670,7 +24714,7 @@
       </c>
       <c r="E453" s="12">
         <f t="shared" si="15"/>
-        <v>0.99965733001907564</v>
+        <v>-1.4884518567454317E-4</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
@@ -24704,7 +24748,7 @@
       </c>
       <c r="E454" s="12">
         <f t="shared" si="15"/>
-        <v>0.95009306633251178</v>
+        <v>-2.2233851326926138E-2</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
@@ -24738,7 +24782,7 @@
       </c>
       <c r="E455" s="12">
         <f t="shared" si="15"/>
-        <v>0.99999883081211927</v>
+        <v>-5.0777214175153335E-7</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
@@ -24772,7 +24816,7 @@
       </c>
       <c r="E456" s="12">
         <f t="shared" si="15"/>
-        <v>0.99978210514294275</v>
+        <v>-9.4640845306282099E-5</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
@@ -24806,7 +24850,7 @@
       </c>
       <c r="E457" s="12">
         <f t="shared" si="15"/>
-        <v>0.92006275571109275</v>
+        <v>-3.6182549252784683E-2</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
@@ -24840,7 +24884,7 @@
       </c>
       <c r="E458" s="12">
         <f t="shared" si="15"/>
-        <v>0.9997037468690676</v>
+        <v>-1.2868016190221296E-4</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
@@ -24874,7 +24918,7 @@
       </c>
       <c r="E459" s="12">
         <f t="shared" si="15"/>
-        <v>0.99951009057430718</v>
+        <v>-2.1281709501876851E-4</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
@@ -24908,7 +24952,7 @@
       </c>
       <c r="E460" s="12">
         <f t="shared" si="15"/>
-        <v>0.99722620164962172</v>
+        <v>-1.2063191350169045E-3</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
@@ -24942,7 +24986,7 @@
       </c>
       <c r="E461" s="12">
         <f t="shared" si="15"/>
-        <v>0.99967239032169108</v>
+        <v>-1.4230238660017206E-4</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
@@ -24976,7 +25020,7 @@
       </c>
       <c r="E462" s="12">
         <f t="shared" si="15"/>
-        <v>0.9999999355876249</v>
+        <v>-2.7973939973299848E-8</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
@@ -25010,7 +25054,7 @@
       </c>
       <c r="E463" s="12">
         <f t="shared" si="15"/>
-        <v>0.99873330925726167</v>
+        <v>-5.5046550827968373E-4</v>
       </c>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
@@ -25044,7 +25088,7 @@
       </c>
       <c r="E464" s="12">
         <f t="shared" si="15"/>
-        <v>0.99999710765478644</v>
+        <v>-1.2561313825905527E-6</v>
       </c>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
@@ -25078,7 +25122,7 @@
       </c>
       <c r="E465" s="12">
         <f t="shared" si="15"/>
-        <v>0.944820319881161</v>
+        <v>-2.4650775092504594E-2</v>
       </c>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
@@ -25112,7 +25156,7 @@
       </c>
       <c r="E466" s="12">
         <f t="shared" si="15"/>
-        <v>0.99999955297014154</v>
+        <v>-1.9414264417050085E-7</v>
       </c>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
@@ -25146,7 +25190,7 @@
       </c>
       <c r="E467" s="12">
         <f t="shared" si="15"/>
-        <v>0.99411800542783291</v>
+        <v>-2.5620602060123141E-3</v>
       </c>
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
@@ -25180,7 +25224,7 @@
       </c>
       <c r="E468" s="12">
         <f t="shared" si="15"/>
-        <v>0.99917376108294753</v>
+        <v>-3.5897932418413293E-4</v>
       </c>
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
@@ -25214,7 +25258,7 @@
       </c>
       <c r="E469" s="12">
         <f t="shared" si="15"/>
-        <v>0.91030788366284388</v>
+        <v>-4.0811696073110061E-2</v>
       </c>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
@@ -25248,7 +25292,7 @@
       </c>
       <c r="E470" s="12">
         <f t="shared" si="15"/>
-        <v>0.99724098852478638</v>
+        <v>-1.1998794619850742E-3</v>
       </c>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
@@ -25282,7 +25326,7 @@
       </c>
       <c r="E471" s="12">
         <f t="shared" si="15"/>
-        <v>0.99774286661504008</v>
+        <v>-9.8136853095986487E-4</v>
       </c>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
@@ -25316,7 +25360,7 @@
       </c>
       <c r="E472" s="12">
         <f t="shared" si="15"/>
-        <v>0.99144425723637819</v>
+        <v>-3.7316984583647414E-3</v>
       </c>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
@@ -25350,7 +25394,7 @@
       </c>
       <c r="E473" s="12">
         <f t="shared" si="15"/>
-        <v>0.99470645752863984</v>
+        <v>-2.3050626554868129E-3</v>
       </c>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
@@ -25384,7 +25428,7 @@
       </c>
       <c r="E474" s="12">
         <f t="shared" si="15"/>
-        <v>0.98284362156881167</v>
+        <v>-7.5155764632110576E-3</v>
       </c>
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
@@ -25418,7 +25462,7 @@
       </c>
       <c r="E475" s="12">
         <f t="shared" si="15"/>
-        <v>0.99952480974780844</v>
+        <v>-2.0642155302111597E-4</v>
       </c>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
@@ -25452,7 +25496,7 @@
       </c>
       <c r="E476" s="12">
         <f t="shared" si="15"/>
-        <v>0.99993150217055782</v>
+        <v>-2.9749248240188103E-5</v>
       </c>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
@@ -25486,7 +25530,7 @@
       </c>
       <c r="E477" s="12">
         <f t="shared" si="15"/>
-        <v>0.99998273962697648</v>
+        <v>-7.4961494530604475E-6</v>
       </c>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
@@ -25520,7 +25564,7 @@
       </c>
       <c r="E478" s="12">
         <f t="shared" si="15"/>
-        <v>0.99530429381572949</v>
+        <v>-2.0441223483050291E-3</v>
       </c>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
@@ -25554,7 +25598,7 @@
       </c>
       <c r="E479" s="12">
         <f t="shared" si="15"/>
-        <v>0.9999992182734061</v>
+        <v>-3.3949967878638792E-7</v>
       </c>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
@@ -25588,7 +25632,7 @@
       </c>
       <c r="E480" s="12">
         <f t="shared" si="15"/>
-        <v>0.99996595386518239</v>
+        <v>-1.4786300191035955E-5</v>
       </c>
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
@@ -25622,7 +25666,7 @@
       </c>
       <c r="E481" s="12">
         <f t="shared" si="15"/>
-        <v>0.99921005738531732</v>
+        <v>-3.4320329188368512E-4</v>
       </c>
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
@@ -25656,7 +25700,7 @@
       </c>
       <c r="E482" s="12">
         <f t="shared" si="15"/>
-        <v>0.99555747522931537</v>
+        <v>-1.9336623523945036E-3</v>
       </c>
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
@@ -25690,7 +25734,7 @@
       </c>
       <c r="E483" s="12">
         <f t="shared" si="15"/>
-        <v>0.17768956076875811</v>
+        <v>-0.75033808617161535</v>
       </c>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
@@ -25724,7 +25768,7 @@
       </c>
       <c r="E484" s="12">
         <f t="shared" si="15"/>
-        <v>0.99365977114050541</v>
+        <v>-2.7622924736997192E-3</v>
       </c>
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
@@ -25758,7 +25802,7 @@
       </c>
       <c r="E485" s="12">
         <f t="shared" si="15"/>
-        <v>0.84330665772303115</v>
+        <v>-7.4014470998687326E-2</v>
       </c>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
@@ -25792,7 +25836,7 @@
       </c>
       <c r="E486" s="12">
         <f t="shared" si="15"/>
-        <v>0.99983056639994039</v>
+        <v>-7.3590312066708377E-5</v>
       </c>
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
@@ -25826,7 +25870,7 @@
       </c>
       <c r="E487" s="12">
         <f t="shared" si="15"/>
-        <v>0.54458129332017025</v>
+        <v>-0.26393728100442515</v>
       </c>
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
@@ -25860,7 +25904,7 @@
       </c>
       <c r="E488" s="12">
         <f t="shared" si="15"/>
-        <v>0.77821941990721466</v>
+        <v>-0.10889793588988379</v>
       </c>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
@@ -25894,7 +25938,7 @@
       </c>
       <c r="E489" s="12">
         <f t="shared" si="15"/>
-        <v>0.99987083361451456</v>
+        <v>-5.6099871650538802E-5</v>
       </c>
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
@@ -25928,7 +25972,7 @@
       </c>
       <c r="E490" s="12">
         <f t="shared" si="15"/>
-        <v>0.99767307966849761</v>
+        <v>-1.0117462432970633E-3</v>
       </c>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
@@ -25962,7 +26006,7 @@
       </c>
       <c r="E491" s="12">
         <f t="shared" si="15"/>
-        <v>0.9999669772230283</v>
+        <v>-1.4341846621036835E-5</v>
       </c>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
@@ -25996,7 +26040,7 @@
       </c>
       <c r="E492" s="12">
         <f t="shared" si="15"/>
-        <v>0.98667948602396183</v>
+        <v>-5.8239010864321403E-3</v>
       </c>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
@@ -26030,7 +26074,7 @@
       </c>
       <c r="E493" s="12">
         <f t="shared" si="15"/>
-        <v>0.99998596187953337</v>
+        <v>-6.0967210483031884E-6</v>
       </c>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
@@ -26064,7 +26108,7 @@
       </c>
       <c r="E494" s="12">
         <f t="shared" si="15"/>
-        <v>0.99532927822551598</v>
+        <v>-2.0332207022594191E-3</v>
       </c>
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
@@ -26098,7 +26142,7 @@
       </c>
       <c r="E495" s="12">
         <f t="shared" si="15"/>
-        <v>0.99926744550427404</v>
+        <v>-3.1826096117390518E-4</v>
       </c>
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
@@ -26132,7 +26176,7 @@
       </c>
       <c r="E496" s="12">
         <f t="shared" si="15"/>
-        <v>0.99999032310697744</v>
+        <v>-4.2026415759546366E-6</v>
       </c>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
@@ -26166,7 +26210,7 @@
       </c>
       <c r="E497" s="12">
         <f t="shared" si="15"/>
-        <v>0.99975904033140439</v>
+        <v>-1.0466006436597633E-4</v>
       </c>
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
@@ -26200,7 +26244,7 @@
       </c>
       <c r="E498" s="12">
         <f t="shared" si="15"/>
-        <v>0.9999348634771148</v>
+        <v>-2.8289353804480741E-5</v>
       </c>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
@@ -26234,7 +26278,7 @@
       </c>
       <c r="E499" s="12">
         <f t="shared" si="15"/>
-        <v>0.944820319881161</v>
+        <v>-2.4650775092504594E-2</v>
       </c>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
@@ -26268,7 +26312,7 @@
       </c>
       <c r="E500" s="12">
         <f t="shared" si="15"/>
-        <v>0.99998691250138483</v>
+        <v>-5.6838656243584742E-6</v>
       </c>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
@@ -26302,7 +26346,7 @@
       </c>
       <c r="E501" s="12">
         <f t="shared" si="15"/>
-        <v>0.97590121634374327</v>
+        <v>-1.0594140702196867E-2</v>
       </c>
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
@@ -26336,7 +26380,7 @@
       </c>
       <c r="E502" s="12">
         <f t="shared" si="15"/>
-        <v>0.99949761435289819</v>
+        <v>-2.1823813876926609E-4</v>
       </c>
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
@@ -26370,7 +26414,7 @@
       </c>
       <c r="E503" s="12">
         <f t="shared" si="15"/>
-        <v>0.99983056639994039</v>
+        <v>-7.3590312066708377E-5</v>
       </c>
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
@@ -26404,7 +26448,7 @@
       </c>
       <c r="E504" s="12">
         <f t="shared" si="15"/>
-        <v>0.99999837843953376</v>
+        <v>-7.0423533353908059E-7</v>
       </c>
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
@@ -26438,7 +26482,7 @@
       </c>
       <c r="E505" s="12">
         <f t="shared" si="15"/>
-        <v>0.99999969950667633</v>
+        <v>-1.3050261192550508E-7</v>
       </c>
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
@@ -26472,7 +26516,7 @@
       </c>
       <c r="E506" s="12">
         <f t="shared" si="15"/>
-        <v>0.99544479893484683</v>
+        <v>-1.9828181907541329E-3</v>
       </c>
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
@@ -26506,7 +26550,7 @@
       </c>
       <c r="E507" s="12">
         <f t="shared" si="15"/>
-        <v>0.85986871651568964</v>
+        <v>-6.5567851134473401E-2</v>
       </c>
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
@@ -26540,7 +26584,7 @@
       </c>
       <c r="E508" s="12">
         <f t="shared" si="15"/>
-        <v>0.99819941237789156</v>
+        <v>-7.8269013120102005E-4</v>
       </c>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
@@ -26574,7 +26618,7 @@
       </c>
       <c r="E509" s="12">
         <f t="shared" si="15"/>
-        <v>0.99870107693243304</v>
+        <v>-5.6448180930062004E-4</v>
       </c>
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
@@ -26608,7 +26652,7 @@
       </c>
       <c r="E510" s="12">
         <f t="shared" si="15"/>
-        <v>0.99994256274589255</v>
+        <v>-2.4945398919007218E-5</v>
       </c>
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
@@ -26642,7 +26686,7 @@
       </c>
       <c r="E511" s="12">
         <f t="shared" si="15"/>
-        <v>0.99952225710991893</v>
+        <v>-2.0753067803181788E-4</v>
       </c>
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
@@ -26676,7 +26720,7 @@
       </c>
       <c r="E512" s="12">
         <f t="shared" si="15"/>
-        <v>0.9997387574512645</v>
+        <v>-1.1347101972879688E-4</v>
       </c>
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
@@ -26710,7 +26754,7 @@
       </c>
       <c r="E513" s="12">
         <f t="shared" si="15"/>
-        <v>0.9999741847670427</v>
+        <v>-1.121155793751703E-5</v>
       </c>
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
@@ -26743,8 +26787,8 @@
         <v>8.0086753671136275E-5</v>
       </c>
       <c r="E514" s="12">
-        <f t="shared" ref="E514:E577" si="17">(D514^C514)*((1-D514)^(1-C514))</f>
-        <v>0.9999199132463289</v>
+        <f t="shared" si="15"/>
+        <v>-3.4782628025378867E-5</v>
       </c>
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
@@ -26777,8 +26821,8 @@
         <v>0.99940412286098657</v>
       </c>
       <c r="E515" s="12">
-        <f t="shared" si="17"/>
-        <v>0.99940412286098657</v>
+        <f t="shared" ref="E515:E578" si="17">C515 * LOG(D515) + (1-C515) * LOG(1-D515)</f>
+        <v>-2.5886328638489721E-4</v>
       </c>
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
@@ -26812,7 +26856,7 @@
       </c>
       <c r="E516" s="12">
         <f t="shared" si="17"/>
-        <v>0.99930337051383944</v>
+        <v>-3.0264777069478221E-4</v>
       </c>
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
@@ -26846,7 +26890,7 @@
       </c>
       <c r="E517" s="12">
         <f t="shared" si="17"/>
-        <v>0.99722620164962172</v>
+        <v>-1.2063191350169045E-3</v>
       </c>
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
@@ -26880,7 +26924,7 @@
       </c>
       <c r="E518" s="12">
         <f t="shared" si="17"/>
-        <v>0.9999998559117883</v>
+        <v>-6.2576719754914877E-8</v>
       </c>
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
@@ -26914,7 +26958,7 @@
       </c>
       <c r="E519" s="12">
         <f t="shared" si="17"/>
-        <v>0.99756633428080999</v>
+        <v>-1.0582157873141667E-3</v>
       </c>
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
@@ -26948,7 +26992,7 @@
       </c>
       <c r="E520" s="12">
         <f t="shared" si="17"/>
-        <v>0.99480970018789516</v>
+        <v>-2.259988663925655E-3</v>
       </c>
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
@@ -26982,7 +27026,7 @@
       </c>
       <c r="E521" s="12">
         <f t="shared" si="17"/>
-        <v>0.99971828137203811</v>
+        <v>-1.223660827850967E-4</v>
       </c>
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
@@ -27016,7 +27060,7 @@
       </c>
       <c r="E522" s="12">
         <f t="shared" si="17"/>
-        <v>0.99961141113065355</v>
+        <v>-1.6879479970080351E-4</v>
       </c>
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
@@ -27050,7 +27094,7 @@
       </c>
       <c r="E523" s="12">
         <f t="shared" si="17"/>
-        <v>0.86287299816993779</v>
+        <v>-6.4053121147903361E-2</v>
       </c>
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
@@ -27084,7 +27128,7 @@
       </c>
       <c r="E524" s="12">
         <f t="shared" si="17"/>
-        <v>0.99919427337779254</v>
+        <v>-3.5006367270347155E-4</v>
       </c>
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
@@ -27118,7 +27162,7 @@
       </c>
       <c r="E525" s="12">
         <f t="shared" si="17"/>
-        <v>0.99898429895200325</v>
+        <v>-4.4133753186654433E-4</v>
       </c>
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
@@ -27152,7 +27196,7 @@
       </c>
       <c r="E526" s="12">
         <f t="shared" si="17"/>
-        <v>0.99483730252825231</v>
+        <v>-2.2479387434230446E-3</v>
       </c>
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
@@ -27186,7 +27230,7 @@
       </c>
       <c r="E527" s="12">
         <f t="shared" si="17"/>
-        <v>0.62384015477415433</v>
+        <v>-0.20492667440802456</v>
       </c>
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
@@ -27220,7 +27264,7 @@
       </c>
       <c r="E528" s="12">
         <f t="shared" si="17"/>
-        <v>0.99470645752863984</v>
+        <v>-2.3050626554868129E-3</v>
       </c>
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
@@ -27254,7 +27298,7 @@
       </c>
       <c r="E529" s="12">
         <f t="shared" si="17"/>
-        <v>0.97406084076267796</v>
+        <v>-1.1413915829503723E-2</v>
       </c>
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
@@ -27288,7 +27332,7 @@
       </c>
       <c r="E530" s="12">
         <f t="shared" si="17"/>
-        <v>0.99127465814466942</v>
+        <v>-3.8059963825668825E-3</v>
       </c>
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
@@ -27322,7 +27366,7 @@
       </c>
       <c r="E531" s="12">
         <f t="shared" si="17"/>
-        <v>0.84067245519691047</v>
+        <v>-7.5373182096293206E-2</v>
       </c>
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
@@ -27356,7 +27400,7 @@
       </c>
       <c r="E532" s="12">
         <f t="shared" si="17"/>
-        <v>0.76133998297541927</v>
+        <v>-0.11842136194499447</v>
       </c>
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
@@ -27390,7 +27434,7 @@
       </c>
       <c r="E533" s="12">
         <f t="shared" si="17"/>
-        <v>0.98955653009750077</v>
+        <v>-4.5593909389975628E-3</v>
       </c>
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
@@ -27424,7 +27468,7 @@
       </c>
       <c r="E534" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999967594750871</v>
+        <v>-1.4073423161475543E-7</v>
       </c>
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
@@ -27458,7 +27502,7 @@
       </c>
       <c r="E535" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999833712356478</v>
+        <v>-7.2217866034817494E-7</v>
       </c>
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
@@ -27492,7 +27536,7 @@
       </c>
       <c r="E536" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999457474375353</v>
+        <v>-2.3561652421597431E-6</v>
       </c>
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
@@ -27526,7 +27570,7 @@
       </c>
       <c r="E537" s="12">
         <f t="shared" si="17"/>
-        <v>0.99836278484520469</v>
+        <v>-7.1161620091620423E-4</v>
       </c>
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
@@ -27560,7 +27604,7 @@
       </c>
       <c r="E538" s="12">
         <f t="shared" si="17"/>
-        <v>0.99989438029727717</v>
+        <v>-4.5872476634104192E-5</v>
       </c>
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
@@ -27594,7 +27638,7 @@
       </c>
       <c r="E539" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999457474375353</v>
+        <v>-2.3561652421597431E-6</v>
       </c>
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
@@ -27628,7 +27672,7 @@
       </c>
       <c r="E540" s="12">
         <f t="shared" si="17"/>
-        <v>0.9944347910756286</v>
+        <v>-2.423689969939585E-3</v>
       </c>
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
@@ -27662,7 +27706,7 @@
       </c>
       <c r="E541" s="12">
         <f t="shared" si="17"/>
-        <v>0.99662789400126595</v>
+        <v>-1.4669617954075585E-3</v>
       </c>
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
@@ -27696,7 +27740,7 @@
       </c>
       <c r="E542" s="12">
         <f t="shared" si="17"/>
-        <v>0.85680953738311938</v>
+        <v>-6.711570789771408E-2</v>
       </c>
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
@@ -27730,7 +27774,7 @@
       </c>
       <c r="E543" s="12">
         <f t="shared" si="17"/>
-        <v>0.99263423983574395</v>
+        <v>-3.2107483657186613E-3</v>
       </c>
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
@@ -27764,7 +27808,7 @@
       </c>
       <c r="E544" s="12">
         <f t="shared" si="17"/>
-        <v>0.99988319875262766</v>
+        <v>-5.0729099881974221E-5</v>
       </c>
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
@@ -27798,7 +27842,7 @@
       </c>
       <c r="E545" s="12">
         <f t="shared" si="17"/>
-        <v>0.9999992182734061</v>
+        <v>-3.3949967878638792E-7</v>
       </c>
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
@@ -27832,7 +27876,7 @@
       </c>
       <c r="E546" s="12">
         <f t="shared" si="17"/>
-        <v>0.99984596243387647</v>
+        <v>-6.6902817879170955E-5</v>
       </c>
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
@@ -27866,7 +27910,7 @@
       </c>
       <c r="E547" s="12">
         <f t="shared" si="17"/>
-        <v>0.99643549779987739</v>
+        <v>-1.5508092126101088E-3</v>
       </c>
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
@@ -27900,7 +27944,7 @@
       </c>
       <c r="E548" s="12">
         <f t="shared" si="17"/>
-        <v>0.98763593669071992</v>
+        <v>-5.4031159631414893E-3</v>
       </c>
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
@@ -27934,7 +27978,7 @@
       </c>
       <c r="E549" s="12">
         <f t="shared" si="17"/>
-        <v>0.9675139790110302</v>
+        <v>-1.43427514113822E-2</v>
       </c>
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
@@ -27968,7 +28012,7 @@
       </c>
       <c r="E550" s="12">
         <f t="shared" si="17"/>
-        <v>0.84067245519691047</v>
+        <v>-7.5373182096293206E-2</v>
       </c>
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
@@ -28002,7 +28046,7 @@
       </c>
       <c r="E551" s="12">
         <f t="shared" si="17"/>
-        <v>0.91819263992572075</v>
+        <v>-3.7066192785917093E-2</v>
       </c>
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
@@ -28036,7 +28080,7 @@
       </c>
       <c r="E552" s="12">
         <f t="shared" si="17"/>
-        <v>0.79097293337776131</v>
+        <v>-0.1018383775463213</v>
       </c>
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
@@ -28070,7 +28114,7 @@
       </c>
       <c r="E553" s="12">
         <f t="shared" si="17"/>
-        <v>0.99859186497496066</v>
+        <v>-6.1197624493416428E-4</v>
       </c>
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
@@ -28104,7 +28148,7 @@
       </c>
       <c r="E554" s="12">
         <f t="shared" si="17"/>
-        <v>0.99983388763917769</v>
+        <v>-7.2147674157206526E-5</v>
       </c>
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
@@ -28138,7 +28182,7 @@
       </c>
       <c r="E555" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999999868890088</v>
+        <v>-5.6940311261923176E-10</v>
       </c>
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
@@ -28172,7 +28216,7 @@
       </c>
       <c r="E556" s="12">
         <f t="shared" si="17"/>
-        <v>4.5345437295728708E-2</v>
+        <v>-1.3434664055603887</v>
       </c>
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
@@ -28206,7 +28250,7 @@
       </c>
       <c r="E557" s="12">
         <f t="shared" si="17"/>
-        <v>0.99995061033622001</v>
+        <v>-2.1450188155855896E-5</v>
       </c>
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
@@ -28240,7 +28284,7 @@
       </c>
       <c r="E558" s="12">
         <f t="shared" si="17"/>
-        <v>0.99426331181366745</v>
+        <v>-2.4985856992681757E-3</v>
       </c>
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
@@ -28274,7 +28318,7 @@
       </c>
       <c r="E559" s="12">
         <f t="shared" si="17"/>
-        <v>0.99956797716666812</v>
+        <v>-1.8766567341973442E-4</v>
       </c>
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
@@ -28308,7 +28352,7 @@
       </c>
       <c r="E560" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999746318838934</v>
+        <v>-1.1017246815744787E-6</v>
       </c>
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
@@ -28342,7 +28386,7 @@
       </c>
       <c r="E561" s="12">
         <f t="shared" si="17"/>
-        <v>0.99506315625608666</v>
+        <v>-2.1493538843624536E-3</v>
       </c>
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
@@ -28376,7 +28420,7 @@
       </c>
       <c r="E562" s="12">
         <f t="shared" si="17"/>
-        <v>0.99932066729892355</v>
+        <v>-2.9513070077591614E-4</v>
       </c>
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
@@ -28410,7 +28454,7 @@
       </c>
       <c r="E563" s="12">
         <f t="shared" si="17"/>
-        <v>0.97124368487619039</v>
+        <v>-1.267179200810982E-2</v>
       </c>
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
@@ -28444,7 +28488,7 @@
       </c>
       <c r="E564" s="12">
         <f t="shared" si="17"/>
-        <v>0.98250654166005491</v>
+        <v>-7.6645493521220421E-3</v>
       </c>
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
@@ -28478,7 +28522,7 @@
       </c>
       <c r="E565" s="12">
         <f t="shared" si="17"/>
-        <v>0.94765231679077289</v>
+        <v>-2.3350971306850796E-2</v>
       </c>
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
@@ -28512,7 +28556,7 @@
       </c>
       <c r="E566" s="12">
         <f t="shared" si="17"/>
-        <v>0.55570775989021781</v>
+        <v>-0.25515353869424684</v>
       </c>
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
@@ -28546,7 +28590,7 @@
       </c>
       <c r="E567" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999959576943009</v>
+        <v>-1.7555514140912136E-7</v>
       </c>
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
@@ -28580,7 +28624,7 @@
       </c>
       <c r="E568" s="12">
         <f t="shared" si="17"/>
-        <v>0.9588172099494906</v>
+        <v>-1.8264179353632452E-2</v>
       </c>
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
@@ -28614,7 +28658,7 @@
       </c>
       <c r="E569" s="12">
         <f t="shared" si="17"/>
-        <v>6.9515219854465848E-2</v>
+        <v>-1.1579200993643852</v>
       </c>
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
@@ -28648,7 +28692,7 @@
       </c>
       <c r="E570" s="12">
         <f t="shared" si="17"/>
-        <v>0.98732490343390367</v>
+        <v>-5.5399085774517033E-3</v>
       </c>
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
@@ -28682,7 +28726,7 @@
       </c>
       <c r="E571" s="12">
         <f t="shared" si="17"/>
-        <v>0.99937339036694661</v>
+        <v>-2.7221840218883021E-4</v>
       </c>
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
@@ -28716,7 +28760,7 @@
       </c>
       <c r="E572" s="12">
         <f t="shared" si="17"/>
-        <v>0.99972527906536313</v>
+        <v>-1.1932617742617403E-4</v>
       </c>
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
@@ -28750,7 +28794,7 @@
       </c>
       <c r="E573" s="12">
         <f t="shared" si="17"/>
-        <v>0.83727351336052636</v>
+        <v>-7.7132647216776234E-2</v>
       </c>
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
@@ -28784,7 +28828,7 @@
       </c>
       <c r="E574" s="12">
         <f t="shared" si="17"/>
-        <v>0.99833009960197927</v>
+        <v>-7.25834732853991E-4</v>
       </c>
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
@@ -28818,7 +28862,7 @@
       </c>
       <c r="E575" s="12">
         <f t="shared" si="17"/>
-        <v>0.98660885504749674</v>
+        <v>-5.8549909608360731E-3</v>
       </c>
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
@@ -28852,7 +28896,7 @@
       </c>
       <c r="E576" s="12">
         <f t="shared" si="17"/>
-        <v>0.99995061033622001</v>
+        <v>-2.1450188155855896E-5</v>
       </c>
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
@@ -28886,7 +28930,7 @@
       </c>
       <c r="E577" s="12">
         <f t="shared" si="17"/>
-        <v>0.99999931068031489</v>
+        <v>-2.9936783869059174E-7</v>
       </c>
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
@@ -28919,8 +28963,8 @@
         <v>0.26330129713641709</v>
       </c>
       <c r="E578" s="12">
-        <f t="shared" ref="E578:E625" si="19">(D578^C578)*((1-D578)^(1-C578))</f>
-        <v>0.73669870286358297</v>
+        <f t="shared" si="17"/>
+        <v>-0.13271009482501833</v>
       </c>
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
@@ -28953,8 +28997,8 @@
         <v>2.6820672949971546E-6</v>
       </c>
       <c r="E579" s="12">
-        <f t="shared" si="19"/>
-        <v>0.99999731793270497</v>
+        <f t="shared" ref="E579:E624" si="19">C579 * LOG(D579) + (1-C579) * LOG(1-D579)</f>
+        <v>-1.1648085883748755E-6</v>
       </c>
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
@@ -28988,7 +29032,7 @@
       </c>
       <c r="E580" s="12">
         <f t="shared" si="19"/>
-        <v>0.99532927822551598</v>
+        <v>-2.0332207022594191E-3</v>
       </c>
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
@@ -29022,7 +29066,7 @@
       </c>
       <c r="E581" s="12">
         <f t="shared" si="19"/>
-        <v>0.99999628021140208</v>
+        <v>-1.6154866665606034E-6</v>
       </c>
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
@@ -29056,7 +29100,7 @@
       </c>
       <c r="E582" s="12">
         <f t="shared" si="19"/>
-        <v>0.99999556385337751</v>
+        <v>-1.9265982723998635E-6</v>
       </c>
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
@@ -29090,7 +29134,7 @@
       </c>
       <c r="E583" s="12">
         <f t="shared" si="19"/>
-        <v>0.99999861310259297</v>
+        <v>-6.023223085186412E-7</v>
       </c>
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
@@ -29124,7 +29168,7 @@
       </c>
       <c r="E584" s="12">
         <f t="shared" si="19"/>
-        <v>0.99729493336220287</v>
+        <v>-1.1763873353547343E-3</v>
       </c>
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
@@ -29158,7 +29202,7 @@
       </c>
       <c r="E585" s="12">
         <f t="shared" si="19"/>
-        <v>0.87156192091180495</v>
+        <v>-5.9701752610203128E-2</v>
       </c>
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
@@ -29192,7 +29236,7 @@
       </c>
       <c r="E586" s="12">
         <f t="shared" si="19"/>
-        <v>0.9284845346853059</v>
+        <v>-3.2225325695626715E-2</v>
       </c>
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
@@ -29226,7 +29270,7 @@
       </c>
       <c r="E587" s="12">
         <f t="shared" si="19"/>
-        <v>0.99997496072684688</v>
+        <v>-1.0874554307302423E-5</v>
       </c>
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
@@ -29260,7 +29304,7 @@
       </c>
       <c r="E588" s="12">
         <f t="shared" si="19"/>
-        <v>0.99773076342628475</v>
+        <v>-9.8663680212196384E-4</v>
       </c>
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
@@ -29294,7 +29338,7 @@
       </c>
       <c r="E589" s="12">
         <f t="shared" si="19"/>
-        <v>0.88499842078405355</v>
+        <v>-5.3057504268709255E-2</v>
       </c>
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
@@ -29328,7 +29372,7 @@
       </c>
       <c r="E590" s="12">
         <f t="shared" si="19"/>
-        <v>0.99997352703338305</v>
+        <v>-1.1497215504724163E-5</v>
       </c>
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
@@ -29362,7 +29406,7 @@
       </c>
       <c r="E591" s="12">
         <f t="shared" si="19"/>
-        <v>0.89485110989187944</v>
+        <v>-4.8249218909211584E-2</v>
       </c>
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
@@ -29396,7 +29440,7 @@
       </c>
       <c r="E592" s="12">
         <f t="shared" si="19"/>
-        <v>0.99993284499863355</v>
+        <v>-2.9166025858868305E-5</v>
       </c>
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
@@ -29430,7 +29474,7 @@
       </c>
       <c r="E593" s="12">
         <f t="shared" si="19"/>
-        <v>0.99006395020050997</v>
+        <v>-4.3367525517278337E-3</v>
       </c>
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
@@ -29464,7 +29508,7 @@
       </c>
       <c r="E594" s="12">
         <f t="shared" si="19"/>
-        <v>0.24326163894929009</v>
+        <v>-0.61392637157131824</v>
       </c>
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
@@ -29498,7 +29542,7 @@
       </c>
       <c r="E595" s="12">
         <f t="shared" si="19"/>
-        <v>0.99994225407348536</v>
+        <v>-2.5079461363034943E-5</v>
       </c>
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
@@ -29532,7 +29576,7 @@
       </c>
       <c r="E596" s="12">
         <f t="shared" si="19"/>
-        <v>0.99999957262347783</v>
+        <v>-1.8560730493633822E-7</v>
       </c>
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
@@ -29566,7 +29610,7 @@
       </c>
       <c r="E597" s="12">
         <f t="shared" si="19"/>
-        <v>0.89434570512079037</v>
+        <v>-4.849457426330997E-2</v>
       </c>
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
@@ -29600,7 +29644,7 @@
       </c>
       <c r="E598" s="12">
         <f t="shared" si="19"/>
-        <v>0.96688585770015123</v>
+        <v>-1.4624791994400208E-2</v>
       </c>
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
@@ -29634,7 +29678,7 @@
       </c>
       <c r="E599" s="12">
         <f t="shared" si="19"/>
-        <v>0.99972527906536313</v>
+        <v>-1.1932617742617403E-4</v>
       </c>
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
@@ -29668,7 +29712,7 @@
       </c>
       <c r="E600" s="12">
         <f t="shared" si="19"/>
-        <v>0.9785771181451226</v>
+        <v>-9.4049434703078541E-3</v>
       </c>
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
@@ -29702,7 +29746,7 @@
       </c>
       <c r="E601" s="12">
         <f t="shared" si="19"/>
-        <v>0.99974660814259664</v>
+        <v>-1.1006063025222633E-4</v>
       </c>
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
@@ -29736,7 +29780,7 @@
       </c>
       <c r="E602" s="12">
         <f t="shared" si="19"/>
-        <v>0.97530236377615198</v>
+        <v>-1.0860723211981588E-2</v>
       </c>
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
@@ -29770,7 +29814,7 @@
       </c>
       <c r="E603" s="12">
         <f t="shared" si="19"/>
-        <v>0.94862588235554013</v>
+        <v>-2.2905030210349845E-2</v>
       </c>
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
@@ -29804,7 +29848,7 @@
       </c>
       <c r="E604" s="12">
         <f t="shared" si="19"/>
-        <v>0.70639100864242121</v>
+        <v>-0.15095483734927759</v>
       </c>
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
@@ -29838,7 +29882,7 @@
       </c>
       <c r="E605" s="12">
         <f t="shared" si="19"/>
-        <v>0.55081396826974627</v>
+        <v>-0.25899505486109664</v>
       </c>
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
@@ -29872,7 +29916,7 @@
       </c>
       <c r="E606" s="12">
         <f t="shared" si="19"/>
-        <v>0.97208393977479657</v>
+        <v>-1.2296231980074819E-2</v>
       </c>
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
@@ -29906,7 +29950,7 @@
       </c>
       <c r="E607" s="12">
         <f t="shared" si="19"/>
-        <v>0.9999887462736583</v>
+        <v>-4.8874587521618812E-6</v>
       </c>
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
@@ -29940,7 +29984,7 @@
       </c>
       <c r="E608" s="12">
         <f t="shared" si="19"/>
-        <v>0.99800914848720823</v>
+        <v>-8.6547763116407242E-4</v>
       </c>
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
@@ -29974,7 +30018,7 @@
       </c>
       <c r="E609" s="12">
         <f t="shared" si="19"/>
-        <v>0.90986928985370974</v>
+        <v>-4.1020993143265551E-2</v>
       </c>
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
@@ -30008,7 +30052,7 @@
       </c>
       <c r="E610" s="12">
         <f t="shared" si="19"/>
-        <v>0.99999989610864037</v>
+        <v>-4.511944654688692E-8</v>
       </c>
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
@@ -30042,7 +30086,7 @@
       </c>
       <c r="E611" s="12">
         <f t="shared" si="19"/>
-        <v>0.99859186497496066</v>
+        <v>-6.1197624493416428E-4</v>
       </c>
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
@@ -30076,7 +30120,7 @@
       </c>
       <c r="E612" s="12">
         <f t="shared" si="19"/>
-        <v>0.9964544848612269</v>
+        <v>-1.5425338175369819E-3</v>
       </c>
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
@@ -30110,7 +30154,7 @@
       </c>
       <c r="E613" s="12">
         <f t="shared" si="19"/>
-        <v>0.98660885504749674</v>
+        <v>-5.8549909608360731E-3</v>
       </c>
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
@@ -30144,7 +30188,7 @@
       </c>
       <c r="E614" s="12">
         <f t="shared" si="19"/>
-        <v>0.98335073850670951</v>
+        <v>-7.2915517206278407E-3</v>
       </c>
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
@@ -30178,7 +30222,7 @@
       </c>
       <c r="E615" s="12">
         <f t="shared" si="19"/>
-        <v>0.99997545161644052</v>
+        <v>-1.0661358379617325E-5</v>
       </c>
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
@@ -30212,7 +30256,7 @@
       </c>
       <c r="E616" s="12">
         <f t="shared" si="19"/>
-        <v>0.99943334891367896</v>
+        <v>-2.4616319086211516E-4</v>
       </c>
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
@@ -30246,7 +30290,7 @@
       </c>
       <c r="E617" s="12">
         <f t="shared" si="19"/>
-        <v>0.97909826826529833</v>
+        <v>-9.1737175700864221E-3</v>
       </c>
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
@@ -30280,7 +30324,7 @@
       </c>
       <c r="E618" s="12">
         <f t="shared" si="19"/>
-        <v>0.99687228513575965</v>
+        <v>-1.3604780109773384E-3</v>
       </c>
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
@@ -30314,7 +30358,7 @@
       </c>
       <c r="E619" s="12">
         <f t="shared" si="19"/>
-        <v>0.94611744806977682</v>
+        <v>-2.4054948288952195E-2</v>
       </c>
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
@@ -30348,7 +30392,7 @@
       </c>
       <c r="E620" s="12">
         <f t="shared" si="19"/>
-        <v>0.99634500914069901</v>
+        <v>-1.5902503103588392E-3</v>
       </c>
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
@@ -30382,7 +30426,7 @@
       </c>
       <c r="E621" s="12">
         <f t="shared" si="19"/>
-        <v>0.99994907980330672</v>
+        <v>-2.211492349422649E-5</v>
       </c>
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
@@ -30416,7 +30460,7 @@
       </c>
       <c r="E622" s="12">
         <f t="shared" si="19"/>
-        <v>0.783442233740413</v>
+        <v>-0.10599302024536979</v>
       </c>
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
@@ -30450,7 +30494,7 @@
       </c>
       <c r="E623" s="12">
         <f t="shared" si="19"/>
-        <v>0.99983056639994039</v>
+        <v>-7.3590312066708377E-5</v>
       </c>
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
@@ -30484,7 +30528,7 @@
       </c>
       <c r="E624" s="12">
         <f t="shared" si="19"/>
-        <v>0.99998239447184778</v>
+        <v>-7.6460510340824802E-6</v>
       </c>
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
@@ -30517,8 +30561,8 @@
         <v>0.99999403240146911</v>
       </c>
       <c r="E625" s="12">
-        <f t="shared" si="19"/>
-        <v>0.99999403240146911</v>
+        <f>C625 * LOG(D625) + (1-C625) * LOG(1-D625)</f>
+        <v>-2.5917028453069704E-6</v>
       </c>
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
@@ -30589,7 +30633,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>

--- a/slides/logistic-regression.xlsx
+++ b/slides/logistic-regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_cmps460-content\slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D0FF0-7C7D-4C77-9CB9-9EE275EB66A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965ABEC2-16B9-40BA-9C08-582AAD82151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-180" windowWidth="19560" windowHeight="10440" xr2:uid="{08BA54BA-1AE0-4313-BEFF-54422C6F84F3}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{08BA54BA-1AE0-4313-BEFF-54422C6F84F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Logistic Regression" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -9098,16 +9098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>531091</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>499631</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138223</xdr:rowOff>
+      <xdr:rowOff>57405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>6714</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41916</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>837988</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>183636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9130,8 +9130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13594773" y="657768"/>
-          <a:ext cx="6327850" cy="758057"/>
+          <a:off x="12703176" y="588496"/>
+          <a:ext cx="6330448" cy="784322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9467,7 +9467,7 @@
   <dimension ref="A1:W626"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.8"/>
@@ -9528,8 +9528,8 @@
         <v>1.7468351644362842E-4</v>
       </c>
       <c r="E2" s="12">
-        <f>C2 * LOG(D2) + (1-C2) * LOG(1-D2)</f>
-        <v>-7.5870714145460287E-5</v>
+        <f>-(C2 * LOG(D2) + (1-C2) * LOG(1-D2))</f>
+        <v>7.5870714145460287E-5</v>
       </c>
       <c r="J2" s="8"/>
       <c r="N2"/>
@@ -9549,8 +9549,8 @@
         <v>0.38334839064092524</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E66" si="1">C3 * LOG(D3) + (1-C3) * LOG(1-D3)</f>
-        <v>-0.20996013072546493</v>
+        <f t="shared" ref="E3:E66" si="1">-(C3 * LOG(D3) + (1-C3) * LOG(1-D3))</f>
+        <v>0.20996013072546493</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>4</v>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>-6.4113556046448754E-6</v>
+        <v>6.4113556046448754E-6</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="25"/>
@@ -9597,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="28">
-        <f>SUM(E2:E625) / - 624</f>
+        <f>SUM(E2:E625) / COUNT(E2:E625)</f>
         <v>3.7881670955578768E-2</v>
       </c>
       <c r="K4"/>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>-0.1189780537417513</v>
+        <v>0.1189780537417513</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>5</v>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>-5.2627934717257492E-4</v>
+        <v>5.2627934717257492E-4</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="25"/>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="1"/>
-        <v>-5.4031159631414893E-3</v>
+        <v>5.4031159631414893E-3</v>
       </c>
       <c r="K7"/>
     </row>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="1"/>
-        <v>-6.1550213871563982E-3</v>
+        <v>6.1550213871563982E-3</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.8">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="E9" s="12">
         <f t="shared" si="1"/>
-        <v>-1.0005929026988191E-4</v>
+        <v>1.0005929026988191E-4</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.8">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" si="1"/>
-        <v>-4.2017188303982086E-2</v>
+        <v>4.2017188303982086E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.8">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" si="1"/>
-        <v>-4.7933960933051675E-3</v>
+        <v>4.7933960933051675E-3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.8">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="1"/>
-        <v>-2.2949790062578077E-4</v>
+        <v>2.2949790062578077E-4</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.8">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E13" s="12">
         <f t="shared" si="1"/>
-        <v>-6.2772200319002758E-3</v>
+        <v>6.2772200319002758E-3</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.8">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>-5.0125579942709398E-3</v>
+        <v>5.0125579942709398E-3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.8">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="E15" s="12">
         <f t="shared" si="1"/>
-        <v>-6.5991976259634135E-4</v>
+        <v>6.5991976259634135E-4</v>
       </c>
     </row>
     <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.8">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="E16" s="12">
         <f t="shared" si="1"/>
-        <v>-1.36380326931707E-5</v>
+        <v>1.36380326931707E-5</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="E17" s="12">
         <f t="shared" si="1"/>
-        <v>-3.8971036602155221E-6</v>
+        <v>3.8971036602155221E-6</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="E18" s="12">
         <f t="shared" si="1"/>
-        <v>-0.13209838630618184</v>
+        <v>0.13209838630618184</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>-3.3075738328988996E-5</v>
+        <v>3.3075738328988996E-5</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -9992,7 +9992,7 @@
       </c>
       <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>-2.8099168093092635E-6</v>
+        <v>2.8099168093092635E-6</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="E21" s="12">
         <f t="shared" si="1"/>
-        <v>-1.8666269193953332E-4</v>
+        <v>1.8666269193953332E-4</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="E22" s="12">
         <f t="shared" si="1"/>
-        <v>-7.7387789937612077E-5</v>
+        <v>7.7387789937612077E-5</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="E23" s="12">
         <f t="shared" si="1"/>
-        <v>-5.3061786758979796E-5</v>
+        <v>5.3061786758979796E-5</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="E24" s="12">
         <f t="shared" si="1"/>
-        <v>-1.0005929026988191E-4</v>
+        <v>1.0005929026988191E-4</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>-2.1469816212413634E-7</v>
+        <v>2.1469816212413634E-7</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="E26" s="12">
         <f t="shared" si="1"/>
-        <v>-1.8543823400329482E-5</v>
+        <v>1.8543823400329482E-5</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="E27" s="12">
         <f t="shared" si="1"/>
-        <v>-3.5493119025334077E-3</v>
+        <v>3.5493119025334077E-3</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="E28" s="12">
         <f t="shared" si="1"/>
-        <v>-1.3649825421325498E-2</v>
+        <v>1.3649825421325498E-2</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="E29" s="12">
         <f t="shared" si="1"/>
-        <v>-5.8196367253513653E-4</v>
+        <v>5.8196367253513653E-4</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="E30" s="12">
         <f t="shared" si="1"/>
-        <v>-1.705131878121928E-2</v>
+        <v>1.705131878121928E-2</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="E31" s="12">
         <f t="shared" si="1"/>
-        <v>-1.9186224685581264E-2</v>
+        <v>1.9186224685581264E-2</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="E32" s="12">
         <f t="shared" si="1"/>
-        <v>-2.2699162678190135E-7</v>
+        <v>2.2699162678190135E-7</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="1"/>
-        <v>-3.3737138767917552E-5</v>
+        <v>3.3737138767917552E-5</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="E34" s="12">
         <f t="shared" si="1"/>
-        <v>-1.1435756099309525E-5</v>
+        <v>1.1435756099309525E-5</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="E35" s="12">
         <f t="shared" si="1"/>
-        <v>-5.7221644842193206E-5</v>
+        <v>5.7221644842193206E-5</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="E36" s="12">
         <f t="shared" si="1"/>
-        <v>-1.2868016190221296E-4</v>
+        <v>1.2868016190221296E-4</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="E37" s="12">
         <f t="shared" si="1"/>
-        <v>-6.5303624944186376E-7</v>
+        <v>6.5303624944186376E-7</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="E38" s="12">
         <f t="shared" si="1"/>
-        <v>-1.2684834875777023E-3</v>
+        <v>1.2684834875777023E-3</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -10637,8 +10637,8 @@
         <v>0.99995533876516418</v>
       </c>
       <c r="E39" s="12">
-        <f>C39 * LOG(D39) + (1-C39) * LOG(1-D39)</f>
-        <v>-1.9396560984588127E-5</v>
+        <f t="shared" si="1"/>
+        <v>1.9396560984588127E-5</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="E40" s="12">
         <f t="shared" si="1"/>
-        <v>-0.20580377083363197</v>
+        <v>0.20580377083363197</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="1"/>
-        <v>-4.5145772033965512E-2</v>
+        <v>4.5145772033965512E-2</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="E42" s="12">
         <f t="shared" si="1"/>
-        <v>-5.9712738140585159E-3</v>
+        <v>5.9712738140585159E-3</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="E43" s="12">
         <f t="shared" si="1"/>
-        <v>-5.1743485503731655E-5</v>
+        <v>5.1743485503731655E-5</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="E44" s="12">
         <f t="shared" si="1"/>
-        <v>-3.4136936434608895E-4</v>
+        <v>3.4136936434608895E-4</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="E45" s="12">
         <f t="shared" si="1"/>
-        <v>-2.9909126811875411E-5</v>
+        <v>2.9909126811875411E-5</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="E46" s="12">
         <f t="shared" si="1"/>
-        <v>-1.3267269827732168E-3</v>
+        <v>1.3267269827732168E-3</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="E47" s="12">
         <f t="shared" si="1"/>
-        <v>-2.3721238889404815E-5</v>
+        <v>2.3721238889404815E-5</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -10944,7 +10944,7 @@
       </c>
       <c r="E48" s="12">
         <f t="shared" si="1"/>
-        <v>-2.806518639512251E-4</v>
+        <v>2.806518639512251E-4</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="E49" s="12">
         <f t="shared" si="1"/>
-        <v>-3.2462294950342434E-4</v>
+        <v>3.2462294950342434E-4</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="E50" s="12">
         <f t="shared" si="1"/>
-        <v>-8.6547763116407242E-4</v>
+        <v>8.6547763116407242E-4</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="E51" s="12">
         <f t="shared" si="1"/>
-        <v>-5.8313620945493187E-2</v>
+        <v>5.8313620945493187E-2</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="E52" s="12">
         <f t="shared" si="1"/>
-        <v>-2.2976238207138233E-6</v>
+        <v>2.2976238207138233E-6</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="E53" s="12">
         <f t="shared" si="1"/>
-        <v>-1.6219917437926617E-3</v>
+        <v>1.6219917437926617E-3</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="E54" s="12">
         <f t="shared" si="1"/>
-        <v>-4.2817316237825809E-2</v>
+        <v>4.2817316237825809E-2</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="E55" s="12">
         <f t="shared" si="1"/>
-        <v>-2.39298370220291E-2</v>
+        <v>2.39298370220291E-2</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="E56" s="12">
         <f t="shared" si="1"/>
-        <v>-1.1994898239174887E-2</v>
+        <v>1.1994898239174887E-2</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="E57" s="12">
         <f t="shared" si="1"/>
-        <v>-9.5891003461486378E-6</v>
+        <v>9.5891003461486378E-6</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="E58" s="12">
         <f t="shared" si="1"/>
-        <v>-4.5915730467831823E-7</v>
+        <v>4.5915730467831823E-7</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="E59" s="12">
         <f t="shared" si="1"/>
-        <v>-1.1700849984893725E-2</v>
+        <v>1.1700849984893725E-2</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="E60" s="12">
         <f t="shared" si="1"/>
-        <v>-1.8002814224956038E-7</v>
+        <v>1.8002814224956038E-7</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="E61" s="12">
         <f t="shared" si="1"/>
-        <v>-4.6789753822534751E-5</v>
+        <v>4.6789753822534751E-5</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="E62" s="12">
         <f t="shared" si="1"/>
-        <v>-5.534220407188477E-4</v>
+        <v>5.534220407188477E-4</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="E63" s="12">
         <f t="shared" si="1"/>
-        <v>-2.4945398919007218E-5</v>
+        <v>2.4945398919007218E-5</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="E64" s="12">
         <f t="shared" si="1"/>
-        <v>-9.6419330332944263E-3</v>
+        <v>9.6419330332944263E-3</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="E65" s="12">
         <f t="shared" si="1"/>
-        <v>-1.1868838730825006E-4</v>
+        <v>1.1868838730825006E-4</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="E66" s="12">
         <f t="shared" si="1"/>
-        <v>-0.29502669095629297</v>
+        <v>0.29502669095629297</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -11589,8 +11589,8 @@
         <v>0.99947452377659618</v>
       </c>
       <c r="E67" s="12">
-        <f t="shared" ref="E67:E130" si="3">C67 * LOG(D67) + (1-C67) * LOG(1-D67)</f>
-        <v>-2.2827140504756287E-4</v>
+        <f t="shared" ref="E67:E130" si="3">-(C67 * LOG(D67) + (1-C67) * LOG(1-D67))</f>
+        <v>2.2827140504756287E-4</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -11623,8 +11623,8 @@
         <v>1.0706712033761875E-2</v>
       </c>
       <c r="E68" s="12">
-        <f>C68 * LOG(D68) + (1-C68) * LOG(1-D68)</f>
-        <v>-4.6749374596507017E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6749374596507017E-3</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="E69" s="12">
         <f t="shared" si="3"/>
-        <v>-3.1313456903697527E-7</v>
+        <v>3.1313456903697527E-7</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="E70" s="12">
         <f t="shared" si="3"/>
-        <v>-1.5945549381785843E-5</v>
+        <v>1.5945549381785843E-5</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="E71" s="12">
         <f t="shared" si="3"/>
-        <v>-3.4136936434608895E-4</v>
+        <v>3.4136936434608895E-4</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="E72" s="12">
         <f t="shared" si="3"/>
-        <v>-2.1305830183062863E-6</v>
+        <v>2.1305830183062863E-6</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="E73" s="12">
         <f t="shared" si="3"/>
-        <v>-0.68846293196783059</v>
+        <v>0.68846293196783059</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -11828,7 +11828,7 @@
       </c>
       <c r="E74" s="12">
         <f t="shared" si="3"/>
-        <v>-5.9359343679370419E-4</v>
+        <v>5.9359343679370419E-4</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="E75" s="12">
         <f t="shared" si="3"/>
-        <v>-1.5480298030428538E-7</v>
+        <v>1.5480298030428538E-7</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="E76" s="12">
         <f t="shared" si="3"/>
-        <v>-1.1471972381274002E-3</v>
+        <v>1.1471972381274002E-3</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="E77" s="12">
         <f t="shared" si="3"/>
-        <v>-4.5670280671851134E-7</v>
+        <v>4.5670280671851134E-7</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="E78" s="12">
         <f t="shared" si="3"/>
-        <v>-4.8613322016083397E-6</v>
+        <v>4.8613322016083397E-6</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="E79" s="12">
         <f t="shared" si="3"/>
-        <v>-1.0466006436597633E-4</v>
+        <v>1.0466006436597633E-4</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="E80" s="12">
         <f t="shared" si="3"/>
-        <v>-1.8002814224956038E-7</v>
+        <v>1.8002814224956038E-7</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="E81" s="12">
         <f t="shared" si="3"/>
-        <v>-2.9909126811875411E-5</v>
+        <v>2.9909126811875411E-5</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="E82" s="12">
         <f t="shared" si="3"/>
-        <v>-1.7012257223341036</v>
+        <v>1.7012257223341036</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -12134,7 +12134,7 @@
       </c>
       <c r="E83" s="12">
         <f t="shared" si="3"/>
-        <v>-1.2296231980074819E-2</v>
+        <v>1.2296231980074819E-2</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -12168,7 +12168,7 @@
       </c>
       <c r="E84" s="12">
         <f t="shared" si="3"/>
-        <v>-1.7309469651905952E-4</v>
+        <v>1.7309469651905952E-4</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="E85" s="12">
         <f t="shared" si="3"/>
-        <v>-8.6818172835163108E-3</v>
+        <v>8.6818172835163108E-3</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="E86" s="12">
         <f t="shared" si="3"/>
-        <v>-1.6219917437926617E-3</v>
+        <v>1.6219917437926617E-3</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -12270,7 +12270,7 @@
       </c>
       <c r="E87" s="12">
         <f t="shared" si="3"/>
-        <v>-1.6768444343292114E-5</v>
+        <v>1.6768444343292114E-5</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="E88" s="12">
         <f t="shared" si="3"/>
-        <v>-1.6137523684851476E-4</v>
+        <v>1.6137523684851476E-4</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="E89" s="12">
         <f t="shared" si="3"/>
-        <v>-3.9842790145468238E-2</v>
+        <v>3.9842790145468238E-2</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="E90" s="12">
         <f t="shared" si="3"/>
-        <v>-2.5378968502494945E-4</v>
+        <v>2.5378968502494945E-4</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="E91" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4418924025707275E-5</v>
+        <v>1.4418924025707275E-5</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="E92" s="12">
         <f t="shared" si="3"/>
-        <v>-3.1035623429859563E-4</v>
+        <v>3.1035623429859563E-4</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="E93" s="12">
         <f t="shared" si="3"/>
-        <v>-3.8895871474141086E-2</v>
+        <v>3.8895871474141086E-2</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="E94" s="12">
         <f t="shared" si="3"/>
-        <v>-8.6818172835163108E-3</v>
+        <v>8.6818172835163108E-3</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="E95" s="12">
         <f t="shared" si="3"/>
-        <v>-2.7221840218883021E-4</v>
+        <v>2.7221840218883021E-4</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -12576,7 +12576,7 @@
       </c>
       <c r="E96" s="12">
         <f t="shared" si="3"/>
-        <v>-3.9234361909495547E-5</v>
+        <v>3.9234361909495547E-5</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -12609,8 +12609,8 @@
         <v>7.7160520587850615E-6</v>
       </c>
       <c r="E97" s="12">
-        <f>C97 * LOG(D97) + (1-C97) * LOG(1-D97)</f>
-        <v>-3.351051759649313E-6</v>
+        <f t="shared" si="3"/>
+        <v>3.351051759649313E-6</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="E98" s="12">
         <f t="shared" si="3"/>
-        <v>-2.9355356522683626E-4</v>
+        <v>2.9355356522683626E-4</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="E99" s="12">
         <f t="shared" si="3"/>
-        <v>-5.4031159631414893E-3</v>
+        <v>5.4031159631414893E-3</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="E100" s="12">
         <f t="shared" si="3"/>
-        <v>-4.6162210579507856E-4</v>
+        <v>4.6162210579507856E-4</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="E101" s="12">
         <f t="shared" si="3"/>
-        <v>-1.0532882107064767E-6</v>
+        <v>1.0532882107064767E-6</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="E102" s="12">
         <f t="shared" si="3"/>
-        <v>-2.0776464127932256E-6</v>
+        <v>2.0776464127932256E-6</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -12814,7 +12814,7 @@
       </c>
       <c r="E103" s="12">
         <f t="shared" si="3"/>
-        <v>-0.33567269307288877</v>
+        <v>0.33567269307288877</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="E104" s="12">
         <f t="shared" si="3"/>
-        <v>-2.0776464127932256E-6</v>
+        <v>2.0776464127932256E-6</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -12882,7 +12882,7 @@
       </c>
       <c r="E105" s="12">
         <f t="shared" si="3"/>
-        <v>-1.4073423161475543E-7</v>
+        <v>1.4073423161475543E-7</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="E106" s="12">
         <f t="shared" si="3"/>
-        <v>-5.7327387826397308E-9</v>
+        <v>5.7327387826397308E-9</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="E107" s="12">
         <f t="shared" si="3"/>
-        <v>-2.9090290538162984E-2</v>
+        <v>2.9090290538162984E-2</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -12984,7 +12984,7 @@
       </c>
       <c r="E108" s="12">
         <f t="shared" si="3"/>
-        <v>-2.4054948288952195E-2</v>
+        <v>2.4054948288952195E-2</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="E109" s="12">
         <f t="shared" si="3"/>
-        <v>-3.0869776462527881E-4</v>
+        <v>3.0869776462527881E-4</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -13052,7 +13052,7 @@
       </c>
       <c r="E110" s="12">
         <f t="shared" si="3"/>
-        <v>-1.2938120106414947E-3</v>
+        <v>1.2938120106414947E-3</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="E111" s="12">
         <f t="shared" si="3"/>
-        <v>-0.25899505486109664</v>
+        <v>0.25899505486109664</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="E112" s="12">
         <f t="shared" si="3"/>
-        <v>-2.9513070077591614E-4</v>
+        <v>2.9513070077591614E-4</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="E113" s="12">
         <f t="shared" si="3"/>
-        <v>-1.8958350081318203E-3</v>
+        <v>1.8958350081318203E-3</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="E114" s="12">
         <f t="shared" si="3"/>
-        <v>-2.1694994653037532E-2</v>
+        <v>2.1694994653037532E-2</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -13222,7 +13222,7 @@
       </c>
       <c r="E115" s="12">
         <f t="shared" si="3"/>
-        <v>-2.8538298471559698E-2</v>
+        <v>2.8538298471559698E-2</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="E116" s="12">
         <f t="shared" si="3"/>
-        <v>-0.25033273018379382</v>
+        <v>0.25033273018379382</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="E117" s="12">
         <f t="shared" si="3"/>
-        <v>-5.332584287392908E-2</v>
+        <v>5.332584287392908E-2</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="E118" s="12">
         <f t="shared" si="3"/>
-        <v>-5.0393417434177494E-3</v>
+        <v>5.0393417434177494E-3</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="E119" s="12">
         <f t="shared" si="3"/>
-        <v>-3.8465195817576467E-5</v>
+        <v>3.8465195817576467E-5</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="E120" s="12">
         <f t="shared" si="3"/>
-        <v>-8.0406413955398557E-6</v>
+        <v>8.0406413955398557E-6</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="E121" s="12">
         <f t="shared" si="3"/>
-        <v>-2.7039819497982894E-2</v>
+        <v>2.7039819497982894E-2</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="E122" s="12">
         <f t="shared" si="3"/>
-        <v>-4.7405475928567785E-6</v>
+        <v>4.7405475928567785E-6</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -13494,7 +13494,7 @@
       </c>
       <c r="E123" s="12">
         <f t="shared" si="3"/>
-        <v>-6.2755763994995408E-4</v>
+        <v>6.2755763994995408E-4</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="E124" s="12">
         <f t="shared" si="3"/>
-        <v>-7.1282795357296181E-6</v>
+        <v>7.1282795357296181E-6</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="E125" s="12">
         <f t="shared" si="3"/>
-        <v>-1.6632397335569061E-3</v>
+        <v>1.6632397335569061E-3</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="E126" s="12">
         <f t="shared" si="3"/>
-        <v>-6.0031449874733949E-3</v>
+        <v>6.0031449874733949E-3</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="E127" s="12">
         <f t="shared" si="3"/>
-        <v>-0.20171200842234197</v>
+        <v>0.20171200842234197</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="E128" s="12">
         <f t="shared" si="3"/>
-        <v>-1.8444696514980516E-5</v>
+        <v>1.8444696514980516E-5</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -13698,7 +13698,7 @@
       </c>
       <c r="E129" s="12">
         <f t="shared" si="3"/>
-        <v>-3.5239906526079224E-6</v>
+        <v>3.5239906526079224E-6</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="E130" s="12">
         <f t="shared" si="3"/>
-        <v>-3.9025356521216891E-3</v>
+        <v>3.9025356521216891E-3</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -13765,8 +13765,8 @@
         <v>3.671531028258093E-5</v>
       </c>
       <c r="E131" s="12">
-        <f t="shared" ref="E131:E194" si="5">C131 * LOG(D131) + (1-C131) * LOG(1-D131)</f>
-        <v>-1.5945549381785843E-5</v>
+        <f t="shared" ref="E131:E194" si="5">-(C131 * LOG(D131) + (1-C131) * LOG(1-D131))</f>
+        <v>1.5945549381785843E-5</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="E132" s="12">
         <f t="shared" si="5"/>
-        <v>-5.2077222482964786E-2</v>
+        <v>5.2077222482964786E-2</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -13834,7 +13834,7 @@
       </c>
       <c r="E133" s="12">
         <f t="shared" si="5"/>
-        <v>-1.2646538644857679E-5</v>
+        <v>1.2646538644857679E-5</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="E134" s="12">
         <f t="shared" si="5"/>
-        <v>-2.5260935312906962E-2</v>
+        <v>2.5260935312906962E-2</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="E135" s="12">
         <f t="shared" si="5"/>
-        <v>-2.5751398847616278E-2</v>
+        <v>2.5751398847616278E-2</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="E136" s="12">
         <f t="shared" si="5"/>
-        <v>-2.6688312711962986E-4</v>
+        <v>2.6688312711962986E-4</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="E137" s="12">
         <f t="shared" si="5"/>
-        <v>-1.424522219114466E-6</v>
+        <v>1.424522219114466E-6</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="E138" s="12">
         <f t="shared" si="5"/>
-        <v>-3.8895871474141086E-2</v>
+        <v>3.8895871474141086E-2</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="E139" s="12">
         <f t="shared" si="5"/>
-        <v>-1.0522248028667612E-4</v>
+        <v>1.0522248028667612E-4</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -14072,7 +14072,7 @@
       </c>
       <c r="E140" s="12">
         <f t="shared" si="5"/>
-        <v>-1.3604780109773384E-3</v>
+        <v>1.3604780109773384E-3</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -14106,7 +14106,7 @@
       </c>
       <c r="E141" s="12">
         <f t="shared" si="5"/>
-        <v>-3.944521311581813E-5</v>
+        <v>3.944521311581813E-5</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="E142" s="12">
         <f t="shared" si="5"/>
-        <v>-1.2561313825905527E-6</v>
+        <v>1.2561313825905527E-6</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="E143" s="12">
         <f t="shared" si="5"/>
-        <v>-3.8059963825668825E-3</v>
+        <v>3.8059963825668825E-3</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -14208,7 +14208,7 @@
       </c>
       <c r="E144" s="12">
         <f t="shared" si="5"/>
-        <v>-8.1818543752492002E-5</v>
+        <v>8.1818543752492002E-5</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -14242,7 +14242,7 @@
       </c>
       <c r="E145" s="12">
         <f t="shared" si="5"/>
-        <v>-4.3897948305219534E-4</v>
+        <v>4.3897948305219534E-4</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="E146" s="12">
         <f t="shared" si="5"/>
-        <v>-3.9095779380188725E-2</v>
+        <v>3.9095779380188725E-2</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="E147" s="12">
         <f t="shared" si="5"/>
-        <v>-6.2420533933622239E-4</v>
+        <v>6.2420533933622239E-4</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="E148" s="12">
         <f t="shared" si="5"/>
-        <v>-2.919297104463789E-7</v>
+        <v>2.919297104463789E-7</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -14378,7 +14378,7 @@
       </c>
       <c r="E149" s="12">
         <f t="shared" si="5"/>
-        <v>-3.4214322994557604</v>
+        <v>3.4214322994557604</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="E150" s="12">
         <f t="shared" si="5"/>
-        <v>-7.8269013120102005E-4</v>
+        <v>7.8269013120102005E-4</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="E151" s="12">
         <f t="shared" si="5"/>
-        <v>-5.5046550827968373E-4</v>
+        <v>5.5046550827968373E-4</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -14480,7 +14480,7 @@
       </c>
       <c r="E152" s="12">
         <f t="shared" si="5"/>
-        <v>-1.3649825421325498E-2</v>
+        <v>1.3649825421325498E-2</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="E153" s="12">
         <f t="shared" si="5"/>
-        <v>-1.0117462432970633E-3</v>
+        <v>1.0117462432970633E-3</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="E154" s="12">
         <f t="shared" si="5"/>
-        <v>-4.3367525517278337E-3</v>
+        <v>4.3367525517278337E-3</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="E155" s="12">
         <f t="shared" si="5"/>
-        <v>-2.2949790062578077E-4</v>
+        <v>2.2949790062578077E-4</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="E156" s="12">
         <f t="shared" si="5"/>
-        <v>-2.0278340931559759E-8</v>
+        <v>2.0278340931559759E-8</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="E157" s="12">
         <f t="shared" si="5"/>
-        <v>-2.637371179494154E-5</v>
+        <v>2.637371179494154E-5</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -14684,7 +14684,7 @@
       </c>
       <c r="E158" s="12">
         <f t="shared" si="5"/>
-        <v>-6.5987230554127429E-3</v>
+        <v>6.5987230554127429E-3</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="E159" s="12">
         <f t="shared" si="5"/>
-        <v>-8.2455084328370136E-6</v>
+        <v>8.2455084328370136E-6</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="E160" s="12">
         <f t="shared" si="5"/>
-        <v>-8.8232601784520102E-5</v>
+        <v>8.8232601784520102E-5</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="E161" s="12">
         <f t="shared" si="5"/>
-        <v>-1.2868016190221296E-4</v>
+        <v>1.2868016190221296E-4</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="E162" s="12">
         <f t="shared" si="5"/>
-        <v>-5.9712738140585159E-3</v>
+        <v>5.9712738140585159E-3</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -14854,7 +14854,7 @@
       </c>
       <c r="E163" s="12">
         <f t="shared" si="5"/>
-        <v>-2.2039789405052597E-3</v>
+        <v>2.2039789405052597E-3</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="E164" s="12">
         <f t="shared" si="5"/>
-        <v>-3.1074253921718802E-6</v>
+        <v>3.1074253921718802E-6</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="E165" s="12">
         <f t="shared" si="5"/>
-        <v>-1.3802560351415112E-4</v>
+        <v>1.3802560351415112E-4</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -14956,7 +14956,7 @@
       </c>
       <c r="E166" s="12">
         <f t="shared" si="5"/>
-        <v>-7.2147674157206526E-5</v>
+        <v>7.2147674157206526E-5</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="E167" s="12">
         <f t="shared" si="5"/>
-        <v>-9.9624403709246133E-7</v>
+        <v>9.9624403709246133E-7</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -15024,7 +15024,7 @@
       </c>
       <c r="E168" s="12">
         <f t="shared" si="5"/>
-        <v>-2.5917028453069704E-6</v>
+        <v>2.5917028453069704E-6</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="E169" s="12">
         <f t="shared" si="5"/>
-        <v>-7.1161620091620423E-4</v>
+        <v>7.1161620091620423E-4</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="E170" s="12">
         <f t="shared" si="5"/>
-        <v>-2.1279909211686598E-2</v>
+        <v>2.1279909211686598E-2</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="E171" s="12">
         <f t="shared" si="5"/>
-        <v>-4.1744695012874741E-4</v>
+        <v>4.1744695012874741E-4</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="E172" s="12">
         <f t="shared" si="5"/>
-        <v>-7.398578145395896E-5</v>
+        <v>7.398578145395896E-5</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="E173" s="12">
         <f t="shared" si="5"/>
-        <v>-5.562740195605554E-2</v>
+        <v>5.562740195605554E-2</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="E174" s="12">
         <f t="shared" si="5"/>
-        <v>-4.2295240220177905E-3</v>
+        <v>4.2295240220177905E-3</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="E175" s="12">
         <f t="shared" si="5"/>
-        <v>-2.2350321891510438E-2</v>
+        <v>2.2350321891510438E-2</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="E176" s="12">
         <f t="shared" si="5"/>
-        <v>-1.5902503103588392E-3</v>
+        <v>1.5902503103588392E-3</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -15330,7 +15330,7 @@
       </c>
       <c r="E177" s="12">
         <f t="shared" si="5"/>
-        <v>-2.4650775092504594E-2</v>
+        <v>2.4650775092504594E-2</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -15364,7 +15364,7 @@
       </c>
       <c r="E178" s="12">
         <f t="shared" si="5"/>
-        <v>-3.5194428946809666E-4</v>
+        <v>3.5194428946809666E-4</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="E179" s="12">
         <f t="shared" si="5"/>
-        <v>-0.346293106295603</v>
+        <v>0.346293106295603</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="E180" s="12">
         <f t="shared" si="5"/>
-        <v>-3.1826096117390518E-4</v>
+        <v>3.1826096117390518E-4</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="E181" s="12">
         <f t="shared" si="5"/>
-        <v>-3.4430450295013827E-3</v>
+        <v>3.4430450295013827E-3</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -15500,7 +15500,7 @@
       </c>
       <c r="E182" s="12">
         <f t="shared" si="5"/>
-        <v>-4.5593909389975628E-3</v>
+        <v>4.5593909389975628E-3</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -15534,7 +15534,7 @@
       </c>
       <c r="E183" s="12">
         <f t="shared" si="5"/>
-        <v>-1.605127389627763E-4</v>
+        <v>1.605127389627763E-4</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -15568,7 +15568,7 @@
       </c>
       <c r="E184" s="12">
         <f t="shared" si="5"/>
-        <v>-1.605127389627763E-4</v>
+        <v>1.605127389627763E-4</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="E185" s="12">
         <f t="shared" si="5"/>
-        <v>-1.4884518567454317E-4</v>
+        <v>1.4884518567454317E-4</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -15636,7 +15636,7 @@
       </c>
       <c r="E186" s="12">
         <f t="shared" si="5"/>
-        <v>-2.4478814198302683E-7</v>
+        <v>2.4478814198302683E-7</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="E187" s="12">
         <f t="shared" si="5"/>
-        <v>-8.0564512090515079E-3</v>
+        <v>8.0564512090515079E-3</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -15704,7 +15704,7 @@
       </c>
       <c r="E188" s="12">
         <f t="shared" si="5"/>
-        <v>-6.6902817879170955E-5</v>
+        <v>6.6902817879170955E-5</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="E189" s="12">
         <f t="shared" si="5"/>
-        <v>-2.9166025858868305E-5</v>
+        <v>2.9166025858868305E-5</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="E190" s="12">
         <f t="shared" si="5"/>
-        <v>-1.9244618239751737E-4</v>
+        <v>1.9244618239751737E-4</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -15806,7 +15806,7 @@
       </c>
       <c r="E191" s="12">
         <f t="shared" si="5"/>
-        <v>-1.1648085883748755E-6</v>
+        <v>1.1648085883748755E-6</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -15840,7 +15840,7 @@
       </c>
       <c r="E192" s="12">
         <f t="shared" si="5"/>
-        <v>-7.8689280506390462E-4</v>
+        <v>7.8689280506390462E-4</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="E193" s="12">
         <f t="shared" si="5"/>
-        <v>-3.5304153940524884E-3</v>
+        <v>3.5304153940524884E-3</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="E194" s="12">
         <f t="shared" si="5"/>
-        <v>-1.9244618239751737E-4</v>
+        <v>1.9244618239751737E-4</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -15941,8 +15941,8 @@
         <v>0.99970533007116591</v>
       </c>
       <c r="E195" s="12">
-        <f t="shared" ref="E195:E258" si="7">C195 * LOG(D195) + (1-C195) * LOG(1-D195)</f>
-        <v>-1.2799238275490015E-4</v>
+        <f t="shared" ref="E195:E258" si="7">-(C195 * LOG(D195) + (1-C195) * LOG(1-D195))</f>
+        <v>1.2799238275490015E-4</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -15976,7 +15976,7 @@
       </c>
       <c r="E196" s="12">
         <f t="shared" si="7"/>
-        <v>-2.4522651546357681E-2</v>
+        <v>2.4522651546357681E-2</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="E197" s="12">
         <f t="shared" si="7"/>
-        <v>-1.5817648335751031E-3</v>
+        <v>1.5817648335751031E-3</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="E198" s="12">
         <f t="shared" si="7"/>
-        <v>-6.4703122143245934E-3</v>
+        <v>6.4703122143245934E-3</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="E199" s="12">
         <f t="shared" si="7"/>
-        <v>-9.473072500955701E-2</v>
+        <v>9.473072500955701E-2</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -16112,7 +16112,7 @@
       </c>
       <c r="E200" s="12">
         <f t="shared" si="7"/>
-        <v>-7.2708248305509759E-6</v>
+        <v>7.2708248305509759E-6</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -16146,7 +16146,7 @@
       </c>
       <c r="E201" s="12">
         <f t="shared" si="7"/>
-        <v>-1.7421432480527284E-6</v>
+        <v>1.7421432480527284E-6</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -16180,7 +16180,7 @@
       </c>
       <c r="E202" s="12">
         <f t="shared" si="7"/>
-        <v>-3.4653583764006325E-2</v>
+        <v>3.4653583764006325E-2</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="E203" s="12">
         <f t="shared" si="7"/>
-        <v>-3.3289090823674733E-4</v>
+        <v>3.3289090823674733E-4</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -16248,7 +16248,7 @@
       </c>
       <c r="E204" s="12">
         <f t="shared" si="7"/>
-        <v>-1.705534620229263E-3</v>
+        <v>1.705534620229263E-3</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="E205" s="12">
         <f t="shared" si="7"/>
-        <v>-3.5478158964214996E-5</v>
+        <v>3.5478158964214996E-5</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -16316,7 +16316,7 @@
       </c>
       <c r="E206" s="12">
         <f t="shared" si="7"/>
-        <v>-9.8848266644319168E-3</v>
+        <v>9.8848266644319168E-3</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="E207" s="12">
         <f t="shared" si="7"/>
-        <v>-3.292246309538757E-3</v>
+        <v>3.292246309538757E-3</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="E208" s="12">
         <f t="shared" si="7"/>
-        <v>-2.226011984433365E-4</v>
+        <v>2.226011984433365E-4</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -16418,7 +16418,7 @@
       </c>
       <c r="E209" s="12">
         <f t="shared" si="7"/>
-        <v>-2.5295673213029116E-8</v>
+        <v>2.5295673213029116E-8</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -16452,7 +16452,7 @@
       </c>
       <c r="E210" s="12">
         <f t="shared" si="7"/>
-        <v>-0.15419166636812481</v>
+        <v>0.15419166636812481</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="E211" s="12">
         <f t="shared" si="7"/>
-        <v>-1.6721614466892114E-3</v>
+        <v>1.6721614466892114E-3</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="E212" s="12">
         <f t="shared" si="7"/>
-        <v>-1.4991061018173792E-2</v>
+        <v>1.4991061018173792E-2</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -16554,7 +16554,7 @@
       </c>
       <c r="E213" s="12">
         <f t="shared" si="7"/>
-        <v>-1.3221355662921992E-8</v>
+        <v>1.3221355662921992E-8</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="E214" s="12">
         <f t="shared" si="7"/>
-        <v>-3.4614757503278501E-3</v>
+        <v>3.4614757503278501E-3</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="E215" s="12">
         <f t="shared" si="7"/>
-        <v>-9.1009604959060722E-4</v>
+        <v>9.1009604959060722E-4</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="E216" s="12">
         <f t="shared" si="7"/>
-        <v>-5.5046550827968373E-4</v>
+        <v>5.5046550827968373E-4</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -16690,7 +16690,7 @@
       </c>
       <c r="E217" s="12">
         <f t="shared" si="7"/>
-        <v>-0.62222033273204214</v>
+        <v>0.62222033273204214</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -16724,7 +16724,7 @@
       </c>
       <c r="E218" s="12">
         <f t="shared" si="7"/>
-        <v>-3.0374665097201688E-3</v>
+        <v>3.0374665097201688E-3</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -16758,7 +16758,7 @@
       </c>
       <c r="E219" s="12">
         <f t="shared" si="7"/>
-        <v>-1.8577264339616872E-9</v>
+        <v>1.8577264339616872E-9</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -16792,7 +16792,7 @@
       </c>
       <c r="E220" s="12">
         <f t="shared" si="7"/>
-        <v>-0.17849409106028791</v>
+        <v>0.17849409106028791</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="E221" s="12">
         <f t="shared" si="7"/>
-        <v>-1.5652533797194863E-4</v>
+        <v>1.5652533797194863E-4</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="E222" s="12">
         <f t="shared" si="7"/>
-        <v>-1.0874554307302423E-5</v>
+        <v>1.0874554307302423E-5</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="E223" s="12">
         <f t="shared" si="7"/>
-        <v>-3.5194428946809666E-4</v>
+        <v>3.5194428946809666E-4</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -16928,7 +16928,7 @@
       </c>
       <c r="E224" s="12">
         <f t="shared" si="7"/>
-        <v>-5.4706095008483564E-5</v>
+        <v>5.4706095008483564E-5</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -16962,7 +16962,7 @@
       </c>
       <c r="E225" s="12">
         <f t="shared" si="7"/>
-        <v>-9.9101036942228687E-2</v>
+        <v>9.9101036942228687E-2</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="E226" s="12">
         <f t="shared" si="7"/>
-        <v>-1.8083090836816103E-5</v>
+        <v>1.8083090836816103E-5</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="E227" s="12">
         <f t="shared" si="7"/>
-        <v>-5.6448180930062004E-4</v>
+        <v>5.6448180930062004E-4</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -17064,7 +17064,7 @@
       </c>
       <c r="E228" s="12">
         <f t="shared" si="7"/>
-        <v>-4.7113121430063132E-2</v>
+        <v>4.7113121430063132E-2</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -17098,7 +17098,7 @@
       </c>
       <c r="E229" s="12">
         <f t="shared" si="7"/>
-        <v>-9.4640845306282099E-5</v>
+        <v>9.4640845306282099E-5</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="E230" s="12">
         <f t="shared" si="7"/>
-        <v>-1.0396468106403883E-5</v>
+        <v>1.0396468106403883E-5</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -17166,7 +17166,7 @@
       </c>
       <c r="E231" s="12">
         <f t="shared" si="7"/>
-        <v>-2.5295673213029116E-8</v>
+        <v>2.5295673213029116E-8</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="E232" s="12">
         <f t="shared" si="7"/>
-        <v>-1.1435756099309525E-5</v>
+        <v>1.1435756099309525E-5</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="E233" s="12">
         <f t="shared" si="7"/>
-        <v>-1.2968757319769426E-5</v>
+        <v>1.2968757319769426E-5</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="E234" s="12">
         <f t="shared" si="7"/>
-        <v>-7.8830039019391006E-6</v>
+        <v>7.8830039019391006E-6</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -17302,7 +17302,7 @@
       </c>
       <c r="E235" s="12">
         <f t="shared" si="7"/>
-        <v>-8.0564512090515079E-3</v>
+        <v>8.0564512090515079E-3</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="E236" s="12">
         <f t="shared" si="7"/>
-        <v>-1.4341846621036835E-5</v>
+        <v>1.4341846621036835E-5</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -17370,7 +17370,7 @@
       </c>
       <c r="E237" s="12">
         <f t="shared" si="7"/>
-        <v>-4.3097209229310737E-6</v>
+        <v>4.3097209229310737E-6</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="E238" s="12">
         <f t="shared" si="7"/>
-        <v>-1.1474455374868842E-2</v>
+        <v>1.1474455374868842E-2</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -17438,7 +17438,7 @@
       </c>
       <c r="E239" s="12">
         <f t="shared" si="7"/>
-        <v>-2.9909126811875411E-5</v>
+        <v>2.9909126811875411E-5</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -17472,7 +17472,7 @@
       </c>
       <c r="E240" s="12">
         <f t="shared" si="7"/>
-        <v>-1.1413915829503723E-2</v>
+        <v>1.1413915829503723E-2</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -17506,7 +17506,7 @@
       </c>
       <c r="E241" s="12">
         <f t="shared" si="7"/>
-        <v>-1.43427514113822E-2</v>
+        <v>1.43427514113822E-2</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -17540,7 +17540,7 @@
       </c>
       <c r="E242" s="12">
         <f t="shared" si="7"/>
-        <v>-1.0661358379617325E-5</v>
+        <v>1.0661358379617325E-5</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="E243" s="12">
         <f t="shared" si="7"/>
-        <v>-7.5373182096293206E-2</v>
+        <v>7.5373182096293206E-2</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -17608,7 +17608,7 @@
       </c>
       <c r="E244" s="12">
         <f t="shared" si="7"/>
-        <v>-2.3050626554868129E-3</v>
+        <v>2.3050626554868129E-3</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -17642,7 +17642,7 @@
       </c>
       <c r="E245" s="12">
         <f t="shared" si="7"/>
-        <v>-2.4032821024995453E-6</v>
+        <v>2.4032821024995453E-6</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="E246" s="12">
         <f t="shared" si="7"/>
-        <v>-8.0838545400681545E-6</v>
+        <v>8.0838545400681545E-6</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -17710,7 +17710,7 @@
       </c>
       <c r="E247" s="12">
         <f t="shared" si="7"/>
-        <v>-3.800276158910781E-6</v>
+        <v>3.800276158910781E-6</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="E248" s="12">
         <f t="shared" si="7"/>
-        <v>-5.1814799437165229E-2</v>
+        <v>5.1814799437165229E-2</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="E249" s="12">
         <f t="shared" si="7"/>
-        <v>-1.8300389088868362E-4</v>
+        <v>1.8300389088868362E-4</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="E250" s="12">
         <f t="shared" si="7"/>
-        <v>-1.0117462432970633E-3</v>
+        <v>1.0117462432970633E-3</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="E251" s="12">
         <f t="shared" si="7"/>
-        <v>-1.9756863127460618E-6</v>
+        <v>1.9756863127460618E-6</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -17880,7 +17880,7 @@
       </c>
       <c r="E252" s="12">
         <f t="shared" si="7"/>
-        <v>-3.8329447514100279E-9</v>
+        <v>3.8329447514100279E-9</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="E253" s="12">
         <f t="shared" si="7"/>
-        <v>-1.2058476750031992E-2</v>
+        <v>1.2058476750031992E-2</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -17948,7 +17948,7 @@
       </c>
       <c r="E254" s="12">
         <f t="shared" si="7"/>
-        <v>-8.8232601784520102E-5</v>
+        <v>8.8232601784520102E-5</v>
       </c>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="E255" s="12">
         <f t="shared" si="7"/>
-        <v>-1.223660827850967E-4</v>
+        <v>1.223660827850967E-4</v>
       </c>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -18016,7 +18016,7 @@
       </c>
       <c r="E256" s="12">
         <f t="shared" si="7"/>
-        <v>-2.1707180320586195E-4</v>
+        <v>2.1707180320586195E-4</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="E257" s="12">
         <f t="shared" si="7"/>
-        <v>-7.1118601124428131E-3</v>
+        <v>7.1118601124428131E-3</v>
       </c>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -18084,7 +18084,7 @@
       </c>
       <c r="E258" s="12">
         <f t="shared" si="7"/>
-        <v>-1.3382771148737054E-7</v>
+        <v>1.3382771148737054E-7</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -18117,8 +18117,8 @@
         <v>0.99986489456908167</v>
       </c>
       <c r="E259" s="12">
-        <f t="shared" ref="E259:E322" si="9">C259 * LOG(D259) + (1-C259) * LOG(1-D259)</f>
-        <v>-5.8679507172305738E-5</v>
+        <f t="shared" ref="E259:E322" si="9">-(C259 * LOG(D259) + (1-C259) * LOG(1-D259))</f>
+        <v>5.8679507172305738E-5</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -18152,7 +18152,7 @@
       </c>
       <c r="E260" s="12">
         <f t="shared" si="9"/>
-        <v>-7.8689280506390462E-4</v>
+        <v>7.8689280506390462E-4</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="E261" s="12">
         <f t="shared" si="9"/>
-        <v>-1.3267269827732168E-3</v>
+        <v>1.3267269827732168E-3</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -18220,7 +18220,7 @@
       </c>
       <c r="E262" s="12">
         <f t="shared" si="9"/>
-        <v>-7.6735883033966681E-4</v>
+        <v>7.6735883033966681E-4</v>
       </c>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="E263" s="12">
         <f t="shared" si="9"/>
-        <v>-8.566525457250475E-7</v>
+        <v>8.566525457250475E-7</v>
       </c>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="E264" s="12">
         <f t="shared" si="9"/>
-        <v>-2.637371179494154E-5</v>
+        <v>2.637371179494154E-5</v>
       </c>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -18322,7 +18322,7 @@
       </c>
       <c r="E265" s="12">
         <f t="shared" si="9"/>
-        <v>-9.401105504976148E-6</v>
+        <v>9.401105504976148E-6</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="E266" s="12">
         <f t="shared" si="9"/>
-        <v>-7.4431257092344048E-4</v>
+        <v>7.4431257092344048E-4</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -18390,7 +18390,7 @@
       </c>
       <c r="E267" s="12">
         <f t="shared" si="9"/>
-        <v>-2.5886328638489721E-4</v>
+        <v>2.5886328638489721E-4</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="E268" s="12">
         <f t="shared" si="9"/>
-        <v>-1.073263879348306E-4</v>
+        <v>1.073263879348306E-4</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -18458,7 +18458,7 @@
       </c>
       <c r="E269" s="12">
         <f t="shared" si="9"/>
-        <v>-1.7195682165079684E-5</v>
+        <v>1.7195682165079684E-5</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="E270" s="12">
         <f t="shared" si="9"/>
-        <v>-4.446685688323339E-3</v>
+        <v>4.446685688323339E-3</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="E271" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2799238275490015E-4</v>
+        <v>1.2799238275490015E-4</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -18560,7 +18560,7 @@
       </c>
       <c r="E272" s="12">
         <f t="shared" si="9"/>
-        <v>-3.7066192785917093E-2</v>
+        <v>3.7066192785917093E-2</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -18594,7 +18594,7 @@
       </c>
       <c r="E273" s="12">
         <f t="shared" si="9"/>
-        <v>-1.4786300191035955E-5</v>
+        <v>1.4786300191035955E-5</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -18628,7 +18628,7 @@
       </c>
       <c r="E274" s="12">
         <f t="shared" si="9"/>
-        <v>-1.6068508387602053E-6</v>
+        <v>1.6068508387602053E-6</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="E275" s="12">
         <f t="shared" si="9"/>
-        <v>-3.4430450295013827E-3</v>
+        <v>3.4430450295013827E-3</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="E276" s="12">
         <f t="shared" si="9"/>
-        <v>-3.2081552524759405E-5</v>
+        <v>3.2081552524759405E-5</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -18730,7 +18730,7 @@
       </c>
       <c r="E277" s="12">
         <f t="shared" si="9"/>
-        <v>-3.700995374589501E-4</v>
+        <v>3.700995374589501E-4</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -18764,7 +18764,7 @@
       </c>
       <c r="E278" s="12">
         <f t="shared" si="9"/>
-        <v>-4.759201744011345E-4</v>
+        <v>4.759201744011345E-4</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -18798,7 +18798,7 @@
       </c>
       <c r="E279" s="12">
         <f t="shared" si="9"/>
-        <v>-5.3968018742223589E-4</v>
+        <v>5.3968018742223589E-4</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="E280" s="12">
         <f t="shared" si="9"/>
-        <v>-4.6749374596507017E-3</v>
+        <v>4.6749374596507017E-3</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -18866,7 +18866,7 @@
       </c>
       <c r="E281" s="12">
         <f t="shared" si="9"/>
-        <v>-0.30711744933248014</v>
+        <v>0.30711744933248014</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -18900,7 +18900,7 @@
       </c>
       <c r="E282" s="12">
         <f t="shared" si="9"/>
-        <v>-9.9524468524272484E-5</v>
+        <v>9.9524468524272484E-5</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -18934,7 +18934,7 @@
       </c>
       <c r="E283" s="12">
         <f t="shared" si="9"/>
-        <v>-9.5909554840906235E-3</v>
+        <v>9.5909554840906235E-3</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -18968,7 +18968,7 @@
       </c>
       <c r="E284" s="12">
         <f t="shared" si="9"/>
-        <v>-9.1251895866345696E-3</v>
+        <v>9.1251895866345696E-3</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="E285" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2617124454372475E-3</v>
+        <v>1.2617124454372475E-3</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="E286" s="12">
         <f t="shared" si="9"/>
-        <v>-1.1763873353547343E-3</v>
+        <v>1.1763873353547343E-3</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="E287" s="12">
         <f t="shared" si="9"/>
-        <v>-7.5155764632110576E-3</v>
+        <v>7.5155764632110576E-3</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -19104,7 +19104,7 @@
       </c>
       <c r="E288" s="12">
         <f t="shared" si="9"/>
-        <v>-8.2746375741145394E-4</v>
+        <v>8.2746375741145394E-4</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -19138,7 +19138,7 @@
       </c>
       <c r="E289" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2881365378306976E-6</v>
+        <v>1.2881365378306976E-6</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -19172,7 +19172,7 @@
       </c>
       <c r="E290" s="12">
         <f t="shared" si="9"/>
-        <v>-5.6448180930062004E-4</v>
+        <v>5.6448180930062004E-4</v>
       </c>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -19206,7 +19206,7 @@
       </c>
       <c r="E291" s="12">
         <f t="shared" si="9"/>
-        <v>-1.7769813730889247E-6</v>
+        <v>1.7769813730889247E-6</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -19240,7 +19240,7 @@
       </c>
       <c r="E292" s="12">
         <f t="shared" si="9"/>
-        <v>-8.7176357899339312E-6</v>
+        <v>8.7176357899339312E-6</v>
       </c>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -19274,7 +19274,7 @@
       </c>
       <c r="E293" s="12">
         <f t="shared" si="9"/>
-        <v>-2.0237554605159817E-4</v>
+        <v>2.0237554605159817E-4</v>
       </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -19308,7 +19308,7 @@
       </c>
       <c r="E294" s="12">
         <f t="shared" si="9"/>
-        <v>-2.638798315895553E-2</v>
+        <v>2.638798315895553E-2</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -19342,7 +19342,7 @@
       </c>
       <c r="E295" s="12">
         <f t="shared" si="9"/>
-        <v>-1.5817648335751031E-3</v>
+        <v>1.5817648335751031E-3</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="E296" s="12">
         <f t="shared" si="9"/>
-        <v>-1.085144605104033E-3</v>
+        <v>1.085144605104033E-3</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="E297" s="12">
         <f t="shared" si="9"/>
-        <v>-1.3985513043559576E-5</v>
+        <v>1.3985513043559576E-5</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -19444,7 +19444,7 @@
       </c>
       <c r="E298" s="12">
         <f t="shared" si="9"/>
-        <v>-4.9411184875715927E-2</v>
+        <v>4.9411184875715927E-2</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -19478,7 +19478,7 @@
       </c>
       <c r="E299" s="12">
         <f t="shared" si="9"/>
-        <v>-1.8202581914108549E-4</v>
+        <v>1.8202581914108549E-4</v>
       </c>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -19512,7 +19512,7 @@
       </c>
       <c r="E300" s="12">
         <f t="shared" si="9"/>
-        <v>-3.9095779380188725E-2</v>
+        <v>3.9095779380188725E-2</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -19546,7 +19546,7 @@
       </c>
       <c r="E301" s="12">
         <f t="shared" si="9"/>
-        <v>-2.0332207022594191E-3</v>
+        <v>2.0332207022594191E-3</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -19580,7 +19580,7 @@
       </c>
       <c r="E302" s="12">
         <f t="shared" si="9"/>
-        <v>-5.9712738140585159E-3</v>
+        <v>5.9712738140585159E-3</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -19614,7 +19614,7 @@
       </c>
       <c r="E303" s="12">
         <f t="shared" si="9"/>
-        <v>-4.0982227103897677E-6</v>
+        <v>4.0982227103897677E-6</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -19648,7 +19648,7 @@
       </c>
       <c r="E304" s="12">
         <f t="shared" si="9"/>
-        <v>-8.5132652460593317E-3</v>
+        <v>8.5132652460593317E-3</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="E305" s="12">
         <f t="shared" si="9"/>
-        <v>-1.0216274923956712E-6</v>
+        <v>1.0216274923956712E-6</v>
       </c>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="E306" s="12">
         <f t="shared" si="9"/>
-        <v>-8.6818172835163108E-3</v>
+        <v>8.6818172835163108E-3</v>
       </c>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="E307" s="12">
         <f t="shared" si="9"/>
-        <v>-2.1450188155855896E-5</v>
+        <v>2.1450188155855896E-5</v>
       </c>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -19784,7 +19784,7 @@
       </c>
       <c r="E308" s="12">
         <f t="shared" si="9"/>
-        <v>-5.3346944007502858E-5</v>
+        <v>5.3346944007502858E-5</v>
       </c>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -19818,7 +19818,7 @@
       </c>
       <c r="E309" s="12">
         <f t="shared" si="9"/>
-        <v>-5.5694921088696638E-3</v>
+        <v>5.5694921088696638E-3</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -19852,7 +19852,7 @@
       </c>
       <c r="E310" s="12">
         <f t="shared" si="9"/>
-        <v>-2.4133843637791087E-4</v>
+        <v>2.4133843637791087E-4</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -19886,7 +19886,7 @@
       </c>
       <c r="E311" s="12">
         <f t="shared" si="9"/>
-        <v>-2.267837898893557E-5</v>
+        <v>2.267837898893557E-5</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -19920,7 +19920,7 @@
       </c>
       <c r="E312" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2714505087051494E-5</v>
+        <v>1.2714505087051494E-5</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -19954,7 +19954,7 @@
       </c>
       <c r="E313" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2304081450266523E-3</v>
+        <v>1.2304081450266523E-3</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -19988,7 +19988,7 @@
       </c>
       <c r="E314" s="12">
         <f t="shared" si="9"/>
-        <v>-1.2548342035397154E-4</v>
+        <v>1.2548342035397154E-4</v>
       </c>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
@@ -20022,7 +20022,7 @@
       </c>
       <c r="E315" s="12">
         <f t="shared" si="9"/>
-        <v>-4.2310251157592567E-5</v>
+        <v>4.2310251157592567E-5</v>
       </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="E316" s="12">
         <f t="shared" si="9"/>
-        <v>-1.893189528122053E-7</v>
+        <v>1.893189528122053E-7</v>
       </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -20090,7 +20090,7 @@
       </c>
       <c r="E317" s="12">
         <f t="shared" si="9"/>
-        <v>-1.170107231585145E-3</v>
+        <v>1.170107231585145E-3</v>
       </c>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
@@ -20124,7 +20124,7 @@
       </c>
       <c r="E318" s="12">
         <f t="shared" si="9"/>
-        <v>-0.22282060852895352</v>
+        <v>0.22282060852895352</v>
       </c>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -20158,7 +20158,7 @@
       </c>
       <c r="E319" s="12">
         <f t="shared" si="9"/>
-        <v>-0.147104921390561</v>
+        <v>0.147104921390561</v>
       </c>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
@@ -20192,7 +20192,7 @@
       </c>
       <c r="E320" s="12">
         <f t="shared" si="9"/>
-        <v>-2.025957386763489E-2</v>
+        <v>2.025957386763489E-2</v>
       </c>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
@@ -20226,7 +20226,7 @@
       </c>
       <c r="E321" s="12">
         <f t="shared" si="9"/>
-        <v>-6.767208863960887E-4</v>
+        <v>6.767208863960887E-4</v>
       </c>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -20260,7 +20260,7 @@
       </c>
       <c r="E322" s="12">
         <f t="shared" si="9"/>
-        <v>-1.0373102322782612</v>
+        <v>1.0373102322782612</v>
       </c>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -20293,8 +20293,8 @@
         <v>2.446713187398664E-3</v>
       </c>
       <c r="E323" s="12">
-        <f t="shared" ref="E323:E386" si="11">C323 * LOG(D323) + (1-C323) * LOG(1-D323)</f>
-        <v>-1.063896091779109E-3</v>
+        <f t="shared" ref="E323:E386" si="11">-(C323 * LOG(D323) + (1-C323) * LOG(1-D323))</f>
+        <v>1.063896091779109E-3</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="E324" s="12">
         <f t="shared" si="11"/>
-        <v>-0.10649818691137125</v>
+        <v>0.10649818691137125</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -20362,7 +20362,7 @@
       </c>
       <c r="E325" s="12">
         <f t="shared" si="11"/>
-        <v>-2.7915207633674071E-4</v>
+        <v>2.7915207633674071E-4</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -20396,7 +20396,7 @@
       </c>
       <c r="E326" s="12">
         <f t="shared" si="11"/>
-        <v>-1.453008798345516E-6</v>
+        <v>1.453008798345516E-6</v>
       </c>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="E327" s="12">
         <f t="shared" si="11"/>
-        <v>-2.3561652421597431E-6</v>
+        <v>2.3561652421597431E-6</v>
       </c>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
@@ -20464,7 +20464,7 @@
       </c>
       <c r="E328" s="12">
         <f t="shared" si="11"/>
-        <v>-3.0869776462527881E-4</v>
+        <v>3.0869776462527881E-4</v>
       </c>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
@@ -20498,7 +20498,7 @@
       </c>
       <c r="E329" s="12">
         <f t="shared" si="11"/>
-        <v>-1.1127578132055283E-3</v>
+        <v>1.1127578132055283E-3</v>
       </c>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="E330" s="12">
         <f t="shared" si="11"/>
-        <v>-8.6547763116407242E-4</v>
+        <v>8.6547763116407242E-4</v>
       </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="E331" s="12">
         <f t="shared" si="11"/>
-        <v>-1.9244618239751737E-4</v>
+        <v>1.9244618239751737E-4</v>
       </c>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
@@ -20600,7 +20600,7 @@
       </c>
       <c r="E332" s="12">
         <f t="shared" si="11"/>
-        <v>-5.758416609553351E-7</v>
+        <v>5.758416609553351E-7</v>
       </c>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
@@ -20634,7 +20634,7 @@
       </c>
       <c r="E333" s="12">
         <f t="shared" si="11"/>
-        <v>-1.7555514140912136E-7</v>
+        <v>1.7555514140912136E-7</v>
       </c>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
@@ -20668,7 +20668,7 @@
       </c>
       <c r="E334" s="12">
         <f t="shared" si="11"/>
-        <v>-6.1223495597293029E-3</v>
+        <v>6.1223495597293029E-3</v>
       </c>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="E335" s="12">
         <f t="shared" si="11"/>
-        <v>-1.705534620229263E-3</v>
+        <v>1.705534620229263E-3</v>
       </c>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="E336" s="12">
         <f t="shared" si="11"/>
-        <v>-0.11134513422730127</v>
+        <v>0.11134513422730127</v>
       </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="E337" s="12">
         <f t="shared" si="11"/>
-        <v>-3.5239906526079224E-6</v>
+        <v>3.5239906526079224E-6</v>
       </c>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
@@ -20804,7 +20804,7 @@
       </c>
       <c r="E338" s="12">
         <f t="shared" si="11"/>
-        <v>-4.3897948305219534E-4</v>
+        <v>4.3897948305219534E-4</v>
       </c>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
@@ -20838,7 +20838,7 @@
       </c>
       <c r="E339" s="12">
         <f t="shared" si="11"/>
-        <v>-3.1035623429859563E-4</v>
+        <v>3.1035623429859563E-4</v>
       </c>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
@@ -20872,7 +20872,7 @@
       </c>
       <c r="E340" s="12">
         <f t="shared" si="11"/>
-        <v>-5.3679702237430292E-4</v>
+        <v>5.3679702237430292E-4</v>
       </c>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="E341" s="12">
         <f t="shared" si="11"/>
-        <v>-1.1863235878842489</v>
+        <v>1.1863235878842489</v>
       </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="E342" s="12">
         <f t="shared" si="11"/>
-        <v>-5.8549909608360731E-3</v>
+        <v>5.8549909608360731E-3</v>
       </c>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
@@ -20974,7 +20974,7 @@
       </c>
       <c r="E343" s="12">
         <f t="shared" si="11"/>
-        <v>-3.9025356521216891E-3</v>
+        <v>3.9025356521216891E-3</v>
       </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
@@ -21008,7 +21008,7 @@
       </c>
       <c r="E344" s="12">
         <f t="shared" si="11"/>
-        <v>-1.2868016190221296E-4</v>
+        <v>1.2868016190221296E-4</v>
       </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
@@ -21042,7 +21042,7 @@
       </c>
       <c r="E345" s="12">
         <f t="shared" si="11"/>
-        <v>-3.7066192785917093E-2</v>
+        <v>3.7066192785917093E-2</v>
       </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
@@ -21076,7 +21076,7 @@
       </c>
       <c r="E346" s="12">
         <f t="shared" si="11"/>
-        <v>-1.6137523684851476E-4</v>
+        <v>1.6137523684851476E-4</v>
       </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
@@ -21110,7 +21110,7 @@
       </c>
       <c r="E347" s="12">
         <f t="shared" si="11"/>
-        <v>-2.6795164264120049E-3</v>
+        <v>2.6795164264120049E-3</v>
       </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="E348" s="12">
         <f t="shared" si="11"/>
-        <v>-1.7819567506002817E-2</v>
+        <v>1.7819567506002817E-2</v>
       </c>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
@@ -21178,7 +21178,7 @@
       </c>
       <c r="E349" s="12">
         <f t="shared" si="11"/>
-        <v>-2.474857910938768E-4</v>
+        <v>2.474857910938768E-4</v>
       </c>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
@@ -21212,7 +21212,7 @@
       </c>
       <c r="E350" s="12">
         <f t="shared" si="11"/>
-        <v>-1.0466006436597633E-4</v>
+        <v>1.0466006436597633E-4</v>
       </c>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="E351" s="12">
         <f t="shared" si="11"/>
-        <v>-5.2077222482964786E-2</v>
+        <v>5.2077222482964786E-2</v>
       </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
@@ -21280,7 +21280,7 @@
       </c>
       <c r="E352" s="12">
         <f t="shared" si="11"/>
-        <v>-3.1936477465369126E-3</v>
+        <v>3.1936477465369126E-3</v>
       </c>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -21314,7 +21314,7 @@
       </c>
       <c r="E353" s="12">
         <f t="shared" si="11"/>
-        <v>-2.1279909211686598E-2</v>
+        <v>2.1279909211686598E-2</v>
       </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
@@ -21348,7 +21348,7 @@
       </c>
       <c r="E354" s="12">
         <f t="shared" si="11"/>
-        <v>-3.2707138393315859E-8</v>
+        <v>3.2707138393315859E-8</v>
       </c>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -21382,7 +21382,7 @@
       </c>
       <c r="E355" s="12">
         <f t="shared" si="11"/>
-        <v>-4.2807791753075348E-4</v>
+        <v>4.2807791753075348E-4</v>
       </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
@@ -21416,7 +21416,7 @@
       </c>
       <c r="E356" s="12">
         <f t="shared" si="11"/>
-        <v>-4.2310251157592567E-5</v>
+        <v>4.2310251157592567E-5</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
@@ -21450,7 +21450,7 @@
       </c>
       <c r="E357" s="12">
         <f t="shared" si="11"/>
-        <v>-4.5321339304164626E-6</v>
+        <v>4.5321339304164626E-6</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -21484,7 +21484,7 @@
       </c>
       <c r="E358" s="12">
         <f t="shared" si="11"/>
-        <v>-4.1249342030810782E-3</v>
+        <v>4.1249342030810782E-3</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
@@ -21518,7 +21518,7 @@
       </c>
       <c r="E359" s="12">
         <f t="shared" si="11"/>
-        <v>-4.3367525517278337E-3</v>
+        <v>4.3367525517278337E-3</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
@@ -21552,7 +21552,7 @@
       </c>
       <c r="E360" s="12">
         <f t="shared" si="11"/>
-        <v>-3.7952525256748231E-4</v>
+        <v>3.7952525256748231E-4</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
@@ -21586,7 +21586,7 @@
       </c>
       <c r="E361" s="12">
         <f t="shared" si="11"/>
-        <v>-1.4267325608014605E-2</v>
+        <v>1.4267325608014605E-2</v>
       </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="E362" s="12">
         <f t="shared" si="11"/>
-        <v>-0.12647250316069911</v>
+        <v>0.12647250316069911</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -21654,7 +21654,7 @@
       </c>
       <c r="E363" s="12">
         <f t="shared" si="11"/>
-        <v>-2.6795164264120049E-3</v>
+        <v>2.6795164264120049E-3</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="E364" s="12">
         <f t="shared" si="11"/>
-        <v>-2.1707180320586195E-4</v>
+        <v>2.1707180320586195E-4</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
@@ -21722,7 +21722,7 @@
       </c>
       <c r="E365" s="12">
         <f t="shared" si="11"/>
-        <v>-3.5304153940524884E-3</v>
+        <v>3.5304153940524884E-3</v>
       </c>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
@@ -21756,7 +21756,7 @@
       </c>
       <c r="E366" s="12">
         <f t="shared" si="11"/>
-        <v>-3.2081552524759405E-5</v>
+        <v>3.2081552524759405E-5</v>
       </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
@@ -21790,7 +21790,7 @@
       </c>
       <c r="E367" s="12">
         <f t="shared" si="11"/>
-        <v>-4.2807791753075348E-4</v>
+        <v>4.2807791753075348E-4</v>
       </c>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
@@ -21824,7 +21824,7 @@
       </c>
       <c r="E368" s="12">
         <f t="shared" si="11"/>
-        <v>-4.3998403167525436E-8</v>
+        <v>4.3998403167525436E-8</v>
       </c>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
@@ -21858,7 +21858,7 @@
       </c>
       <c r="E369" s="12">
         <f t="shared" si="11"/>
-        <v>-0.30593889892420656</v>
+        <v>0.30593889892420656</v>
       </c>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
@@ -21892,7 +21892,7 @@
       </c>
       <c r="E370" s="12">
         <f t="shared" si="11"/>
-        <v>-2.637371179494154E-5</v>
+        <v>2.637371179494154E-5</v>
       </c>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="E371" s="12">
         <f t="shared" si="11"/>
-        <v>-2.8173521324801796E-3</v>
+        <v>2.8173521324801796E-3</v>
       </c>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="E372" s="12">
         <f t="shared" si="11"/>
-        <v>-2.2785744140712577E-2</v>
+        <v>2.2785744140712577E-2</v>
       </c>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="E373" s="12">
         <f t="shared" si="11"/>
-        <v>-1.705131878121928E-2</v>
+        <v>1.705131878121928E-2</v>
       </c>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
@@ -22028,7 +22028,7 @@
       </c>
       <c r="E374" s="12">
         <f t="shared" si="11"/>
-        <v>-4.6476083872157903E-6</v>
+        <v>4.6476083872157903E-6</v>
       </c>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="E375" s="12">
         <f t="shared" si="11"/>
-        <v>-2.4985856992681757E-3</v>
+        <v>2.4985856992681757E-3</v>
       </c>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
@@ -22096,7 +22096,7 @@
       </c>
       <c r="E376" s="12">
         <f t="shared" si="11"/>
-        <v>-0.52454062875594187</v>
+        <v>0.52454062875594187</v>
       </c>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
@@ -22130,7 +22130,7 @@
       </c>
       <c r="E377" s="12">
         <f t="shared" si="11"/>
-        <v>-2.1450188155855896E-5</v>
+        <v>2.1450188155855896E-5</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="E378" s="12">
         <f t="shared" si="11"/>
-        <v>-1.8766567341973442E-4</v>
+        <v>1.8766567341973442E-4</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -22198,7 +22198,7 @@
       </c>
       <c r="E379" s="12">
         <f t="shared" si="11"/>
-        <v>-1.9244618239751737E-4</v>
+        <v>1.9244618239751737E-4</v>
       </c>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="E380" s="12">
         <f t="shared" si="11"/>
-        <v>-1.3007550588426009E-3</v>
+        <v>1.3007550588426009E-3</v>
       </c>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="E381" s="12">
         <f t="shared" si="11"/>
-        <v>-2.3534373580645098E-4</v>
+        <v>2.3534373580645098E-4</v>
       </c>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
@@ -22300,7 +22300,7 @@
       </c>
       <c r="E382" s="12">
         <f t="shared" si="11"/>
-        <v>-1.3577986900972441E-2</v>
+        <v>1.3577986900972441E-2</v>
       </c>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="E383" s="12">
         <f t="shared" si="11"/>
-        <v>-5.9051362667463579E-7</v>
+        <v>5.9051362667463579E-7</v>
       </c>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="E384" s="12">
         <f t="shared" si="11"/>
-        <v>-2.2039789405052597E-3</v>
+        <v>2.2039789405052597E-3</v>
       </c>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
@@ -22402,7 +22402,7 @@
       </c>
       <c r="E385" s="12">
         <f t="shared" si="11"/>
-        <v>-4.7405475928567785E-6</v>
+        <v>4.7405475928567785E-6</v>
       </c>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
@@ -22436,7 +22436,7 @@
       </c>
       <c r="E386" s="12">
         <f t="shared" si="11"/>
-        <v>-2.3131873716954966E-5</v>
+        <v>2.3131873716954966E-5</v>
       </c>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
@@ -22469,8 +22469,8 @@
         <v>7.0068188553412134E-3</v>
       </c>
       <c r="E387" s="12">
-        <f t="shared" ref="E387:E450" si="13">C387 * LOG(D387) + (1-C387) * LOG(1-D387)</f>
-        <v>-3.0537337819758026E-3</v>
+        <f t="shared" ref="E387:E450" si="13">-(C387 * LOG(D387) + (1-C387) * LOG(1-D387))</f>
+        <v>3.0537337819758026E-3</v>
       </c>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
@@ -22504,7 +22504,7 @@
       </c>
       <c r="E388" s="12">
         <f t="shared" si="13"/>
-        <v>-1.7582831543565564E-3</v>
+        <v>1.7582831543565564E-3</v>
       </c>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
@@ -22538,7 +22538,7 @@
       </c>
       <c r="E389" s="12">
         <f t="shared" si="13"/>
-        <v>-1.0790313020395134E-4</v>
+        <v>1.0790313020395134E-4</v>
       </c>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
@@ -22572,7 +22572,7 @@
       </c>
       <c r="E390" s="12">
         <f t="shared" si="13"/>
-        <v>-2.9622540273076259E-3</v>
+        <v>2.9622540273076259E-3</v>
       </c>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="E391" s="12">
         <f t="shared" si="13"/>
-        <v>-8.2529292995074174E-8</v>
+        <v>8.2529292995074174E-8</v>
       </c>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
@@ -22640,7 +22640,7 @@
       </c>
       <c r="E392" s="12">
         <f t="shared" si="13"/>
-        <v>-1.7633805221434319E-5</v>
+        <v>1.7633805221434319E-5</v>
       </c>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
@@ -22674,7 +22674,7 @@
       </c>
       <c r="E393" s="12">
         <f t="shared" si="13"/>
-        <v>-6.6100452703809526E-6</v>
+        <v>6.6100452703809526E-6</v>
       </c>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="E394" s="12">
         <f t="shared" si="13"/>
-        <v>-3.5304153940524884E-3</v>
+        <v>3.5304153940524884E-3</v>
       </c>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="E395" s="12">
         <f t="shared" si="13"/>
-        <v>-1.0271181110112023E-6</v>
+        <v>1.0271181110112023E-6</v>
       </c>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="E396" s="12">
         <f t="shared" si="13"/>
-        <v>-7.4431257092344048E-4</v>
+        <v>7.4431257092344048E-4</v>
       </c>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
@@ -22810,7 +22810,7 @@
       </c>
       <c r="E397" s="12">
         <f t="shared" si="13"/>
-        <v>-1.8083090836816103E-5</v>
+        <v>1.8083090836816103E-5</v>
       </c>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
@@ -22844,7 +22844,7 @@
       </c>
       <c r="E398" s="12">
         <f t="shared" si="13"/>
-        <v>-5.4097789712851495E-8</v>
+        <v>5.4097789712851495E-8</v>
       </c>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
@@ -22878,7 +22878,7 @@
       </c>
       <c r="E399" s="12">
         <f t="shared" si="13"/>
-        <v>-6.6967506738949783E-7</v>
+        <v>6.6967506738949783E-7</v>
       </c>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
@@ -22912,7 +22912,7 @@
       </c>
       <c r="E400" s="12">
         <f t="shared" si="13"/>
-        <v>-2.7948959953992902E-6</v>
+        <v>2.7948959953992902E-6</v>
       </c>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
@@ -22946,7 +22946,7 @@
       </c>
       <c r="E401" s="12">
         <f t="shared" si="13"/>
-        <v>-8.06923577091191E-4</v>
+        <v>8.06923577091191E-4</v>
       </c>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
@@ -22980,7 +22980,7 @@
       </c>
       <c r="E402" s="12">
         <f t="shared" si="13"/>
-        <v>-1.1435756099309525E-5</v>
+        <v>1.1435756099309525E-5</v>
       </c>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
@@ -23014,7 +23014,7 @@
       </c>
       <c r="E403" s="12">
         <f t="shared" si="13"/>
-        <v>-4.5351447964495171E-3</v>
+        <v>4.5351447964495171E-3</v>
       </c>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
@@ -23048,7 +23048,7 @@
       </c>
       <c r="E404" s="12">
         <f t="shared" si="13"/>
-        <v>-3.7309021430342836E-5</v>
+        <v>3.7309021430342836E-5</v>
       </c>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="E405" s="12">
         <f t="shared" si="13"/>
-        <v>-1.5070246949216994E-2</v>
+        <v>1.5070246949216994E-2</v>
       </c>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
@@ -23116,7 +23116,7 @@
       </c>
       <c r="E406" s="12">
         <f t="shared" si="13"/>
-        <v>-6.4353545565069684E-4</v>
+        <v>6.4353545565069684E-4</v>
       </c>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
@@ -23150,7 +23150,7 @@
       </c>
       <c r="E407" s="12">
         <f t="shared" si="13"/>
-        <v>-7.4431257092344048E-4</v>
+        <v>7.4431257092344048E-4</v>
       </c>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
@@ -23184,7 +23184,7 @@
       </c>
       <c r="E408" s="12">
         <f t="shared" si="13"/>
-        <v>-1.176289091777827E-2</v>
+        <v>1.176289091777827E-2</v>
       </c>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
@@ -23218,7 +23218,7 @@
       </c>
       <c r="E409" s="12">
         <f t="shared" si="13"/>
-        <v>-3.0103047893742247E-4</v>
+        <v>3.0103047893742247E-4</v>
       </c>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
@@ -23252,7 +23252,7 @@
       </c>
       <c r="E410" s="12">
         <f t="shared" si="13"/>
-        <v>-1.4592752622421596E-4</v>
+        <v>1.4592752622421596E-4</v>
       </c>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="E411" s="12">
         <f t="shared" si="13"/>
-        <v>-4.733774525897191E-4</v>
+        <v>4.733774525897191E-4</v>
       </c>
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="E412" s="12">
         <f t="shared" si="13"/>
-        <v>-4.7113121430063132E-2</v>
+        <v>4.7113121430063132E-2</v>
       </c>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
@@ -23354,7 +23354,7 @@
       </c>
       <c r="E413" s="12">
         <f t="shared" si="13"/>
-        <v>-2.0776464127932256E-6</v>
+        <v>2.0776464127932256E-6</v>
       </c>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="E414" s="12">
         <f t="shared" si="13"/>
-        <v>-3.3015957754457835E-2</v>
+        <v>3.3015957754457835E-2</v>
       </c>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
@@ -23422,7 +23422,7 @@
       </c>
       <c r="E415" s="12">
         <f t="shared" si="13"/>
-        <v>-5.8994852339331328E-5</v>
+        <v>5.8994852339331328E-5</v>
       </c>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
@@ -23456,7 +23456,7 @@
       </c>
       <c r="E416" s="12">
         <f t="shared" si="13"/>
-        <v>-8.3037527626410538E-3</v>
+        <v>8.3037527626410538E-3</v>
       </c>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
@@ -23490,7 +23490,7 @@
       </c>
       <c r="E417" s="12">
         <f t="shared" si="13"/>
-        <v>-1.9244618239751737E-4</v>
+        <v>1.9244618239751737E-4</v>
       </c>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="E418" s="12">
         <f t="shared" si="13"/>
-        <v>-1.3209571558764111E-6</v>
+        <v>1.3209571558764111E-6</v>
       </c>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
@@ -23558,7 +23558,7 @@
       </c>
       <c r="E419" s="12">
         <f t="shared" si="13"/>
-        <v>-3.5304153940524884E-3</v>
+        <v>3.5304153940524884E-3</v>
       </c>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
@@ -23592,7 +23592,7 @@
       </c>
       <c r="E420" s="12">
         <f t="shared" si="13"/>
-        <v>-1.8958350081318203E-3</v>
+        <v>1.8958350081318203E-3</v>
       </c>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="E421" s="12">
         <f t="shared" si="13"/>
-        <v>-6.5747104777090823E-6</v>
+        <v>6.5747104777090823E-6</v>
       </c>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
@@ -23660,7 +23660,7 @@
       </c>
       <c r="E422" s="12">
         <f t="shared" si="13"/>
-        <v>-9.8663680212196384E-4</v>
+        <v>9.8663680212196384E-4</v>
       </c>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
@@ -23694,7 +23694,7 @@
       </c>
       <c r="E423" s="12">
         <f t="shared" si="13"/>
-        <v>-4.5670280671851134E-7</v>
+        <v>4.5670280671851134E-7</v>
       </c>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
@@ -23728,7 +23728,7 @@
       </c>
       <c r="E424" s="12">
         <f t="shared" si="13"/>
-        <v>-7.1762029023909031E-5</v>
+        <v>7.1762029023909031E-5</v>
       </c>
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="E425" s="12">
         <f t="shared" si="13"/>
-        <v>-3.1452949148463638E-2</v>
+        <v>3.1452949148463638E-2</v>
       </c>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="E426" s="12">
         <f t="shared" si="13"/>
-        <v>-1.0860723211981588E-2</v>
+        <v>1.0860723211981588E-2</v>
       </c>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
@@ -23830,7 +23830,7 @@
       </c>
       <c r="E427" s="12">
         <f t="shared" si="13"/>
-        <v>-6.3619807899117074E-5</v>
+        <v>6.3619807899117074E-5</v>
       </c>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
@@ -23864,7 +23864,7 @@
       </c>
       <c r="E428" s="12">
         <f t="shared" si="13"/>
-        <v>-8.0478760089523658E-8</v>
+        <v>8.0478760089523658E-8</v>
       </c>
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
@@ -23898,7 +23898,7 @@
       </c>
       <c r="E429" s="12">
         <f t="shared" si="13"/>
-        <v>-2.1168881810715093E-2</v>
+        <v>2.1168881810715093E-2</v>
       </c>
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
@@ -23932,7 +23932,7 @@
       </c>
       <c r="E430" s="12">
         <f t="shared" si="13"/>
-        <v>-1.2617124454372475E-3</v>
+        <v>1.2617124454372475E-3</v>
       </c>
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
@@ -23966,7 +23966,7 @@
       </c>
       <c r="E431" s="12">
         <f t="shared" si="13"/>
-        <v>-1.6154866665606034E-6</v>
+        <v>1.6154866665606034E-6</v>
       </c>
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
@@ -24000,7 +24000,7 @@
       </c>
       <c r="E432" s="12">
         <f t="shared" si="13"/>
-        <v>-1.2561313825905527E-6</v>
+        <v>1.2561313825905527E-6</v>
       </c>
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
@@ -24034,7 +24034,7 @@
       </c>
       <c r="E433" s="12">
         <f t="shared" si="13"/>
-        <v>-1.9186224685581264E-2</v>
+        <v>1.9186224685581264E-2</v>
       </c>
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
@@ -24068,7 +24068,7 @@
       </c>
       <c r="E434" s="12">
         <f t="shared" si="13"/>
-        <v>-9.8663680212196384E-4</v>
+        <v>9.8663680212196384E-4</v>
       </c>
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
@@ -24102,7 +24102,7 @@
       </c>
       <c r="E435" s="12">
         <f t="shared" si="13"/>
-        <v>-1.5753481555881196E-6</v>
+        <v>1.5753481555881196E-6</v>
       </c>
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
@@ -24136,7 +24136,7 @@
       </c>
       <c r="E436" s="12">
         <f t="shared" si="13"/>
-        <v>-6.017450956271558E-5</v>
+        <v>6.017450956271558E-5</v>
       </c>
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="E437" s="12">
         <f t="shared" si="13"/>
-        <v>-3.0264777069478221E-4</v>
+        <v>3.0264777069478221E-4</v>
       </c>
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
@@ -24204,7 +24204,7 @@
       </c>
       <c r="E438" s="12">
         <f t="shared" si="13"/>
-        <v>-8.2304460556424858E-4</v>
+        <v>8.2304460556424858E-4</v>
       </c>
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
@@ -24238,7 +24238,7 @@
       </c>
       <c r="E439" s="12">
         <f t="shared" si="13"/>
-        <v>-5.0505776564138197E-7</v>
+        <v>5.0505776564138197E-7</v>
       </c>
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
@@ -24272,7 +24272,7 @@
       </c>
       <c r="E440" s="12">
         <f t="shared" si="13"/>
-        <v>-2.4456351473876964E-5</v>
+        <v>2.4456351473876964E-5</v>
       </c>
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="E441" s="12">
         <f t="shared" si="13"/>
-        <v>-5.5046550827968373E-4</v>
+        <v>5.5046550827968373E-4</v>
       </c>
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
@@ -24340,7 +24340,7 @@
       </c>
       <c r="E442" s="12">
         <f t="shared" si="13"/>
-        <v>-1.5345715897237855E-4</v>
+        <v>1.5345715897237855E-4</v>
       </c>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
@@ -24374,7 +24374,7 @@
       </c>
       <c r="E443" s="12">
         <f t="shared" si="13"/>
-        <v>-1.36380326931707E-5</v>
+        <v>1.36380326931707E-5</v>
       </c>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
@@ -24408,7 +24408,7 @@
       </c>
       <c r="E444" s="12">
         <f t="shared" si="13"/>
-        <v>-4.7679123650059439E-3</v>
+        <v>4.7679123650059439E-3</v>
       </c>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
@@ -24442,7 +24442,7 @@
       </c>
       <c r="E445" s="12">
         <f t="shared" si="13"/>
-        <v>-7.9317280285190667E-2</v>
+        <v>7.9317280285190667E-2</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="E446" s="12">
         <f t="shared" si="13"/>
-        <v>-4.0229187730361554E-3</v>
+        <v>4.0229187730361554E-3</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
@@ -24510,7 +24510,7 @@
       </c>
       <c r="E447" s="12">
         <f t="shared" si="13"/>
-        <v>-7.8929569542151662E-2</v>
+        <v>7.8929569542151662E-2</v>
       </c>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
@@ -24544,7 +24544,7 @@
       </c>
       <c r="E448" s="12">
         <f t="shared" si="13"/>
-        <v>-0.73244877285232812</v>
+        <v>0.73244877285232812</v>
       </c>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
@@ -24578,7 +24578,7 @@
       </c>
       <c r="E449" s="12">
         <f t="shared" si="13"/>
-        <v>-5.4097789712851495E-8</v>
+        <v>5.4097789712851495E-8</v>
       </c>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="E450" s="12">
         <f t="shared" si="13"/>
-        <v>-0.33567269307288877</v>
+        <v>0.33567269307288877</v>
       </c>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
@@ -24645,8 +24645,8 @@
         <v>0.99709901574201798</v>
       </c>
       <c r="E451" s="12">
-        <f t="shared" ref="E451:E514" si="15">C451 * LOG(D451) + (1-C451) * LOG(1-D451)</f>
-        <v>-1.2617124454372475E-3</v>
+        <f t="shared" ref="E451:E514" si="15">-(C451 * LOG(D451) + (1-C451) * LOG(1-D451))</f>
+        <v>1.2617124454372475E-3</v>
       </c>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
@@ -24680,7 +24680,7 @@
       </c>
       <c r="E452" s="12">
         <f t="shared" si="15"/>
-        <v>-1.5070246949216994E-2</v>
+        <v>1.5070246949216994E-2</v>
       </c>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
@@ -24714,7 +24714,7 @@
       </c>
       <c r="E453" s="12">
         <f t="shared" si="15"/>
-        <v>-1.4884518567454317E-4</v>
+        <v>1.4884518567454317E-4</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
@@ -24748,7 +24748,7 @@
       </c>
       <c r="E454" s="12">
         <f t="shared" si="15"/>
-        <v>-2.2233851326926138E-2</v>
+        <v>2.2233851326926138E-2</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
@@ -24782,7 +24782,7 @@
       </c>
       <c r="E455" s="12">
         <f t="shared" si="15"/>
-        <v>-5.0777214175153335E-7</v>
+        <v>5.0777214175153335E-7</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
@@ -24816,7 +24816,7 @@
       </c>
       <c r="E456" s="12">
         <f t="shared" si="15"/>
-        <v>-9.4640845306282099E-5</v>
+        <v>9.4640845306282099E-5</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
@@ -24850,7 +24850,7 @@
       </c>
       <c r="E457" s="12">
         <f t="shared" si="15"/>
-        <v>-3.6182549252784683E-2</v>
+        <v>3.6182549252784683E-2</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="E458" s="12">
         <f t="shared" si="15"/>
-        <v>-1.2868016190221296E-4</v>
+        <v>1.2868016190221296E-4</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
@@ -24918,7 +24918,7 @@
       </c>
       <c r="E459" s="12">
         <f t="shared" si="15"/>
-        <v>-2.1281709501876851E-4</v>
+        <v>2.1281709501876851E-4</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
@@ -24952,7 +24952,7 @@
       </c>
       <c r="E460" s="12">
         <f t="shared" si="15"/>
-        <v>-1.2063191350169045E-3</v>
+        <v>1.2063191350169045E-3</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
@@ -24986,7 +24986,7 @@
       </c>
       <c r="E461" s="12">
         <f t="shared" si="15"/>
-        <v>-1.4230238660017206E-4</v>
+        <v>1.4230238660017206E-4</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
@@ -25020,7 +25020,7 @@
       </c>
       <c r="E462" s="12">
         <f t="shared" si="15"/>
-        <v>-2.7973939973299848E-8</v>
+        <v>2.7973939973299848E-8</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
@@ -25054,7 +25054,7 @@
       </c>
       <c r="E463" s="12">
         <f t="shared" si="15"/>
-        <v>-5.5046550827968373E-4</v>
+        <v>5.5046550827968373E-4</v>
       </c>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
@@ -25088,7 +25088,7 @@
       </c>
       <c r="E464" s="12">
         <f t="shared" si="15"/>
-        <v>-1.2561313825905527E-6</v>
+        <v>1.2561313825905527E-6</v>
       </c>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
@@ -25122,7 +25122,7 @@
       </c>
       <c r="E465" s="12">
         <f t="shared" si="15"/>
-        <v>-2.4650775092504594E-2</v>
+        <v>2.4650775092504594E-2</v>
       </c>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
@@ -25156,7 +25156,7 @@
       </c>
       <c r="E466" s="12">
         <f t="shared" si="15"/>
-        <v>-1.9414264417050085E-7</v>
+        <v>1.9414264417050085E-7</v>
       </c>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
@@ -25190,7 +25190,7 @@
       </c>
       <c r="E467" s="12">
         <f t="shared" si="15"/>
-        <v>-2.5620602060123141E-3</v>
+        <v>2.5620602060123141E-3</v>
       </c>
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
@@ -25224,7 +25224,7 @@
       </c>
       <c r="E468" s="12">
         <f t="shared" si="15"/>
-        <v>-3.5897932418413293E-4</v>
+        <v>3.5897932418413293E-4</v>
       </c>
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
@@ -25258,7 +25258,7 @@
       </c>
       <c r="E469" s="12">
         <f t="shared" si="15"/>
-        <v>-4.0811696073110061E-2</v>
+        <v>4.0811696073110061E-2</v>
       </c>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
@@ -25292,7 +25292,7 @@
       </c>
       <c r="E470" s="12">
         <f t="shared" si="15"/>
-        <v>-1.1998794619850742E-3</v>
+        <v>1.1998794619850742E-3</v>
       </c>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
@@ -25326,7 +25326,7 @@
       </c>
       <c r="E471" s="12">
         <f t="shared" si="15"/>
-        <v>-9.8136853095986487E-4</v>
+        <v>9.8136853095986487E-4</v>
       </c>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
@@ -25360,7 +25360,7 @@
       </c>
       <c r="E472" s="12">
         <f t="shared" si="15"/>
-        <v>-3.7316984583647414E-3</v>
+        <v>3.7316984583647414E-3</v>
       </c>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
@@ -25394,7 +25394,7 @@
       </c>
       <c r="E473" s="12">
         <f t="shared" si="15"/>
-        <v>-2.3050626554868129E-3</v>
+        <v>2.3050626554868129E-3</v>
       </c>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
@@ -25428,7 +25428,7 @@
       </c>
       <c r="E474" s="12">
         <f t="shared" si="15"/>
-        <v>-7.5155764632110576E-3</v>
+        <v>7.5155764632110576E-3</v>
       </c>
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
@@ -25462,7 +25462,7 @@
       </c>
       <c r="E475" s="12">
         <f t="shared" si="15"/>
-        <v>-2.0642155302111597E-4</v>
+        <v>2.0642155302111597E-4</v>
       </c>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
@@ -25496,7 +25496,7 @@
       </c>
       <c r="E476" s="12">
         <f t="shared" si="15"/>
-        <v>-2.9749248240188103E-5</v>
+        <v>2.9749248240188103E-5</v>
       </c>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="E477" s="12">
         <f t="shared" si="15"/>
-        <v>-7.4961494530604475E-6</v>
+        <v>7.4961494530604475E-6</v>
       </c>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
@@ -25564,7 +25564,7 @@
       </c>
       <c r="E478" s="12">
         <f t="shared" si="15"/>
-        <v>-2.0441223483050291E-3</v>
+        <v>2.0441223483050291E-3</v>
       </c>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
@@ -25598,7 +25598,7 @@
       </c>
       <c r="E479" s="12">
         <f t="shared" si="15"/>
-        <v>-3.3949967878638792E-7</v>
+        <v>3.3949967878638792E-7</v>
       </c>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
@@ -25632,7 +25632,7 @@
       </c>
       <c r="E480" s="12">
         <f t="shared" si="15"/>
-        <v>-1.4786300191035955E-5</v>
+        <v>1.4786300191035955E-5</v>
       </c>
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
@@ -25666,7 +25666,7 @@
       </c>
       <c r="E481" s="12">
         <f t="shared" si="15"/>
-        <v>-3.4320329188368512E-4</v>
+        <v>3.4320329188368512E-4</v>
       </c>
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
@@ -25700,7 +25700,7 @@
       </c>
       <c r="E482" s="12">
         <f t="shared" si="15"/>
-        <v>-1.9336623523945036E-3</v>
+        <v>1.9336623523945036E-3</v>
       </c>
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
@@ -25734,7 +25734,7 @@
       </c>
       <c r="E483" s="12">
         <f t="shared" si="15"/>
-        <v>-0.75033808617161535</v>
+        <v>0.75033808617161535</v>
       </c>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
@@ -25768,7 +25768,7 @@
       </c>
       <c r="E484" s="12">
         <f t="shared" si="15"/>
-        <v>-2.7622924736997192E-3</v>
+        <v>2.7622924736997192E-3</v>
       </c>
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
@@ -25802,7 +25802,7 @@
       </c>
       <c r="E485" s="12">
         <f t="shared" si="15"/>
-        <v>-7.4014470998687326E-2</v>
+        <v>7.4014470998687326E-2</v>
       </c>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="E486" s="12">
         <f t="shared" si="15"/>
-        <v>-7.3590312066708377E-5</v>
+        <v>7.3590312066708377E-5</v>
       </c>
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
@@ -25870,7 +25870,7 @@
       </c>
       <c r="E487" s="12">
         <f t="shared" si="15"/>
-        <v>-0.26393728100442515</v>
+        <v>0.26393728100442515</v>
       </c>
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
@@ -25904,7 +25904,7 @@
       </c>
       <c r="E488" s="12">
         <f t="shared" si="15"/>
-        <v>-0.10889793588988379</v>
+        <v>0.10889793588988379</v>
       </c>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
@@ -25938,7 +25938,7 @@
       </c>
       <c r="E489" s="12">
         <f t="shared" si="15"/>
-        <v>-5.6099871650538802E-5</v>
+        <v>5.6099871650538802E-5</v>
       </c>
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
@@ -25972,7 +25972,7 @@
       </c>
       <c r="E490" s="12">
         <f t="shared" si="15"/>
-        <v>-1.0117462432970633E-3</v>
+        <v>1.0117462432970633E-3</v>
       </c>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="E491" s="12">
         <f t="shared" si="15"/>
-        <v>-1.4341846621036835E-5</v>
+        <v>1.4341846621036835E-5</v>
       </c>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
@@ -26040,7 +26040,7 @@
       </c>
       <c r="E492" s="12">
         <f t="shared" si="15"/>
-        <v>-5.8239010864321403E-3</v>
+        <v>5.8239010864321403E-3</v>
       </c>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
@@ -26074,7 +26074,7 @@
       </c>
       <c r="E493" s="12">
         <f t="shared" si="15"/>
-        <v>-6.0967210483031884E-6</v>
+        <v>6.0967210483031884E-6</v>
       </c>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
@@ -26108,7 +26108,7 @@
       </c>
       <c r="E494" s="12">
         <f t="shared" si="15"/>
-        <v>-2.0332207022594191E-3</v>
+        <v>2.0332207022594191E-3</v>
       </c>
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="E495" s="12">
         <f t="shared" si="15"/>
-        <v>-3.1826096117390518E-4</v>
+        <v>3.1826096117390518E-4</v>
       </c>
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
@@ -26176,7 +26176,7 @@
       </c>
       <c r="E496" s="12">
         <f t="shared" si="15"/>
-        <v>-4.2026415759546366E-6</v>
+        <v>4.2026415759546366E-6</v>
       </c>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
@@ -26210,7 +26210,7 @@
       </c>
       <c r="E497" s="12">
         <f t="shared" si="15"/>
-        <v>-1.0466006436597633E-4</v>
+        <v>1.0466006436597633E-4</v>
       </c>
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
@@ -26244,7 +26244,7 @@
       </c>
       <c r="E498" s="12">
         <f t="shared" si="15"/>
-        <v>-2.8289353804480741E-5</v>
+        <v>2.8289353804480741E-5</v>
       </c>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
@@ -26278,7 +26278,7 @@
       </c>
       <c r="E499" s="12">
         <f t="shared" si="15"/>
-        <v>-2.4650775092504594E-2</v>
+        <v>2.4650775092504594E-2</v>
       </c>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
@@ -26312,7 +26312,7 @@
       </c>
       <c r="E500" s="12">
         <f t="shared" si="15"/>
-        <v>-5.6838656243584742E-6</v>
+        <v>5.6838656243584742E-6</v>
       </c>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
@@ -26346,7 +26346,7 @@
       </c>
       <c r="E501" s="12">
         <f t="shared" si="15"/>
-        <v>-1.0594140702196867E-2</v>
+        <v>1.0594140702196867E-2</v>
       </c>
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="E502" s="12">
         <f t="shared" si="15"/>
-        <v>-2.1823813876926609E-4</v>
+        <v>2.1823813876926609E-4</v>
       </c>
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
@@ -26414,7 +26414,7 @@
       </c>
       <c r="E503" s="12">
         <f t="shared" si="15"/>
-        <v>-7.3590312066708377E-5</v>
+        <v>7.3590312066708377E-5</v>
       </c>
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
@@ -26448,7 +26448,7 @@
       </c>
       <c r="E504" s="12">
         <f t="shared" si="15"/>
-        <v>-7.0423533353908059E-7</v>
+        <v>7.0423533353908059E-7</v>
       </c>
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
@@ -26482,7 +26482,7 @@
       </c>
       <c r="E505" s="12">
         <f t="shared" si="15"/>
-        <v>-1.3050261192550508E-7</v>
+        <v>1.3050261192550508E-7</v>
       </c>
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
@@ -26516,7 +26516,7 @@
       </c>
       <c r="E506" s="12">
         <f t="shared" si="15"/>
-        <v>-1.9828181907541329E-3</v>
+        <v>1.9828181907541329E-3</v>
       </c>
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
@@ -26550,7 +26550,7 @@
       </c>
       <c r="E507" s="12">
         <f t="shared" si="15"/>
-        <v>-6.5567851134473401E-2</v>
+        <v>6.5567851134473401E-2</v>
       </c>
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
@@ -26584,7 +26584,7 @@
       </c>
       <c r="E508" s="12">
         <f t="shared" si="15"/>
-        <v>-7.8269013120102005E-4</v>
+        <v>7.8269013120102005E-4</v>
       </c>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
@@ -26618,7 +26618,7 @@
       </c>
       <c r="E509" s="12">
         <f t="shared" si="15"/>
-        <v>-5.6448180930062004E-4</v>
+        <v>5.6448180930062004E-4</v>
       </c>
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
@@ -26652,7 +26652,7 @@
       </c>
       <c r="E510" s="12">
         <f t="shared" si="15"/>
-        <v>-2.4945398919007218E-5</v>
+        <v>2.4945398919007218E-5</v>
       </c>
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
@@ -26686,7 +26686,7 @@
       </c>
       <c r="E511" s="12">
         <f t="shared" si="15"/>
-        <v>-2.0753067803181788E-4</v>
+        <v>2.0753067803181788E-4</v>
       </c>
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="E512" s="12">
         <f t="shared" si="15"/>
-        <v>-1.1347101972879688E-4</v>
+        <v>1.1347101972879688E-4</v>
       </c>
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
@@ -26754,7 +26754,7 @@
       </c>
       <c r="E513" s="12">
         <f t="shared" si="15"/>
-        <v>-1.121155793751703E-5</v>
+        <v>1.121155793751703E-5</v>
       </c>
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
@@ -26788,7 +26788,7 @@
       </c>
       <c r="E514" s="12">
         <f t="shared" si="15"/>
-        <v>-3.4782628025378867E-5</v>
+        <v>3.4782628025378867E-5</v>
       </c>
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
@@ -26821,8 +26821,8 @@
         <v>0.99940412286098657</v>
       </c>
       <c r="E515" s="12">
-        <f t="shared" ref="E515:E578" si="17">C515 * LOG(D515) + (1-C515) * LOG(1-D515)</f>
-        <v>-2.5886328638489721E-4</v>
+        <f t="shared" ref="E515:E578" si="17">-(C515 * LOG(D515) + (1-C515) * LOG(1-D515))</f>
+        <v>2.5886328638489721E-4</v>
       </c>
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
@@ -26856,7 +26856,7 @@
       </c>
       <c r="E516" s="12">
         <f t="shared" si="17"/>
-        <v>-3.0264777069478221E-4</v>
+        <v>3.0264777069478221E-4</v>
       </c>
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
@@ -26890,7 +26890,7 @@
       </c>
       <c r="E517" s="12">
         <f t="shared" si="17"/>
-        <v>-1.2063191350169045E-3</v>
+        <v>1.2063191350169045E-3</v>
       </c>
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
@@ -26924,7 +26924,7 @@
       </c>
       <c r="E518" s="12">
         <f t="shared" si="17"/>
-        <v>-6.2576719754914877E-8</v>
+        <v>6.2576719754914877E-8</v>
       </c>
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
@@ -26958,7 +26958,7 @@
       </c>
       <c r="E519" s="12">
         <f t="shared" si="17"/>
-        <v>-1.0582157873141667E-3</v>
+        <v>1.0582157873141667E-3</v>
       </c>
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
@@ -26992,7 +26992,7 @@
       </c>
       <c r="E520" s="12">
         <f t="shared" si="17"/>
-        <v>-2.259988663925655E-3</v>
+        <v>2.259988663925655E-3</v>
       </c>
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
@@ -27026,7 +27026,7 @@
       </c>
       <c r="E521" s="12">
         <f t="shared" si="17"/>
-        <v>-1.223660827850967E-4</v>
+        <v>1.223660827850967E-4</v>
       </c>
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="E522" s="12">
         <f t="shared" si="17"/>
-        <v>-1.6879479970080351E-4</v>
+        <v>1.6879479970080351E-4</v>
       </c>
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
@@ -27094,7 +27094,7 @@
       </c>
       <c r="E523" s="12">
         <f t="shared" si="17"/>
-        <v>-6.4053121147903361E-2</v>
+        <v>6.4053121147903361E-2</v>
       </c>
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
@@ -27128,7 +27128,7 @@
       </c>
       <c r="E524" s="12">
         <f t="shared" si="17"/>
-        <v>-3.5006367270347155E-4</v>
+        <v>3.5006367270347155E-4</v>
       </c>
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
@@ -27162,7 +27162,7 @@
       </c>
       <c r="E525" s="12">
         <f t="shared" si="17"/>
-        <v>-4.4133753186654433E-4</v>
+        <v>4.4133753186654433E-4</v>
       </c>
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
@@ -27196,7 +27196,7 @@
       </c>
       <c r="E526" s="12">
         <f t="shared" si="17"/>
-        <v>-2.2479387434230446E-3</v>
+        <v>2.2479387434230446E-3</v>
       </c>
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="E527" s="12">
         <f t="shared" si="17"/>
-        <v>-0.20492667440802456</v>
+        <v>0.20492667440802456</v>
       </c>
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
@@ -27264,7 +27264,7 @@
       </c>
       <c r="E528" s="12">
         <f t="shared" si="17"/>
-        <v>-2.3050626554868129E-3</v>
+        <v>2.3050626554868129E-3</v>
       </c>
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
@@ -27298,7 +27298,7 @@
       </c>
       <c r="E529" s="12">
         <f t="shared" si="17"/>
-        <v>-1.1413915829503723E-2</v>
+        <v>1.1413915829503723E-2</v>
       </c>
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
@@ -27332,7 +27332,7 @@
       </c>
       <c r="E530" s="12">
         <f t="shared" si="17"/>
-        <v>-3.8059963825668825E-3</v>
+        <v>3.8059963825668825E-3</v>
       </c>
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
@@ -27366,7 +27366,7 @@
       </c>
       <c r="E531" s="12">
         <f t="shared" si="17"/>
-        <v>-7.5373182096293206E-2</v>
+        <v>7.5373182096293206E-2</v>
       </c>
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
@@ -27400,7 +27400,7 @@
       </c>
       <c r="E532" s="12">
         <f t="shared" si="17"/>
-        <v>-0.11842136194499447</v>
+        <v>0.11842136194499447</v>
       </c>
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
@@ -27434,7 +27434,7 @@
       </c>
       <c r="E533" s="12">
         <f t="shared" si="17"/>
-        <v>-4.5593909389975628E-3</v>
+        <v>4.5593909389975628E-3</v>
       </c>
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
@@ -27468,7 +27468,7 @@
       </c>
       <c r="E534" s="12">
         <f t="shared" si="17"/>
-        <v>-1.4073423161475543E-7</v>
+        <v>1.4073423161475543E-7</v>
       </c>
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
@@ -27502,7 +27502,7 @@
       </c>
       <c r="E535" s="12">
         <f t="shared" si="17"/>
-        <v>-7.2217866034817494E-7</v>
+        <v>7.2217866034817494E-7</v>
       </c>
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
@@ -27536,7 +27536,7 @@
       </c>
       <c r="E536" s="12">
         <f t="shared" si="17"/>
-        <v>-2.3561652421597431E-6</v>
+        <v>2.3561652421597431E-6</v>
       </c>
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
@@ -27570,7 +27570,7 @@
       </c>
       <c r="E537" s="12">
         <f t="shared" si="17"/>
-        <v>-7.1161620091620423E-4</v>
+        <v>7.1161620091620423E-4</v>
       </c>
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
@@ -27604,7 +27604,7 @@
       </c>
       <c r="E538" s="12">
         <f t="shared" si="17"/>
-        <v>-4.5872476634104192E-5</v>
+        <v>4.5872476634104192E-5</v>
       </c>
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="E539" s="12">
         <f t="shared" si="17"/>
-        <v>-2.3561652421597431E-6</v>
+        <v>2.3561652421597431E-6</v>
       </c>
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
@@ -27672,7 +27672,7 @@
       </c>
       <c r="E540" s="12">
         <f t="shared" si="17"/>
-        <v>-2.423689969939585E-3</v>
+        <v>2.423689969939585E-3</v>
       </c>
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
@@ -27706,7 +27706,7 @@
       </c>
       <c r="E541" s="12">
         <f t="shared" si="17"/>
-        <v>-1.4669617954075585E-3</v>
+        <v>1.4669617954075585E-3</v>
       </c>
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
@@ -27740,7 +27740,7 @@
       </c>
       <c r="E542" s="12">
         <f t="shared" si="17"/>
-        <v>-6.711570789771408E-2</v>
+        <v>6.711570789771408E-2</v>
       </c>
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
@@ -27774,7 +27774,7 @@
       </c>
       <c r="E543" s="12">
         <f t="shared" si="17"/>
-        <v>-3.2107483657186613E-3</v>
+        <v>3.2107483657186613E-3</v>
       </c>
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
@@ -27808,7 +27808,7 @@
       </c>
       <c r="E544" s="12">
         <f t="shared" si="17"/>
-        <v>-5.0729099881974221E-5</v>
+        <v>5.0729099881974221E-5</v>
       </c>
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
@@ -27842,7 +27842,7 @@
       </c>
       <c r="E545" s="12">
         <f t="shared" si="17"/>
-        <v>-3.3949967878638792E-7</v>
+        <v>3.3949967878638792E-7</v>
       </c>
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
@@ -27876,7 +27876,7 @@
       </c>
       <c r="E546" s="12">
         <f t="shared" si="17"/>
-        <v>-6.6902817879170955E-5</v>
+        <v>6.6902817879170955E-5</v>
       </c>
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
@@ -27910,7 +27910,7 @@
       </c>
       <c r="E547" s="12">
         <f t="shared" si="17"/>
-        <v>-1.5508092126101088E-3</v>
+        <v>1.5508092126101088E-3</v>
       </c>
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
@@ -27944,7 +27944,7 @@
       </c>
       <c r="E548" s="12">
         <f t="shared" si="17"/>
-        <v>-5.4031159631414893E-3</v>
+        <v>5.4031159631414893E-3</v>
       </c>
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
@@ -27978,7 +27978,7 @@
       </c>
       <c r="E549" s="12">
         <f t="shared" si="17"/>
-        <v>-1.43427514113822E-2</v>
+        <v>1.43427514113822E-2</v>
       </c>
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
@@ -28012,7 +28012,7 @@
       </c>
       <c r="E550" s="12">
         <f t="shared" si="17"/>
-        <v>-7.5373182096293206E-2</v>
+        <v>7.5373182096293206E-2</v>
       </c>
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
@@ -28046,7 +28046,7 @@
       </c>
       <c r="E551" s="12">
         <f t="shared" si="17"/>
-        <v>-3.7066192785917093E-2</v>
+        <v>3.7066192785917093E-2</v>
       </c>
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
@@ -28080,7 +28080,7 @@
       </c>
       <c r="E552" s="12">
         <f t="shared" si="17"/>
-        <v>-0.1018383775463213</v>
+        <v>0.1018383775463213</v>
       </c>
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
@@ -28114,7 +28114,7 @@
       </c>
       <c r="E553" s="12">
         <f t="shared" si="17"/>
-        <v>-6.1197624493416428E-4</v>
+        <v>6.1197624493416428E-4</v>
       </c>
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
@@ -28148,7 +28148,7 @@
       </c>
       <c r="E554" s="12">
         <f t="shared" si="17"/>
-        <v>-7.2147674157206526E-5</v>
+        <v>7.2147674157206526E-5</v>
       </c>
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
@@ -28182,7 +28182,7 @@
       </c>
       <c r="E555" s="12">
         <f t="shared" si="17"/>
-        <v>-5.6940311261923176E-10</v>
+        <v>5.6940311261923176E-10</v>
       </c>
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
@@ -28216,7 +28216,7 @@
       </c>
       <c r="E556" s="12">
         <f t="shared" si="17"/>
-        <v>-1.3434664055603887</v>
+        <v>1.3434664055603887</v>
       </c>
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
@@ -28250,7 +28250,7 @@
       </c>
       <c r="E557" s="12">
         <f t="shared" si="17"/>
-        <v>-2.1450188155855896E-5</v>
+        <v>2.1450188155855896E-5</v>
       </c>
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="E558" s="12">
         <f t="shared" si="17"/>
-        <v>-2.4985856992681757E-3</v>
+        <v>2.4985856992681757E-3</v>
       </c>
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="E559" s="12">
         <f t="shared" si="17"/>
-        <v>-1.8766567341973442E-4</v>
+        <v>1.8766567341973442E-4</v>
       </c>
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
@@ -28352,7 +28352,7 @@
       </c>
       <c r="E560" s="12">
         <f t="shared" si="17"/>
-        <v>-1.1017246815744787E-6</v>
+        <v>1.1017246815744787E-6</v>
       </c>
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
@@ -28386,7 +28386,7 @@
       </c>
       <c r="E561" s="12">
         <f t="shared" si="17"/>
-        <v>-2.1493538843624536E-3</v>
+        <v>2.1493538843624536E-3</v>
       </c>
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
@@ -28420,7 +28420,7 @@
       </c>
       <c r="E562" s="12">
         <f t="shared" si="17"/>
-        <v>-2.9513070077591614E-4</v>
+        <v>2.9513070077591614E-4</v>
       </c>
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
@@ -28454,7 +28454,7 @@
       </c>
       <c r="E563" s="12">
         <f t="shared" si="17"/>
-        <v>-1.267179200810982E-2</v>
+        <v>1.267179200810982E-2</v>
       </c>
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
@@ -28488,7 +28488,7 @@
       </c>
       <c r="E564" s="12">
         <f t="shared" si="17"/>
-        <v>-7.6645493521220421E-3</v>
+        <v>7.6645493521220421E-3</v>
       </c>
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
@@ -28522,7 +28522,7 @@
       </c>
       <c r="E565" s="12">
         <f t="shared" si="17"/>
-        <v>-2.3350971306850796E-2</v>
+        <v>2.3350971306850796E-2</v>
       </c>
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="E566" s="12">
         <f t="shared" si="17"/>
-        <v>-0.25515353869424684</v>
+        <v>0.25515353869424684</v>
       </c>
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
@@ -28590,7 +28590,7 @@
       </c>
       <c r="E567" s="12">
         <f t="shared" si="17"/>
-        <v>-1.7555514140912136E-7</v>
+        <v>1.7555514140912136E-7</v>
       </c>
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
@@ -28624,7 +28624,7 @@
       </c>
       <c r="E568" s="12">
         <f t="shared" si="17"/>
-        <v>-1.8264179353632452E-2</v>
+        <v>1.8264179353632452E-2</v>
       </c>
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
@@ -28658,7 +28658,7 @@
       </c>
       <c r="E569" s="12">
         <f t="shared" si="17"/>
-        <v>-1.1579200993643852</v>
+        <v>1.1579200993643852</v>
       </c>
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
@@ -28692,7 +28692,7 @@
       </c>
       <c r="E570" s="12">
         <f t="shared" si="17"/>
-        <v>-5.5399085774517033E-3</v>
+        <v>5.5399085774517033E-3</v>
       </c>
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
@@ -28726,7 +28726,7 @@
       </c>
       <c r="E571" s="12">
         <f t="shared" si="17"/>
-        <v>-2.7221840218883021E-4</v>
+        <v>2.7221840218883021E-4</v>
       </c>
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
@@ -28760,7 +28760,7 @@
       </c>
       <c r="E572" s="12">
         <f t="shared" si="17"/>
-        <v>-1.1932617742617403E-4</v>
+        <v>1.1932617742617403E-4</v>
       </c>
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
@@ -28794,7 +28794,7 @@
       </c>
       <c r="E573" s="12">
         <f t="shared" si="17"/>
-        <v>-7.7132647216776234E-2</v>
+        <v>7.7132647216776234E-2</v>
       </c>
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
@@ -28828,7 +28828,7 @@
       </c>
       <c r="E574" s="12">
         <f t="shared" si="17"/>
-        <v>-7.25834732853991E-4</v>
+        <v>7.25834732853991E-4</v>
       </c>
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
@@ -28862,7 +28862,7 @@
       </c>
       <c r="E575" s="12">
         <f t="shared" si="17"/>
-        <v>-5.8549909608360731E-3</v>
+        <v>5.8549909608360731E-3</v>
       </c>
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
@@ -28896,7 +28896,7 @@
       </c>
       <c r="E576" s="12">
         <f t="shared" si="17"/>
-        <v>-2.1450188155855896E-5</v>
+        <v>2.1450188155855896E-5</v>
       </c>
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
@@ -28930,7 +28930,7 @@
       </c>
       <c r="E577" s="12">
         <f t="shared" si="17"/>
-        <v>-2.9936783869059174E-7</v>
+        <v>2.9936783869059174E-7</v>
       </c>
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
@@ -28964,7 +28964,7 @@
       </c>
       <c r="E578" s="12">
         <f t="shared" si="17"/>
-        <v>-0.13271009482501833</v>
+        <v>0.13271009482501833</v>
       </c>
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
@@ -28997,8 +28997,8 @@
         <v>2.6820672949971546E-6</v>
       </c>
       <c r="E579" s="12">
-        <f t="shared" ref="E579:E624" si="19">C579 * LOG(D579) + (1-C579) * LOG(1-D579)</f>
-        <v>-1.1648085883748755E-6</v>
+        <f t="shared" ref="E579:E625" si="19">-(C579 * LOG(D579) + (1-C579) * LOG(1-D579))</f>
+        <v>1.1648085883748755E-6</v>
       </c>
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
@@ -29032,7 +29032,7 @@
       </c>
       <c r="E580" s="12">
         <f t="shared" si="19"/>
-        <v>-2.0332207022594191E-3</v>
+        <v>2.0332207022594191E-3</v>
       </c>
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="E581" s="12">
         <f t="shared" si="19"/>
-        <v>-1.6154866665606034E-6</v>
+        <v>1.6154866665606034E-6</v>
       </c>
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
@@ -29100,7 +29100,7 @@
       </c>
       <c r="E582" s="12">
         <f t="shared" si="19"/>
-        <v>-1.9265982723998635E-6</v>
+        <v>1.9265982723998635E-6</v>
       </c>
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
@@ -29134,7 +29134,7 @@
       </c>
       <c r="E583" s="12">
         <f t="shared" si="19"/>
-        <v>-6.023223085186412E-7</v>
+        <v>6.023223085186412E-7</v>
       </c>
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
@@ -29168,7 +29168,7 @@
       </c>
       <c r="E584" s="12">
         <f t="shared" si="19"/>
-        <v>-1.1763873353547343E-3</v>
+        <v>1.1763873353547343E-3</v>
       </c>
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
@@ -29202,7 +29202,7 @@
       </c>
       <c r="E585" s="12">
         <f t="shared" si="19"/>
-        <v>-5.9701752610203128E-2</v>
+        <v>5.9701752610203128E-2</v>
       </c>
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
@@ -29236,7 +29236,7 @@
       </c>
       <c r="E586" s="12">
         <f t="shared" si="19"/>
-        <v>-3.2225325695626715E-2</v>
+        <v>3.2225325695626715E-2</v>
       </c>
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
@@ -29270,7 +29270,7 @@
       </c>
       <c r="E587" s="12">
         <f t="shared" si="19"/>
-        <v>-1.0874554307302423E-5</v>
+        <v>1.0874554307302423E-5</v>
       </c>
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
@@ -29304,7 +29304,7 @@
       </c>
       <c r="E588" s="12">
         <f t="shared" si="19"/>
-        <v>-9.8663680212196384E-4</v>
+        <v>9.8663680212196384E-4</v>
       </c>
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
@@ -29338,7 +29338,7 @@
       </c>
       <c r="E589" s="12">
         <f t="shared" si="19"/>
-        <v>-5.3057504268709255E-2</v>
+        <v>5.3057504268709255E-2</v>
       </c>
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
@@ -29372,7 +29372,7 @@
       </c>
       <c r="E590" s="12">
         <f t="shared" si="19"/>
-        <v>-1.1497215504724163E-5</v>
+        <v>1.1497215504724163E-5</v>
       </c>
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="E591" s="12">
         <f t="shared" si="19"/>
-        <v>-4.8249218909211584E-2</v>
+        <v>4.8249218909211584E-2</v>
       </c>
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
@@ -29440,7 +29440,7 @@
       </c>
       <c r="E592" s="12">
         <f t="shared" si="19"/>
-        <v>-2.9166025858868305E-5</v>
+        <v>2.9166025858868305E-5</v>
       </c>
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
@@ -29474,7 +29474,7 @@
       </c>
       <c r="E593" s="12">
         <f t="shared" si="19"/>
-        <v>-4.3367525517278337E-3</v>
+        <v>4.3367525517278337E-3</v>
       </c>
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="E594" s="12">
         <f t="shared" si="19"/>
-        <v>-0.61392637157131824</v>
+        <v>0.61392637157131824</v>
       </c>
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
@@ -29542,7 +29542,7 @@
       </c>
       <c r="E595" s="12">
         <f t="shared" si="19"/>
-        <v>-2.5079461363034943E-5</v>
+        <v>2.5079461363034943E-5</v>
       </c>
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
@@ -29576,7 +29576,7 @@
       </c>
       <c r="E596" s="12">
         <f t="shared" si="19"/>
-        <v>-1.8560730493633822E-7</v>
+        <v>1.8560730493633822E-7</v>
       </c>
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
@@ -29610,7 +29610,7 @@
       </c>
       <c r="E597" s="12">
         <f t="shared" si="19"/>
-        <v>-4.849457426330997E-2</v>
+        <v>4.849457426330997E-2</v>
       </c>
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
@@ -29644,7 +29644,7 @@
       </c>
       <c r="E598" s="12">
         <f t="shared" si="19"/>
-        <v>-1.4624791994400208E-2</v>
+        <v>1.4624791994400208E-2</v>
       </c>
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
@@ -29678,7 +29678,7 @@
       </c>
       <c r="E599" s="12">
         <f t="shared" si="19"/>
-        <v>-1.1932617742617403E-4</v>
+        <v>1.1932617742617403E-4</v>
       </c>
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
@@ -29712,7 +29712,7 @@
       </c>
       <c r="E600" s="12">
         <f t="shared" si="19"/>
-        <v>-9.4049434703078541E-3</v>
+        <v>9.4049434703078541E-3</v>
       </c>
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
@@ -29746,7 +29746,7 @@
       </c>
       <c r="E601" s="12">
         <f t="shared" si="19"/>
-        <v>-1.1006063025222633E-4</v>
+        <v>1.1006063025222633E-4</v>
       </c>
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
@@ -29780,7 +29780,7 @@
       </c>
       <c r="E602" s="12">
         <f t="shared" si="19"/>
-        <v>-1.0860723211981588E-2</v>
+        <v>1.0860723211981588E-2</v>
       </c>
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
@@ -29814,7 +29814,7 @@
       </c>
       <c r="E603" s="12">
         <f t="shared" si="19"/>
-        <v>-2.2905030210349845E-2</v>
+        <v>2.2905030210349845E-2</v>
       </c>
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
@@ -29848,7 +29848,7 @@
       </c>
       <c r="E604" s="12">
         <f t="shared" si="19"/>
-        <v>-0.15095483734927759</v>
+        <v>0.15095483734927759</v>
       </c>
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
@@ -29882,7 +29882,7 @@
       </c>
       <c r="E605" s="12">
         <f t="shared" si="19"/>
-        <v>-0.25899505486109664</v>
+        <v>0.25899505486109664</v>
       </c>
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
@@ -29916,7 +29916,7 @@
       </c>
       <c r="E606" s="12">
         <f t="shared" si="19"/>
-        <v>-1.2296231980074819E-2</v>
+        <v>1.2296231980074819E-2</v>
       </c>
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
@@ -29950,7 +29950,7 @@
       </c>
       <c r="E607" s="12">
         <f t="shared" si="19"/>
-        <v>-4.8874587521618812E-6</v>
+        <v>4.8874587521618812E-6</v>
       </c>
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
@@ -29984,7 +29984,7 @@
       </c>
       <c r="E608" s="12">
         <f t="shared" si="19"/>
-        <v>-8.6547763116407242E-4</v>
+        <v>8.6547763116407242E-4</v>
       </c>
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
@@ -30018,7 +30018,7 @@
       </c>
       <c r="E609" s="12">
         <f t="shared" si="19"/>
-        <v>-4.1020993143265551E-2</v>
+        <v>4.1020993143265551E-2</v>
       </c>
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
@@ -30052,7 +30052,7 @@
       </c>
       <c r="E610" s="12">
         <f t="shared" si="19"/>
-        <v>-4.511944654688692E-8</v>
+        <v>4.511944654688692E-8</v>
       </c>
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
@@ -30086,7 +30086,7 @@
       </c>
       <c r="E611" s="12">
         <f t="shared" si="19"/>
-        <v>-6.1197624493416428E-4</v>
+        <v>6.1197624493416428E-4</v>
       </c>
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
@@ -30120,7 +30120,7 @@
       </c>
       <c r="E612" s="12">
         <f t="shared" si="19"/>
-        <v>-1.5425338175369819E-3</v>
+        <v>1.5425338175369819E-3</v>
       </c>
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
@@ -30154,7 +30154,7 @@
       </c>
       <c r="E613" s="12">
         <f t="shared" si="19"/>
-        <v>-5.8549909608360731E-3</v>
+        <v>5.8549909608360731E-3</v>
       </c>
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
@@ -30188,7 +30188,7 @@
       </c>
       <c r="E614" s="12">
         <f t="shared" si="19"/>
-        <v>-7.2915517206278407E-3</v>
+        <v>7.2915517206278407E-3</v>
       </c>
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
@@ -30222,7 +30222,7 @@
       </c>
       <c r="E615" s="12">
         <f t="shared" si="19"/>
-        <v>-1.0661358379617325E-5</v>
+        <v>1.0661358379617325E-5</v>
       </c>
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
@@ -30256,7 +30256,7 @@
       </c>
       <c r="E616" s="12">
         <f t="shared" si="19"/>
-        <v>-2.4616319086211516E-4</v>
+        <v>2.4616319086211516E-4</v>
       </c>
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
@@ -30290,7 +30290,7 @@
       </c>
       <c r="E617" s="12">
         <f t="shared" si="19"/>
-        <v>-9.1737175700864221E-3</v>
+        <v>9.1737175700864221E-3</v>
       </c>
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
@@ -30324,7 +30324,7 @@
       </c>
       <c r="E618" s="12">
         <f t="shared" si="19"/>
-        <v>-1.3604780109773384E-3</v>
+        <v>1.3604780109773384E-3</v>
       </c>
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
@@ -30358,7 +30358,7 @@
       </c>
       <c r="E619" s="12">
         <f t="shared" si="19"/>
-        <v>-2.4054948288952195E-2</v>
+        <v>2.4054948288952195E-2</v>
       </c>
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
@@ -30392,7 +30392,7 @@
       </c>
       <c r="E620" s="12">
         <f t="shared" si="19"/>
-        <v>-1.5902503103588392E-3</v>
+        <v>1.5902503103588392E-3</v>
       </c>
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
@@ -30426,7 +30426,7 @@
       </c>
       <c r="E621" s="12">
         <f t="shared" si="19"/>
-        <v>-2.211492349422649E-5</v>
+        <v>2.211492349422649E-5</v>
       </c>
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
@@ -30460,7 +30460,7 @@
       </c>
       <c r="E622" s="12">
         <f t="shared" si="19"/>
-        <v>-0.10599302024536979</v>
+        <v>0.10599302024536979</v>
       </c>
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
@@ -30494,7 +30494,7 @@
       </c>
       <c r="E623" s="12">
         <f t="shared" si="19"/>
-        <v>-7.3590312066708377E-5</v>
+        <v>7.3590312066708377E-5</v>
       </c>
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
@@ -30528,7 +30528,7 @@
       </c>
       <c r="E624" s="12">
         <f t="shared" si="19"/>
-        <v>-7.6460510340824802E-6</v>
+        <v>7.6460510340824802E-6</v>
       </c>
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
@@ -30561,8 +30561,8 @@
         <v>0.99999403240146911</v>
       </c>
       <c r="E625" s="12">
-        <f>C625 * LOG(D625) + (1-C625) * LOG(1-D625)</f>
-        <v>-2.5917028453069704E-6</v>
+        <f t="shared" si="19"/>
+        <v>2.5917028453069704E-6</v>
       </c>
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
@@ -30624,7 +30624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC7636A-3207-4C3C-990A-7A4EBEFA09BF}">
   <dimension ref="A1:B625"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
